--- a/BackTest/2019-10-28 BackTest POWR.xlsx
+++ b/BackTest/2019-10-28 BackTest POWR.xlsx
@@ -1291,17 +1291,13 @@
         <v>51.96666666666675</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>52</v>
-      </c>
-      <c r="K26" t="n">
-        <v>52</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1330,22 +1326,14 @@
         <v>52.03333333333342</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>52</v>
-      </c>
-      <c r="K27" t="n">
-        <v>52</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1373,22 +1361,14 @@
         <v>52.06666666666675</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>52</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1416,22 +1396,14 @@
         <v>52.10000000000008</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>52</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1459,22 +1431,14 @@
         <v>52.43333333333342</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>52</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1502,22 +1466,14 @@
         <v>52.60000000000008</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="K31" t="n">
-        <v>52</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1545,22 +1501,14 @@
         <v>52.76666666666674</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="K32" t="n">
-        <v>52</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1536,14 @@
         <v>52.60000000000008</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="K33" t="n">
-        <v>52</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1631,22 +1571,14 @@
         <v>52.56666666666675</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>52</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1674,22 +1606,14 @@
         <v>52.40000000000008</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>52</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1717,22 +1641,14 @@
         <v>52.23333333333341</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>52</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1760,22 +1676,14 @@
         <v>52.10000000000008</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>52</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1803,22 +1711,14 @@
         <v>52.06666666666675</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>52</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1846,22 +1746,14 @@
         <v>52.06666666666675</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>52</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1889,22 +1781,14 @@
         <v>52.10000000000009</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="K40" t="n">
-        <v>52</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1932,22 +1816,14 @@
         <v>52.13333333333342</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>52</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1975,22 +1851,14 @@
         <v>52.13333333333342</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>52</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2018,22 +1886,14 @@
         <v>52.10000000000008</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>52</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2061,22 +1921,14 @@
         <v>52.10000000000008</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>52</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2104,22 +1956,14 @@
         <v>52.10000000000008</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>52</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2147,22 +1991,14 @@
         <v>52.10000000000008</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>52</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2190,22 +2026,14 @@
         <v>52.10000000000008</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>52</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2233,22 +2061,14 @@
         <v>52.10000000000008</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>52</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2276,22 +2096,14 @@
         <v>52.10000000000008</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K49" t="n">
-        <v>52</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2319,22 +2131,14 @@
         <v>52.10000000000008</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K50" t="n">
-        <v>52</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2362,22 +2166,14 @@
         <v>52.10000000000008</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K51" t="n">
-        <v>52</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2405,22 +2201,14 @@
         <v>52.13333333333341</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>52</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2448,22 +2236,14 @@
         <v>52.20000000000007</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="K53" t="n">
-        <v>52</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2491,22 +2271,14 @@
         <v>52.26666666666674</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="K54" t="n">
-        <v>52</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2534,22 +2306,14 @@
         <v>52.30000000000007</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="K55" t="n">
-        <v>52</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2577,22 +2341,14 @@
         <v>52.30000000000007</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="K56" t="n">
-        <v>52</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2620,22 +2376,14 @@
         <v>52.30000000000007</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="K57" t="n">
-        <v>52</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2663,22 +2411,14 @@
         <v>52.30000000000007</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="K58" t="n">
-        <v>52</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2715,13 +2455,9 @@
         <v>52.3</v>
       </c>
       <c r="K59" t="n">
-        <v>52</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>52.3</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2758,11 +2494,11 @@
         <v>52.3</v>
       </c>
       <c r="K60" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2801,11 +2537,11 @@
         <v>52.3</v>
       </c>
       <c r="K61" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2835,22 +2571,14 @@
         <v>52.46666666666673</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="K62" t="n">
-        <v>52</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2878,22 +2606,14 @@
         <v>52.43333333333339</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="K63" t="n">
-        <v>52</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2921,22 +2641,14 @@
         <v>52.33333333333339</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K64" t="n">
-        <v>52</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2964,22 +2676,14 @@
         <v>52.10000000000006</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K65" t="n">
-        <v>52</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3007,22 +2711,14 @@
         <v>52.06666666666672</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K66" t="n">
-        <v>52</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3050,22 +2746,14 @@
         <v>52.10000000000005</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K67" t="n">
-        <v>52</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +2781,14 @@
         <v>52.10000000000005</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="K68" t="n">
-        <v>52</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3136,22 +2816,14 @@
         <v>52.13333333333339</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K69" t="n">
-        <v>52</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3179,22 +2851,14 @@
         <v>52.26666666666673</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="K70" t="n">
-        <v>52</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3222,22 +2886,14 @@
         <v>52.26666666666673</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>52.1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>52</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3265,22 +2921,14 @@
         <v>52.36666666666673</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>53</v>
-      </c>
-      <c r="K72" t="n">
-        <v>52</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3308,22 +2956,14 @@
         <v>52.36666666666673</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="K73" t="n">
-        <v>52</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3351,22 +2991,14 @@
         <v>52.7333333333334</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="K74" t="n">
-        <v>52</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3394,22 +3026,14 @@
         <v>52.93333333333339</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="K75" t="n">
-        <v>52</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3437,22 +3061,14 @@
         <v>53.20000000000007</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>53.2</v>
-      </c>
-      <c r="K76" t="n">
-        <v>52</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3480,22 +3096,14 @@
         <v>53.36666666666673</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="K77" t="n">
-        <v>52</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3529,14 +3137,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>52</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3570,14 +3172,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>52</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3611,14 +3207,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>52</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3652,14 +3242,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>52</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3693,14 +3277,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>52</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3734,14 +3312,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>52</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3775,14 +3347,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>52</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3816,14 +3382,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>52</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3857,14 +3417,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>52</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3898,14 +3452,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>52</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3939,14 +3487,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>52</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3980,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>52</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4021,14 +3557,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>52</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4062,14 +3592,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>52</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4103,14 +3627,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>52</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4144,14 +3662,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>52</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4185,14 +3697,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>52</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4226,14 +3732,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>52</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4267,14 +3767,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>52</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4308,14 +3802,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>52</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4349,14 +3837,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>52</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4390,14 +3872,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>52</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4431,14 +3907,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>52</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4466,22 +3936,14 @@
         <v>52.70000000000008</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="K101" t="n">
-        <v>52</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4509,22 +3971,14 @@
         <v>53.13333333333342</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="K102" t="n">
-        <v>52</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4558,14 +4012,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>52</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4599,14 +4047,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>52</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4640,14 +4082,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>52</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4681,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>52</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4722,14 +4152,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>52</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4763,14 +4187,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>52</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4804,14 +4222,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>52</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4845,14 +4257,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>52</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4886,14 +4292,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>52</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4927,14 +4327,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>52</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4968,14 +4362,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>52</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5009,14 +4397,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>52</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5050,14 +4432,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>52</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5091,14 +4467,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>52</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5126,22 +4496,14 @@
         <v>52.26666666666673</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="K117" t="n">
-        <v>52</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5169,22 +4531,14 @@
         <v>52.23333333333338</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="K118" t="n">
-        <v>52</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5212,22 +4566,14 @@
         <v>52.36666666666671</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="K119" t="n">
-        <v>52</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5255,22 +4601,14 @@
         <v>52.56666666666672</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K120" t="n">
-        <v>52</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5298,22 +4636,14 @@
         <v>52.76666666666673</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="K121" t="n">
-        <v>52</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5341,22 +4671,14 @@
         <v>52.86666666666673</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>53</v>
-      </c>
-      <c r="K122" t="n">
-        <v>52</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5390,14 +4712,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>52</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5431,14 +4747,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>52</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5472,14 +4782,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>52</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5513,14 +4817,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>52</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5554,14 +4852,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>52</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5595,14 +4887,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>52</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5636,14 +4922,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>52</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5671,22 +4951,14 @@
         <v>52.6333333333334</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="K130" t="n">
-        <v>52</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5714,22 +4986,14 @@
         <v>52.86666666666673</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="K131" t="n">
-        <v>52</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5763,14 +5027,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>52</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5804,14 +5062,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>52</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5845,14 +5097,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>52</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5886,14 +5132,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>52</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5927,14 +5167,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>52</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5968,14 +5202,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>52</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6009,14 +5237,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>52</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6050,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>52</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6091,14 +5307,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>52</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6132,14 +5342,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>52</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6173,14 +5377,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>52</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6214,14 +5412,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>52</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6255,14 +5447,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>52</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6296,14 +5482,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>52</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6337,14 +5517,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>52</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6378,14 +5552,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>52</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6419,14 +5587,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>52</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6460,14 +5622,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>52</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6501,14 +5657,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>52</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6542,14 +5692,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>52</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6583,14 +5727,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>52</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6624,14 +5762,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>52</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6665,14 +5797,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>52</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6706,14 +5832,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>52</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6747,14 +5867,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>52</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6788,14 +5902,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>52</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6829,14 +5937,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>52</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6870,14 +5972,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>52</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6911,14 +6007,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>52</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6952,14 +6042,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>52</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6993,14 +6077,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>52</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7034,14 +6112,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>52</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7075,14 +6147,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>52</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7116,14 +6182,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>52</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7157,14 +6217,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>52</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7198,14 +6252,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>52</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7236,19 +6284,13 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>52</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>1.031538461538462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -7277,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -7312,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -8502,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
@@ -8537,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
@@ -8572,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
@@ -8642,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -8712,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
@@ -8782,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
@@ -9132,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
@@ -9167,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>

--- a/BackTest/2019-10-28 BackTest POWR.xlsx
+++ b/BackTest/2019-10-28 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M272"/>
+  <dimension ref="A1:M273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>53.2</v>
       </c>
       <c r="F2" t="n">
-        <v>10650000</v>
+        <v>37050010</v>
       </c>
       <c r="G2" t="n">
-        <v>53.20000000000007</v>
+        <v>52.46999999999996</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>53.2</v>
       </c>
       <c r="F3" t="n">
-        <v>5550000</v>
+        <v>10650000</v>
       </c>
       <c r="G3" t="n">
-        <v>53.20000000000007</v>
+        <v>52.50999999999996</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>53.2</v>
       </c>
       <c r="F4" t="n">
-        <v>26040000</v>
+        <v>5550000</v>
       </c>
       <c r="G4" t="n">
-        <v>53.20000000000007</v>
+        <v>52.54999999999995</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>53.2</v>
       </c>
       <c r="F5" t="n">
-        <v>34300000</v>
+        <v>26040000</v>
       </c>
       <c r="G5" t="n">
-        <v>53.20000000000007</v>
+        <v>52.58666666666661</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>53.2</v>
       </c>
       <c r="F6" t="n">
-        <v>34448130.334</v>
+        <v>34300000</v>
       </c>
       <c r="G6" t="n">
-        <v>53.20000000000007</v>
+        <v>52.59833333333327</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>53.2</v>
       </c>
       <c r="F7" t="n">
-        <v>35420787.9999</v>
+        <v>34448130.334</v>
       </c>
       <c r="G7" t="n">
-        <v>53.20000000000007</v>
+        <v>52.61333333333327</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>53.2</v>
       </c>
       <c r="F8" t="n">
-        <v>33460000</v>
+        <v>35420787.9999</v>
       </c>
       <c r="G8" t="n">
-        <v>53.20000000000007</v>
+        <v>52.6416666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>53.2</v>
       </c>
       <c r="F9" t="n">
-        <v>33591508.6341</v>
+        <v>33460000</v>
       </c>
       <c r="G9" t="n">
-        <v>53.20000000000007</v>
+        <v>52.66833333333327</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>53.2</v>
       </c>
       <c r="F10" t="n">
-        <v>33600000</v>
+        <v>33591508.6341</v>
       </c>
       <c r="G10" t="n">
-        <v>53.20000000000007</v>
+        <v>52.69499999999993</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>53.2</v>
       </c>
       <c r="E11" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="F11" t="n">
-        <v>34736441.971</v>
+        <v>33600000</v>
       </c>
       <c r="G11" t="n">
-        <v>53.20000000000007</v>
+        <v>52.71833333333326</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>53.2</v>
       </c>
       <c r="E12" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F12" t="n">
-        <v>25480000</v>
+        <v>34736441.971</v>
       </c>
       <c r="G12" t="n">
-        <v>53.20000000000007</v>
+        <v>52.74499999999992</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>53.2</v>
       </c>
       <c r="F13" t="n">
-        <v>28160.1566</v>
+        <v>25480000</v>
       </c>
       <c r="G13" t="n">
-        <v>53.20000000000007</v>
+        <v>52.76833333333325</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>53.2</v>
       </c>
       <c r="F14" t="n">
-        <v>1762.7386</v>
+        <v>28160.1566</v>
       </c>
       <c r="G14" t="n">
-        <v>53.20000000000007</v>
+        <v>52.79166666666658</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="C15" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="D15" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="E15" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="F15" t="n">
-        <v>23800</v>
+        <v>1762.7386</v>
       </c>
       <c r="G15" t="n">
-        <v>53.23333333333341</v>
+        <v>52.81333333333324</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>53.3</v>
       </c>
       <c r="F16" t="n">
-        <v>783</v>
+        <v>23800</v>
       </c>
       <c r="G16" t="n">
-        <v>53.26666666666674</v>
+        <v>52.83666666666657</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="C17" t="n">
         <v>53.3</v>
@@ -967,13 +967,13 @@
         <v>53.3</v>
       </c>
       <c r="E17" t="n">
-        <v>53.2</v>
+        <v>53.3</v>
       </c>
       <c r="F17" t="n">
-        <v>3493.9998</v>
+        <v>783</v>
       </c>
       <c r="G17" t="n">
-        <v>53.30000000000009</v>
+        <v>52.85999999999991</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="C18" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="D18" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="E18" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="F18" t="n">
-        <v>645.9637</v>
+        <v>3493.9998</v>
       </c>
       <c r="G18" t="n">
-        <v>53.16666666666676</v>
+        <v>52.88166666666658</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>52.9</v>
       </c>
       <c r="F19" t="n">
-        <v>2862.0402</v>
+        <v>645.9637</v>
       </c>
       <c r="G19" t="n">
-        <v>53.03333333333344</v>
+        <v>52.89666666666658</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>52.9</v>
       </c>
       <c r="C20" t="n">
-        <v>52.2</v>
+        <v>52.9</v>
       </c>
       <c r="D20" t="n">
         <v>52.9</v>
       </c>
       <c r="E20" t="n">
-        <v>52.2</v>
+        <v>52.9</v>
       </c>
       <c r="F20" t="n">
-        <v>23328.7729</v>
+        <v>2862.0402</v>
       </c>
       <c r="G20" t="n">
-        <v>52.66666666666676</v>
+        <v>52.91166666666658</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>52.1</v>
+        <v>52.9</v>
       </c>
       <c r="C21" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="D21" t="n">
-        <v>52.1</v>
+        <v>52.9</v>
       </c>
       <c r="E21" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="F21" t="n">
-        <v>4335.907</v>
+        <v>23328.7729</v>
       </c>
       <c r="G21" t="n">
-        <v>52.40000000000009</v>
+        <v>52.91166666666658</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="C22" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="D22" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="E22" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="F22" t="n">
-        <v>92242.791</v>
+        <v>4335.907</v>
       </c>
       <c r="G22" t="n">
-        <v>52.10000000000009</v>
+        <v>52.90833333333324</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="C23" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="D23" t="n">
         <v>52</v>
       </c>
       <c r="E23" t="n">
-        <v>51.8</v>
+        <v>52</v>
       </c>
       <c r="F23" t="n">
-        <v>16487.9595</v>
+        <v>92242.791</v>
       </c>
       <c r="G23" t="n">
-        <v>51.96666666666675</v>
+        <v>52.90166666666657</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="C24" t="n">
         <v>51.8</v>
       </c>
-      <c r="C24" t="n">
-        <v>51.9</v>
-      </c>
       <c r="D24" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="E24" t="n">
         <v>51.8</v>
       </c>
       <c r="F24" t="n">
-        <v>824.4243</v>
+        <v>16487.9595</v>
       </c>
       <c r="G24" t="n">
-        <v>51.90000000000009</v>
+        <v>52.89166666666657</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="C25" t="n">
         <v>51.9</v>
       </c>
-      <c r="C25" t="n">
-        <v>52</v>
-      </c>
       <c r="D25" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="E25" t="n">
-        <v>51.9</v>
+        <v>51.8</v>
       </c>
       <c r="F25" t="n">
-        <v>785.08880674</v>
+        <v>824.4243</v>
       </c>
       <c r="G25" t="n">
-        <v>51.90000000000009</v>
+        <v>52.88333333333324</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="C26" t="n">
         <v>52</v>
@@ -1282,13 +1282,13 @@
         <v>52</v>
       </c>
       <c r="E26" t="n">
-        <v>52</v>
+        <v>51.9</v>
       </c>
       <c r="F26" t="n">
-        <v>43470.5633</v>
+        <v>785.08880674</v>
       </c>
       <c r="G26" t="n">
-        <v>51.96666666666675</v>
+        <v>52.87499999999991</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>52</v>
       </c>
       <c r="C27" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="D27" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="E27" t="n">
         <v>52</v>
       </c>
       <c r="F27" t="n">
-        <v>7767.9952</v>
+        <v>43470.5633</v>
       </c>
       <c r="G27" t="n">
-        <v>52.03333333333342</v>
+        <v>52.86499999999991</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="C28" t="n">
         <v>52.1</v>
@@ -1352,23 +1352,29 @@
         <v>52.1</v>
       </c>
       <c r="E28" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F28" t="n">
-        <v>1185.0863</v>
+        <v>7767.9952</v>
       </c>
       <c r="G28" t="n">
-        <v>52.06666666666675</v>
+        <v>52.85166666666657</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>52</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1390,20 +1396,26 @@
         <v>52.1</v>
       </c>
       <c r="F29" t="n">
-        <v>82774.7579</v>
+        <v>1185.0863</v>
       </c>
       <c r="G29" t="n">
-        <v>52.10000000000008</v>
+        <v>52.8399999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>52.1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1425,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="C30" t="n">
-        <v>53.1</v>
+        <v>52.1</v>
       </c>
       <c r="D30" t="n">
-        <v>53.1</v>
+        <v>52.1</v>
       </c>
       <c r="E30" t="n">
-        <v>52.3</v>
+        <v>52.1</v>
       </c>
       <c r="F30" t="n">
-        <v>80000</v>
+        <v>82774.7579</v>
       </c>
       <c r="G30" t="n">
-        <v>52.43333333333342</v>
+        <v>52.82666666666657</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1450,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,32 +1464,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>52.6</v>
+        <v>52.3</v>
       </c>
       <c r="C31" t="n">
-        <v>52.6</v>
+        <v>53.1</v>
       </c>
       <c r="D31" t="n">
-        <v>52.6</v>
+        <v>53.1</v>
       </c>
       <c r="E31" t="n">
-        <v>52.6</v>
+        <v>52.3</v>
       </c>
       <c r="F31" t="n">
-        <v>4000.5322</v>
+        <v>80000</v>
       </c>
       <c r="G31" t="n">
-        <v>52.60000000000008</v>
+        <v>52.84666666666656</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>52.1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1495,10 +1517,10 @@
         <v>52.6</v>
       </c>
       <c r="F32" t="n">
-        <v>570.4942</v>
+        <v>4000.5322</v>
       </c>
       <c r="G32" t="n">
-        <v>52.76666666666674</v>
+        <v>52.84333333333323</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1530,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1530,10 +1556,10 @@
         <v>52.6</v>
       </c>
       <c r="F33" t="n">
-        <v>40000</v>
+        <v>570.4942</v>
       </c>
       <c r="G33" t="n">
-        <v>52.60000000000008</v>
+        <v>52.84166666666656</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1569,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1583,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="C34" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="D34" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="E34" t="n">
-        <v>52.5</v>
+        <v>52.6</v>
       </c>
       <c r="F34" t="n">
-        <v>11741.8162</v>
+        <v>40000</v>
       </c>
       <c r="G34" t="n">
-        <v>52.56666666666675</v>
+        <v>52.8399999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1608,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1622,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>52.1</v>
+        <v>52.5</v>
       </c>
       <c r="C35" t="n">
-        <v>52.1</v>
+        <v>52.5</v>
       </c>
       <c r="D35" t="n">
-        <v>52.1</v>
+        <v>52.5</v>
       </c>
       <c r="E35" t="n">
-        <v>52.1</v>
+        <v>52.5</v>
       </c>
       <c r="F35" t="n">
-        <v>997.5</v>
+        <v>11741.8162</v>
       </c>
       <c r="G35" t="n">
-        <v>52.40000000000008</v>
+        <v>52.83666666666657</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1647,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1635,10 +1673,10 @@
         <v>52.1</v>
       </c>
       <c r="F36" t="n">
-        <v>12702.2432</v>
+        <v>997.5</v>
       </c>
       <c r="G36" t="n">
-        <v>52.23333333333341</v>
+        <v>52.8249999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1686,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1670,10 +1712,10 @@
         <v>52.1</v>
       </c>
       <c r="F37" t="n">
-        <v>6503.2779</v>
+        <v>12702.2432</v>
       </c>
       <c r="G37" t="n">
-        <v>52.10000000000008</v>
+        <v>52.81333333333323</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1725,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1696,19 +1742,19 @@
         <v>52.1</v>
       </c>
       <c r="C38" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="D38" t="n">
         <v>52.1</v>
       </c>
       <c r="E38" t="n">
-        <v>52</v>
+        <v>52.1</v>
       </c>
       <c r="F38" t="n">
-        <v>15467.0246</v>
+        <v>6503.2779</v>
       </c>
       <c r="G38" t="n">
-        <v>52.06666666666675</v>
+        <v>52.80166666666655</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1764,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1731,19 +1781,19 @@
         <v>52.1</v>
       </c>
       <c r="C39" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="D39" t="n">
         <v>52.1</v>
       </c>
       <c r="E39" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F39" t="n">
-        <v>3862.5544</v>
+        <v>15467.0246</v>
       </c>
       <c r="G39" t="n">
-        <v>52.06666666666675</v>
+        <v>52.78666666666655</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1803,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1817,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="C40" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="D40" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="E40" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="F40" t="n">
-        <v>17250.7662</v>
+        <v>3862.5544</v>
       </c>
       <c r="G40" t="n">
-        <v>52.10000000000009</v>
+        <v>52.77666666666655</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1842,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1856,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="C41" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="D41" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="E41" t="n">
-        <v>52.1</v>
+        <v>52.2</v>
       </c>
       <c r="F41" t="n">
-        <v>11</v>
+        <v>17250.7662</v>
       </c>
       <c r="G41" t="n">
-        <v>52.13333333333342</v>
+        <v>52.76833333333322</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1881,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1845,10 +1907,10 @@
         <v>52.1</v>
       </c>
       <c r="F42" t="n">
-        <v>6570000</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>52.13333333333342</v>
+        <v>52.75833333333322</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1920,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1880,10 +1946,10 @@
         <v>52.1</v>
       </c>
       <c r="F43" t="n">
-        <v>16485531</v>
+        <v>6570000</v>
       </c>
       <c r="G43" t="n">
-        <v>52.10000000000008</v>
+        <v>52.74833333333322</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1959,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1915,10 +1985,10 @@
         <v>52.1</v>
       </c>
       <c r="F44" t="n">
-        <v>18714469</v>
+        <v>16485531</v>
       </c>
       <c r="G44" t="n">
-        <v>52.10000000000008</v>
+        <v>52.73833333333322</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +1998,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1950,10 +2024,10 @@
         <v>52.1</v>
       </c>
       <c r="F45" t="n">
-        <v>7560000</v>
+        <v>18714469</v>
       </c>
       <c r="G45" t="n">
-        <v>52.10000000000008</v>
+        <v>52.72833333333323</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2037,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1985,10 +2063,10 @@
         <v>52.1</v>
       </c>
       <c r="F46" t="n">
-        <v>6240000</v>
+        <v>7560000</v>
       </c>
       <c r="G46" t="n">
-        <v>52.10000000000008</v>
+        <v>52.71833333333323</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2076,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2020,10 +2102,10 @@
         <v>52.1</v>
       </c>
       <c r="F47" t="n">
-        <v>15120000</v>
+        <v>6240000</v>
       </c>
       <c r="G47" t="n">
-        <v>52.10000000000008</v>
+        <v>52.70666666666656</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2115,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2055,10 +2141,10 @@
         <v>52.1</v>
       </c>
       <c r="F48" t="n">
-        <v>15480000</v>
+        <v>15120000</v>
       </c>
       <c r="G48" t="n">
-        <v>52.10000000000008</v>
+        <v>52.69499999999989</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2154,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2090,10 +2180,10 @@
         <v>52.1</v>
       </c>
       <c r="F49" t="n">
-        <v>15540000</v>
+        <v>15480000</v>
       </c>
       <c r="G49" t="n">
-        <v>52.10000000000008</v>
+        <v>52.68166666666654</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2193,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2125,10 +2219,10 @@
         <v>52.1</v>
       </c>
       <c r="F50" t="n">
-        <v>15300000</v>
+        <v>15540000</v>
       </c>
       <c r="G50" t="n">
-        <v>52.10000000000008</v>
+        <v>52.66833333333321</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2232,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2160,10 +2258,10 @@
         <v>52.1</v>
       </c>
       <c r="F51" t="n">
-        <v>9480000</v>
+        <v>15300000</v>
       </c>
       <c r="G51" t="n">
-        <v>52.10000000000008</v>
+        <v>52.65333333333321</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2271,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2285,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="C52" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="D52" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="E52" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="F52" t="n">
-        <v>12200000</v>
+        <v>9480000</v>
       </c>
       <c r="G52" t="n">
-        <v>52.13333333333341</v>
+        <v>52.63666666666654</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2310,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2221,19 +2327,19 @@
         <v>52.2</v>
       </c>
       <c r="C53" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="D53" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="E53" t="n">
         <v>52.2</v>
       </c>
       <c r="F53" t="n">
-        <v>3005288.3589</v>
+        <v>12200000</v>
       </c>
       <c r="G53" t="n">
-        <v>52.20000000000007</v>
+        <v>52.62166666666654</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2349,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2363,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="C54" t="n">
         <v>52.3</v>
@@ -2262,13 +2372,13 @@
         <v>52.3</v>
       </c>
       <c r="E54" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="F54" t="n">
-        <v>4400898</v>
+        <v>3005288.3589</v>
       </c>
       <c r="G54" t="n">
-        <v>52.26666666666674</v>
+        <v>52.60833333333321</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2388,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2294,16 +2408,16 @@
         <v>52.3</v>
       </c>
       <c r="D55" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="E55" t="n">
         <v>52.3</v>
       </c>
       <c r="F55" t="n">
-        <v>6117842.1689</v>
+        <v>4400898</v>
       </c>
       <c r="G55" t="n">
-        <v>52.30000000000007</v>
+        <v>52.59499999999989</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2427,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2335,10 +2453,10 @@
         <v>52.3</v>
       </c>
       <c r="F56" t="n">
-        <v>5089246.94656488</v>
+        <v>6117842.1689</v>
       </c>
       <c r="G56" t="n">
-        <v>52.30000000000007</v>
+        <v>52.58333333333322</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2466,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2364,16 +2486,16 @@
         <v>52.3</v>
       </c>
       <c r="D57" t="n">
-        <v>52.3</v>
+        <v>52.4</v>
       </c>
       <c r="E57" t="n">
         <v>52.3</v>
       </c>
       <c r="F57" t="n">
-        <v>5850000</v>
+        <v>5089246.94656488</v>
       </c>
       <c r="G57" t="n">
-        <v>52.30000000000007</v>
+        <v>52.56833333333323</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2505,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2405,10 +2531,10 @@
         <v>52.3</v>
       </c>
       <c r="F58" t="n">
-        <v>11475000</v>
+        <v>5850000</v>
       </c>
       <c r="G58" t="n">
-        <v>52.30000000000007</v>
+        <v>52.55333333333324</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2544,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2440,24 +2570,24 @@
         <v>52.3</v>
       </c>
       <c r="F59" t="n">
-        <v>11745000</v>
+        <v>11475000</v>
       </c>
       <c r="G59" t="n">
-        <v>52.30000000000007</v>
+        <v>52.53833333333323</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2479,26 +2609,22 @@
         <v>52.3</v>
       </c>
       <c r="F60" t="n">
-        <v>7245000</v>
+        <v>11745000</v>
       </c>
       <c r="G60" t="n">
-        <v>52.30000000000007</v>
+        <v>52.52333333333324</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="K60" t="n">
-        <v>52.3</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2522,26 +2648,22 @@
         <v>52.3</v>
       </c>
       <c r="F61" t="n">
-        <v>3660.8651</v>
+        <v>7245000</v>
       </c>
       <c r="G61" t="n">
-        <v>52.30000000000007</v>
+        <v>52.50833333333325</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="K61" t="n">
-        <v>52.3</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2556,19 +2678,19 @@
         <v>52.3</v>
       </c>
       <c r="C62" t="n">
-        <v>52.8</v>
+        <v>52.3</v>
       </c>
       <c r="D62" t="n">
-        <v>52.8</v>
+        <v>52.3</v>
       </c>
       <c r="E62" t="n">
         <v>52.3</v>
       </c>
       <c r="F62" t="n">
-        <v>1202.8861</v>
+        <v>3660.8651</v>
       </c>
       <c r="G62" t="n">
-        <v>52.46666666666673</v>
+        <v>52.49333333333325</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2578,7 +2700,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2588,22 +2714,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>52.4</v>
+        <v>52.3</v>
       </c>
       <c r="C63" t="n">
-        <v>52.2</v>
+        <v>52.8</v>
       </c>
       <c r="D63" t="n">
-        <v>52.4</v>
+        <v>52.8</v>
       </c>
       <c r="E63" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="F63" t="n">
-        <v>12141.1848</v>
+        <v>1202.8861</v>
       </c>
       <c r="G63" t="n">
-        <v>52.43333333333339</v>
+        <v>52.48666666666659</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2613,7 +2739,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2623,22 +2753,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>52.1</v>
+        <v>52.4</v>
       </c>
       <c r="C64" t="n">
-        <v>52</v>
+        <v>52.2</v>
       </c>
       <c r="D64" t="n">
-        <v>52.1</v>
+        <v>52.4</v>
       </c>
       <c r="E64" t="n">
-        <v>52</v>
+        <v>52.2</v>
       </c>
       <c r="F64" t="n">
-        <v>45523.2115</v>
+        <v>12141.1848</v>
       </c>
       <c r="G64" t="n">
-        <v>52.33333333333339</v>
+        <v>52.46999999999993</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2648,7 +2778,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2661,19 +2795,19 @@
         <v>52.1</v>
       </c>
       <c r="C65" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="D65" t="n">
         <v>52.1</v>
       </c>
       <c r="E65" t="n">
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="F65" t="n">
-        <v>1548.5556</v>
+        <v>45523.2115</v>
       </c>
       <c r="G65" t="n">
-        <v>52.10000000000006</v>
+        <v>52.44999999999993</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2683,7 +2817,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2705,10 +2843,10 @@
         <v>52.1</v>
       </c>
       <c r="F66" t="n">
-        <v>12500000</v>
+        <v>1548.5556</v>
       </c>
       <c r="G66" t="n">
-        <v>52.06666666666672</v>
+        <v>52.4316666666666</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2718,7 +2856,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2740,10 +2882,10 @@
         <v>52.1</v>
       </c>
       <c r="F67" t="n">
-        <v>15100000</v>
+        <v>12500000</v>
       </c>
       <c r="G67" t="n">
-        <v>52.10000000000005</v>
+        <v>52.41333333333327</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2753,7 +2895,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2763,22 +2909,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="C68" t="n">
         <v>52.1</v>
       </c>
       <c r="D68" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="E68" t="n">
         <v>52.1</v>
       </c>
       <c r="F68" t="n">
-        <v>47984.6448</v>
+        <v>15100000</v>
       </c>
       <c r="G68" t="n">
-        <v>52.10000000000005</v>
+        <v>52.39499999999994</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2788,7 +2934,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2798,10 +2948,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="C69" t="n">
         <v>52.1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>52.2</v>
       </c>
       <c r="D69" t="n">
         <v>52.2</v>
@@ -2810,10 +2960,10 @@
         <v>52.1</v>
       </c>
       <c r="F69" t="n">
-        <v>1464017.6122</v>
+        <v>47984.6448</v>
       </c>
       <c r="G69" t="n">
-        <v>52.13333333333339</v>
+        <v>52.3766666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2823,7 +2973,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2833,22 +2987,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>52.4</v>
+        <v>52.1</v>
       </c>
       <c r="C70" t="n">
-        <v>52.5</v>
+        <v>52.2</v>
       </c>
       <c r="D70" t="n">
-        <v>52.5</v>
+        <v>52.2</v>
       </c>
       <c r="E70" t="n">
-        <v>52.4</v>
+        <v>52.1</v>
       </c>
       <c r="F70" t="n">
-        <v>3457.14885496</v>
+        <v>1464017.6122</v>
       </c>
       <c r="G70" t="n">
-        <v>52.26666666666673</v>
+        <v>52.35999999999994</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2858,7 +3012,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2868,22 +3026,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>52.1</v>
+        <v>52.4</v>
       </c>
       <c r="C71" t="n">
-        <v>52.1</v>
+        <v>52.5</v>
       </c>
       <c r="D71" t="n">
-        <v>52.1</v>
+        <v>52.5</v>
       </c>
       <c r="E71" t="n">
-        <v>52.1</v>
+        <v>52.4</v>
       </c>
       <c r="F71" t="n">
-        <v>1807.9096</v>
+        <v>3457.14885496</v>
       </c>
       <c r="G71" t="n">
-        <v>52.26666666666673</v>
+        <v>52.34833333333327</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2893,7 +3051,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2903,22 +3065,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>53</v>
+        <v>52.1</v>
       </c>
       <c r="C72" t="n">
-        <v>52.5</v>
+        <v>52.1</v>
       </c>
       <c r="D72" t="n">
-        <v>53.2</v>
+        <v>52.1</v>
       </c>
       <c r="E72" t="n">
-        <v>52.5</v>
+        <v>52.1</v>
       </c>
       <c r="F72" t="n">
-        <v>6209.5501</v>
+        <v>1807.9096</v>
       </c>
       <c r="G72" t="n">
-        <v>52.36666666666673</v>
+        <v>52.32999999999994</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2928,7 +3090,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2938,22 +3104,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>52.5</v>
+        <v>53</v>
       </c>
       <c r="C73" t="n">
         <v>52.5</v>
       </c>
       <c r="D73" t="n">
-        <v>52.5</v>
+        <v>53.2</v>
       </c>
       <c r="E73" t="n">
         <v>52.5</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0001</v>
+        <v>6209.5501</v>
       </c>
       <c r="G73" t="n">
-        <v>52.36666666666673</v>
+        <v>52.31833333333328</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2963,7 +3129,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2973,22 +3143,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>53.1</v>
+        <v>52.5</v>
       </c>
       <c r="C74" t="n">
-        <v>53.2</v>
+        <v>52.5</v>
       </c>
       <c r="D74" t="n">
-        <v>53.2</v>
+        <v>52.5</v>
       </c>
       <c r="E74" t="n">
-        <v>53.1</v>
+        <v>52.5</v>
       </c>
       <c r="F74" t="n">
-        <v>2930.0887</v>
+        <v>0.0001</v>
       </c>
       <c r="G74" t="n">
-        <v>52.7333333333334</v>
+        <v>52.30666666666662</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2998,7 +3168,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3011,19 +3185,19 @@
         <v>53.1</v>
       </c>
       <c r="C75" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="D75" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="E75" t="n">
         <v>53.1</v>
       </c>
       <c r="F75" t="n">
-        <v>2324.5255</v>
+        <v>2930.0887</v>
       </c>
       <c r="G75" t="n">
-        <v>52.93333333333339</v>
+        <v>52.30666666666662</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3033,7 +3207,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3043,22 +3221,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="C76" t="n">
-        <v>53.3</v>
+        <v>53.1</v>
       </c>
       <c r="D76" t="n">
-        <v>53.3</v>
+        <v>53.1</v>
       </c>
       <c r="E76" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F76" t="n">
-        <v>15520.358</v>
+        <v>2324.5255</v>
       </c>
       <c r="G76" t="n">
-        <v>53.20000000000007</v>
+        <v>52.30333333333328</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3068,7 +3246,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3078,22 +3260,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="C77" t="n">
         <v>53.3</v>
       </c>
-      <c r="C77" t="n">
-        <v>53.7</v>
-      </c>
       <c r="D77" t="n">
-        <v>53.7</v>
+        <v>53.3</v>
       </c>
       <c r="E77" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="F77" t="n">
-        <v>523710.6419</v>
+        <v>15520.358</v>
       </c>
       <c r="G77" t="n">
-        <v>53.36666666666673</v>
+        <v>52.30333333333328</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3103,7 +3285,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3116,19 +3302,19 @@
         <v>53.3</v>
       </c>
       <c r="C78" t="n">
-        <v>53.3</v>
+        <v>53.7</v>
       </c>
       <c r="D78" t="n">
-        <v>53.3</v>
+        <v>53.7</v>
       </c>
       <c r="E78" t="n">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="F78" t="n">
-        <v>792000</v>
+        <v>523710.6419</v>
       </c>
       <c r="G78" t="n">
-        <v>53.4333333333334</v>
+        <v>52.30999999999994</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3138,7 +3324,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3160,10 +3350,10 @@
         <v>53.3</v>
       </c>
       <c r="F79" t="n">
-        <v>1743000</v>
+        <v>792000</v>
       </c>
       <c r="G79" t="n">
-        <v>53.43333333333339</v>
+        <v>52.31666666666661</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3173,7 +3363,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3195,10 +3389,10 @@
         <v>53.3</v>
       </c>
       <c r="F80" t="n">
-        <v>1862000</v>
+        <v>1743000</v>
       </c>
       <c r="G80" t="n">
-        <v>53.30000000000007</v>
+        <v>52.32333333333327</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3208,7 +3402,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3230,10 +3428,10 @@
         <v>53.3</v>
       </c>
       <c r="F81" t="n">
-        <v>1232000</v>
+        <v>1862000</v>
       </c>
       <c r="G81" t="n">
-        <v>53.30000000000007</v>
+        <v>52.34166666666661</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3243,7 +3441,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3253,22 +3455,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="C82" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="D82" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="E82" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="F82" t="n">
-        <v>1242.93</v>
+        <v>1232000</v>
       </c>
       <c r="G82" t="n">
-        <v>53.33333333333341</v>
+        <v>52.36166666666661</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3278,7 +3480,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3288,22 +3494,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="C83" t="n">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="D83" t="n">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="E83" t="n">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="F83" t="n">
-        <v>1255.3124</v>
+        <v>1242.93</v>
       </c>
       <c r="G83" t="n">
-        <v>53.40000000000007</v>
+        <v>52.38499999999996</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3313,7 +3519,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3335,10 +3545,10 @@
         <v>53.5</v>
       </c>
       <c r="F84" t="n">
-        <v>5985.3757</v>
+        <v>1255.3124</v>
       </c>
       <c r="G84" t="n">
-        <v>53.46666666666673</v>
+        <v>52.41333333333328</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3348,7 +3558,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3370,10 +3584,10 @@
         <v>53.5</v>
       </c>
       <c r="F85" t="n">
-        <v>800</v>
+        <v>5985.3757</v>
       </c>
       <c r="G85" t="n">
-        <v>53.50000000000006</v>
+        <v>52.43999999999995</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3383,7 +3597,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3405,10 +3623,10 @@
         <v>53.5</v>
       </c>
       <c r="F86" t="n">
-        <v>15915.5313</v>
+        <v>800</v>
       </c>
       <c r="G86" t="n">
-        <v>53.50000000000006</v>
+        <v>52.46499999999995</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3418,7 +3636,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3440,10 +3662,10 @@
         <v>53.5</v>
       </c>
       <c r="F87" t="n">
-        <v>25728.7004</v>
+        <v>15915.5313</v>
       </c>
       <c r="G87" t="n">
-        <v>53.50000000000006</v>
+        <v>52.48999999999995</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3453,7 +3675,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3463,63 +3689,65 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>53.6</v>
+        <v>53.5</v>
       </c>
       <c r="C88" t="n">
-        <v>53.7</v>
+        <v>53.5</v>
       </c>
       <c r="D88" t="n">
-        <v>53.7</v>
+        <v>53.5</v>
       </c>
       <c r="E88" t="n">
-        <v>53.6</v>
+        <v>53.5</v>
       </c>
       <c r="F88" t="n">
-        <v>51864</v>
+        <v>25728.7004</v>
       </c>
       <c r="G88" t="n">
-        <v>53.56666666666674</v>
+        <v>52.51333333333329</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
       <c r="C89" t="n">
-        <v>53.5</v>
+        <v>53.7</v>
       </c>
       <c r="D89" t="n">
-        <v>53.5</v>
+        <v>53.7</v>
       </c>
       <c r="E89" t="n">
-        <v>53.5</v>
+        <v>53.6</v>
       </c>
       <c r="F89" t="n">
-        <v>702.3488</v>
+        <v>51864</v>
       </c>
       <c r="G89" t="n">
-        <v>53.56666666666674</v>
+        <v>52.53999999999995</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3533,28 +3761,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="C90" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="D90" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="E90" t="n">
-        <v>53.1</v>
+        <v>53.5</v>
       </c>
       <c r="F90" t="n">
-        <v>199.5</v>
+        <v>702.3488</v>
       </c>
       <c r="G90" t="n">
-        <v>53.4333333333334</v>
+        <v>52.56333333333328</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3580,16 +3808,16 @@
         <v>53.1</v>
       </c>
       <c r="F91" t="n">
-        <v>720.5</v>
+        <v>199.5</v>
       </c>
       <c r="G91" t="n">
-        <v>53.23333333333341</v>
+        <v>52.56333333333328</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3603,22 +3831,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="C92" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="D92" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="E92" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="F92" t="n">
-        <v>848.4673</v>
+        <v>720.5</v>
       </c>
       <c r="G92" t="n">
-        <v>53.06666666666674</v>
+        <v>52.57166666666662</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3650,10 +3878,10 @@
         <v>53</v>
       </c>
       <c r="F93" t="n">
-        <v>1793.4986</v>
+        <v>848.4673</v>
       </c>
       <c r="G93" t="n">
-        <v>53.03333333333341</v>
+        <v>52.57833333333328</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3673,22 +3901,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="C94" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="D94" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="E94" t="n">
-        <v>52.9</v>
+        <v>53</v>
       </c>
       <c r="F94" t="n">
-        <v>9736.0697</v>
+        <v>1793.4986</v>
       </c>
       <c r="G94" t="n">
-        <v>52.96666666666675</v>
+        <v>52.58499999999995</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3708,22 +3936,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="C95" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="D95" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="E95" t="n">
-        <v>52.7</v>
+        <v>52.9</v>
       </c>
       <c r="F95" t="n">
-        <v>9416.825199999999</v>
+        <v>9736.0697</v>
       </c>
       <c r="G95" t="n">
-        <v>52.86666666666675</v>
+        <v>52.59166666666662</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3755,10 +3983,10 @@
         <v>52.7</v>
       </c>
       <c r="F96" t="n">
-        <v>656</v>
+        <v>9416.825199999999</v>
       </c>
       <c r="G96" t="n">
-        <v>52.76666666666674</v>
+        <v>52.60166666666662</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3781,19 +4009,19 @@
         <v>52.7</v>
       </c>
       <c r="C97" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="D97" t="n">
         <v>52.7</v>
       </c>
       <c r="E97" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="F97" t="n">
-        <v>754.0625</v>
+        <v>656</v>
       </c>
       <c r="G97" t="n">
-        <v>52.66666666666674</v>
+        <v>52.61166666666661</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3813,22 +4041,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="C98" t="n">
         <v>52.6</v>
       </c>
-      <c r="C98" t="n">
-        <v>52</v>
-      </c>
       <c r="D98" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="E98" t="n">
         <v>52.6</v>
       </c>
-      <c r="E98" t="n">
-        <v>52</v>
-      </c>
       <c r="F98" t="n">
-        <v>66397.57889999999</v>
+        <v>754.0625</v>
       </c>
       <c r="G98" t="n">
-        <v>52.43333333333342</v>
+        <v>52.61999999999995</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3848,22 +4076,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C99" t="n">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="D99" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="E99" t="n">
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="F99" t="n">
-        <v>7674.465</v>
+        <v>66397.57889999999</v>
       </c>
       <c r="G99" t="n">
-        <v>52.26666666666674</v>
+        <v>52.61999999999995</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3883,22 +4111,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="C100" t="n">
-        <v>52.5</v>
+        <v>52.2</v>
       </c>
       <c r="D100" t="n">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="E100" t="n">
-        <v>52.5</v>
+        <v>52.2</v>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>7674.465</v>
       </c>
       <c r="G100" t="n">
-        <v>52.23333333333341</v>
+        <v>52.62166666666662</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3918,22 +4146,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>53.4</v>
+        <v>52.5</v>
       </c>
       <c r="C101" t="n">
-        <v>53.4</v>
+        <v>52.5</v>
       </c>
       <c r="D101" t="n">
-        <v>53.4</v>
+        <v>52.5</v>
       </c>
       <c r="E101" t="n">
-        <v>53.4</v>
+        <v>52.5</v>
       </c>
       <c r="F101" t="n">
-        <v>25.3124</v>
+        <v>1000</v>
       </c>
       <c r="G101" t="n">
-        <v>52.70000000000008</v>
+        <v>52.62666666666662</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3956,19 +4184,19 @@
         <v>53.4</v>
       </c>
       <c r="C102" t="n">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="D102" t="n">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="E102" t="n">
         <v>53.4</v>
       </c>
       <c r="F102" t="n">
-        <v>2104.2678</v>
+        <v>25.3124</v>
       </c>
       <c r="G102" t="n">
-        <v>53.13333333333342</v>
+        <v>52.64833333333329</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3988,22 +4216,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>53.2</v>
+        <v>53.4</v>
       </c>
       <c r="C103" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="D103" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="E103" t="n">
         <v>53.4</v>
       </c>
-      <c r="D103" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="E103" t="n">
-        <v>53.2</v>
-      </c>
       <c r="F103" t="n">
-        <v>20632.1597</v>
+        <v>2104.2678</v>
       </c>
       <c r="G103" t="n">
-        <v>53.43333333333342</v>
+        <v>52.67166666666662</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4023,22 +4251,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>52.8</v>
+        <v>53.2</v>
       </c>
       <c r="C104" t="n">
-        <v>52.8</v>
+        <v>53.4</v>
       </c>
       <c r="D104" t="n">
-        <v>52.8</v>
+        <v>53.4</v>
       </c>
       <c r="E104" t="n">
-        <v>52.8</v>
+        <v>53.2</v>
       </c>
       <c r="F104" t="n">
-        <v>1000</v>
+        <v>20632.1597</v>
       </c>
       <c r="G104" t="n">
-        <v>53.23333333333341</v>
+        <v>52.69333333333329</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4061,19 +4289,19 @@
         <v>52.8</v>
       </c>
       <c r="C105" t="n">
-        <v>53.3</v>
+        <v>52.8</v>
       </c>
       <c r="D105" t="n">
-        <v>53.3</v>
+        <v>52.8</v>
       </c>
       <c r="E105" t="n">
         <v>52.8</v>
       </c>
       <c r="F105" t="n">
-        <v>1492.8542</v>
+        <v>1000</v>
       </c>
       <c r="G105" t="n">
-        <v>53.16666666666674</v>
+        <v>52.70499999999996</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4093,22 +4321,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C106" t="n">
         <v>53.3</v>
       </c>
-      <c r="C106" t="n">
-        <v>53.4</v>
-      </c>
       <c r="D106" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="E106" t="n">
-        <v>53.3</v>
+        <v>52.8</v>
       </c>
       <c r="F106" t="n">
-        <v>2051.8928</v>
+        <v>1492.8542</v>
       </c>
       <c r="G106" t="n">
-        <v>53.16666666666674</v>
+        <v>52.72499999999997</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4128,7 +4356,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="C107" t="n">
         <v>53.4</v>
@@ -4137,13 +4365,13 @@
         <v>53.4</v>
       </c>
       <c r="E107" t="n">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="F107" t="n">
-        <v>12178.9887</v>
+        <v>2051.8928</v>
       </c>
       <c r="G107" t="n">
-        <v>53.36666666666675</v>
+        <v>52.74666666666664</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4163,22 +4391,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>52.8</v>
+        <v>53.4</v>
       </c>
       <c r="C108" t="n">
-        <v>52.8</v>
+        <v>53.4</v>
       </c>
       <c r="D108" t="n">
-        <v>52.8</v>
+        <v>53.4</v>
       </c>
       <c r="E108" t="n">
-        <v>52.8</v>
+        <v>53.4</v>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>12178.9887</v>
       </c>
       <c r="G108" t="n">
-        <v>53.20000000000008</v>
+        <v>52.76833333333331</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4210,10 +4438,10 @@
         <v>52.8</v>
       </c>
       <c r="F109" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G109" t="n">
-        <v>53.00000000000009</v>
+        <v>52.77999999999998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4236,19 +4464,19 @@
         <v>52.8</v>
       </c>
       <c r="C110" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="D110" t="n">
         <v>52.8</v>
       </c>
       <c r="E110" t="n">
-        <v>52.6</v>
+        <v>52.8</v>
       </c>
       <c r="F110" t="n">
-        <v>2263.2501</v>
+        <v>80</v>
       </c>
       <c r="G110" t="n">
-        <v>52.73333333333341</v>
+        <v>52.79166666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4271,19 +4499,19 @@
         <v>52.8</v>
       </c>
       <c r="C111" t="n">
-        <v>52.8</v>
+        <v>52.6</v>
       </c>
       <c r="D111" t="n">
         <v>52.8</v>
       </c>
       <c r="E111" t="n">
-        <v>52.8</v>
+        <v>52.6</v>
       </c>
       <c r="F111" t="n">
-        <v>1445.0047</v>
+        <v>2263.2501</v>
       </c>
       <c r="G111" t="n">
-        <v>52.73333333333341</v>
+        <v>52.79999999999998</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4303,22 +4531,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="C112" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="D112" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="E112" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="F112" t="n">
-        <v>1170</v>
+        <v>1445.0047</v>
       </c>
       <c r="G112" t="n">
-        <v>52.70000000000007</v>
+        <v>52.81166666666665</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4338,22 +4566,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="C113" t="n">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="D113" t="n">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="E113" t="n">
-        <v>52.5</v>
+        <v>52.7</v>
       </c>
       <c r="F113" t="n">
-        <v>22300</v>
+        <v>1170</v>
       </c>
       <c r="G113" t="n">
-        <v>52.66666666666674</v>
+        <v>52.81999999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4373,22 +4601,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="C114" t="n">
         <v>52.5</v>
       </c>
-      <c r="C114" t="n">
-        <v>52.3</v>
-      </c>
       <c r="D114" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="E114" t="n">
         <v>52.5</v>
       </c>
-      <c r="E114" t="n">
-        <v>52.3</v>
-      </c>
       <c r="F114" t="n">
-        <v>1402</v>
+        <v>22300</v>
       </c>
       <c r="G114" t="n">
-        <v>52.50000000000006</v>
+        <v>52.82333333333332</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4408,22 +4636,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>52.3</v>
+        <v>52.5</v>
       </c>
       <c r="C115" t="n">
         <v>52.3</v>
       </c>
       <c r="D115" t="n">
-        <v>52.3</v>
+        <v>52.5</v>
       </c>
       <c r="E115" t="n">
         <v>52.3</v>
       </c>
       <c r="F115" t="n">
-        <v>746.6461</v>
+        <v>1402</v>
       </c>
       <c r="G115" t="n">
-        <v>52.36666666666673</v>
+        <v>52.82333333333332</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4455,10 +4683,10 @@
         <v>52.3</v>
       </c>
       <c r="F116" t="n">
-        <v>1385.8785</v>
+        <v>746.6461</v>
       </c>
       <c r="G116" t="n">
-        <v>52.30000000000007</v>
+        <v>52.82333333333332</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4478,22 +4706,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="C117" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="D117" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="E117" t="n">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="F117" t="n">
-        <v>712</v>
+        <v>1385.8785</v>
       </c>
       <c r="G117" t="n">
-        <v>52.26666666666673</v>
+        <v>52.82333333333332</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4513,22 +4741,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="C118" t="n">
         <v>52.2</v>
       </c>
       <c r="D118" t="n">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="E118" t="n">
         <v>52.2</v>
       </c>
       <c r="F118" t="n">
-        <v>11669.8527</v>
+        <v>712</v>
       </c>
       <c r="G118" t="n">
-        <v>52.23333333333338</v>
+        <v>52.82166666666664</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4548,22 +4776,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>52.7</v>
+        <v>52.3</v>
       </c>
       <c r="C119" t="n">
-        <v>52.7</v>
+        <v>52.2</v>
       </c>
       <c r="D119" t="n">
-        <v>52.7</v>
+        <v>52.3</v>
       </c>
       <c r="E119" t="n">
-        <v>52.7</v>
+        <v>52.2</v>
       </c>
       <c r="F119" t="n">
-        <v>235</v>
+        <v>11669.8527</v>
       </c>
       <c r="G119" t="n">
-        <v>52.36666666666671</v>
+        <v>52.81999999999997</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4583,22 +4811,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C120" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="D120" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="E120" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="F120" t="n">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
-        <v>52.56666666666672</v>
+        <v>52.82666666666663</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4630,10 +4858,10 @@
         <v>52.8</v>
       </c>
       <c r="F121" t="n">
-        <v>3003.432</v>
+        <v>100</v>
       </c>
       <c r="G121" t="n">
-        <v>52.76666666666673</v>
+        <v>52.83499999999997</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4653,22 +4881,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="C122" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="D122" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="E122" t="n">
-        <v>53</v>
+        <v>52.8</v>
       </c>
       <c r="F122" t="n">
-        <v>5191.2245</v>
+        <v>3003.432</v>
       </c>
       <c r="G122" t="n">
-        <v>52.86666666666673</v>
+        <v>52.8433333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4700,10 +4928,10 @@
         <v>53</v>
       </c>
       <c r="F123" t="n">
-        <v>2637.4384</v>
+        <v>5191.2245</v>
       </c>
       <c r="G123" t="n">
-        <v>52.93333333333339</v>
+        <v>52.84666666666663</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4735,10 +4963,10 @@
         <v>53</v>
       </c>
       <c r="F124" t="n">
-        <v>5720.1465</v>
+        <v>2637.4384</v>
       </c>
       <c r="G124" t="n">
-        <v>53.00000000000006</v>
+        <v>52.85999999999997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4758,22 +4986,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>52.6</v>
+        <v>53</v>
       </c>
       <c r="C125" t="n">
-        <v>52.6</v>
+        <v>53</v>
       </c>
       <c r="D125" t="n">
-        <v>52.6</v>
+        <v>53</v>
       </c>
       <c r="E125" t="n">
-        <v>52.6</v>
+        <v>53</v>
       </c>
       <c r="F125" t="n">
-        <v>2251.8556</v>
+        <v>5720.1465</v>
       </c>
       <c r="G125" t="n">
-        <v>52.86666666666672</v>
+        <v>52.87666666666664</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4793,22 +5021,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="C126" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="D126" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="E126" t="n">
-        <v>52.7</v>
+        <v>52.6</v>
       </c>
       <c r="F126" t="n">
-        <v>7367</v>
+        <v>2251.8556</v>
       </c>
       <c r="G126" t="n">
-        <v>52.76666666666673</v>
+        <v>52.88499999999997</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4828,22 +5056,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="C127" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="D127" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="E127" t="n">
-        <v>52.4</v>
+        <v>52.7</v>
       </c>
       <c r="F127" t="n">
-        <v>2148</v>
+        <v>7367</v>
       </c>
       <c r="G127" t="n">
-        <v>52.56666666666673</v>
+        <v>52.89499999999997</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4875,10 +5103,10 @@
         <v>52.4</v>
       </c>
       <c r="F128" t="n">
-        <v>2605</v>
+        <v>2148</v>
       </c>
       <c r="G128" t="n">
-        <v>52.50000000000006</v>
+        <v>52.89999999999997</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4898,22 +5126,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="C129" t="n">
         <v>52.4</v>
       </c>
       <c r="D129" t="n">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="E129" t="n">
         <v>52.4</v>
       </c>
       <c r="F129" t="n">
-        <v>6231.7826</v>
+        <v>2605</v>
       </c>
       <c r="G129" t="n">
-        <v>52.40000000000007</v>
+        <v>52.90499999999997</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4933,22 +5161,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>53.1</v>
+        <v>52.5</v>
       </c>
       <c r="C130" t="n">
-        <v>53.1</v>
+        <v>52.4</v>
       </c>
       <c r="D130" t="n">
-        <v>53.1</v>
+        <v>52.5</v>
       </c>
       <c r="E130" t="n">
-        <v>53.1</v>
+        <v>52.4</v>
       </c>
       <c r="F130" t="n">
-        <v>100</v>
+        <v>6231.7826</v>
       </c>
       <c r="G130" t="n">
-        <v>52.6333333333334</v>
+        <v>52.90833333333331</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4983,7 +5211,7 @@
         <v>100</v>
       </c>
       <c r="G131" t="n">
-        <v>52.86666666666673</v>
+        <v>52.91833333333331</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5003,22 +5231,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="C132" t="n">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
       <c r="D132" t="n">
-        <v>52.8</v>
+        <v>53.1</v>
       </c>
       <c r="E132" t="n">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
       <c r="F132" t="n">
-        <v>916</v>
+        <v>100</v>
       </c>
       <c r="G132" t="n">
-        <v>52.96666666666673</v>
+        <v>52.93499999999997</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5038,22 +5266,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="C133" t="n">
         <v>52.7</v>
       </c>
       <c r="D133" t="n">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="E133" t="n">
         <v>52.7</v>
       </c>
       <c r="F133" t="n">
-        <v>6035</v>
+        <v>916</v>
       </c>
       <c r="G133" t="n">
-        <v>52.8333333333334</v>
+        <v>52.9383333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5073,22 +5301,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="C134" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="D134" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="E134" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="F134" t="n">
-        <v>176</v>
+        <v>6035</v>
       </c>
       <c r="G134" t="n">
-        <v>52.7333333333334</v>
+        <v>52.94166666666663</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5108,22 +5336,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>53.4</v>
+        <v>52.8</v>
       </c>
       <c r="C135" t="n">
-        <v>53.5</v>
+        <v>52.8</v>
       </c>
       <c r="D135" t="n">
-        <v>53.5</v>
+        <v>52.8</v>
       </c>
       <c r="E135" t="n">
-        <v>53.4</v>
+        <v>52.8</v>
       </c>
       <c r="F135" t="n">
-        <v>49710.5947</v>
+        <v>176</v>
       </c>
       <c r="G135" t="n">
-        <v>53.00000000000006</v>
+        <v>52.93499999999997</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5146,19 +5374,19 @@
         <v>53.4</v>
       </c>
       <c r="C136" t="n">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="D136" t="n">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="E136" t="n">
         <v>53.4</v>
       </c>
       <c r="F136" t="n">
-        <v>2606.3908</v>
+        <v>49710.5947</v>
       </c>
       <c r="G136" t="n">
-        <v>53.23333333333338</v>
+        <v>52.94166666666664</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5190,10 +5418,10 @@
         <v>53.4</v>
       </c>
       <c r="F137" t="n">
-        <v>414</v>
+        <v>2606.3908</v>
       </c>
       <c r="G137" t="n">
-        <v>53.43333333333339</v>
+        <v>52.94333333333331</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5213,22 +5441,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>53</v>
+        <v>53.4</v>
       </c>
       <c r="C138" t="n">
-        <v>53</v>
+        <v>53.4</v>
       </c>
       <c r="D138" t="n">
-        <v>53</v>
+        <v>53.4</v>
       </c>
       <c r="E138" t="n">
-        <v>53</v>
+        <v>53.4</v>
       </c>
       <c r="F138" t="n">
-        <v>399.2836</v>
+        <v>414</v>
       </c>
       <c r="G138" t="n">
-        <v>53.26666666666673</v>
+        <v>52.93833333333331</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5260,10 +5488,10 @@
         <v>53</v>
       </c>
       <c r="F139" t="n">
-        <v>379.3194</v>
+        <v>399.2836</v>
       </c>
       <c r="G139" t="n">
-        <v>53.13333333333339</v>
+        <v>52.93333333333331</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5295,10 +5523,10 @@
         <v>53</v>
       </c>
       <c r="F140" t="n">
-        <v>569.7062</v>
+        <v>379.3194</v>
       </c>
       <c r="G140" t="n">
-        <v>53.00000000000006</v>
+        <v>52.92833333333331</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5330,10 +5558,10 @@
         <v>53</v>
       </c>
       <c r="F141" t="n">
-        <v>8682.175800000001</v>
+        <v>569.7062</v>
       </c>
       <c r="G141" t="n">
-        <v>53.00000000000006</v>
+        <v>52.9233333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5365,10 +5593,10 @@
         <v>53</v>
       </c>
       <c r="F142" t="n">
-        <v>611.704</v>
+        <v>8682.175800000001</v>
       </c>
       <c r="G142" t="n">
-        <v>53.00000000000006</v>
+        <v>52.9183333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5388,22 +5616,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="C143" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="D143" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="E143" t="n">
-        <v>53.1</v>
+        <v>53</v>
       </c>
       <c r="F143" t="n">
-        <v>2732.6646</v>
+        <v>611.704</v>
       </c>
       <c r="G143" t="n">
-        <v>53.03333333333339</v>
+        <v>52.91166666666663</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5435,10 +5663,10 @@
         <v>53.1</v>
       </c>
       <c r="F144" t="n">
-        <v>571.6446</v>
+        <v>2732.6646</v>
       </c>
       <c r="G144" t="n">
-        <v>53.06666666666672</v>
+        <v>52.90499999999997</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5470,10 +5698,10 @@
         <v>53.1</v>
       </c>
       <c r="F145" t="n">
-        <v>5418</v>
+        <v>571.6446</v>
       </c>
       <c r="G145" t="n">
-        <v>53.10000000000005</v>
+        <v>52.8983333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5493,22 +5721,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="C146" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="D146" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="E146" t="n">
-        <v>53</v>
+        <v>53.1</v>
       </c>
       <c r="F146" t="n">
-        <v>3740.0257</v>
+        <v>5418</v>
       </c>
       <c r="G146" t="n">
-        <v>53.06666666666672</v>
+        <v>52.89166666666663</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5528,22 +5756,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="C147" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="D147" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="E147" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="F147" t="n">
-        <v>187.6172</v>
+        <v>3740.0257</v>
       </c>
       <c r="G147" t="n">
-        <v>53.10000000000005</v>
+        <v>52.8833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5563,22 +5791,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="C148" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="D148" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="E148" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="F148" t="n">
-        <v>2451.1012</v>
+        <v>187.6172</v>
       </c>
       <c r="G148" t="n">
-        <v>53.10000000000005</v>
+        <v>52.87833333333329</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5598,22 +5826,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="C149" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D149" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E149" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F149" t="n">
-        <v>21505.0563</v>
+        <v>2451.1012</v>
       </c>
       <c r="G149" t="n">
-        <v>53.16666666666672</v>
+        <v>52.8683333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5645,10 +5873,10 @@
         <v>53.2</v>
       </c>
       <c r="F150" t="n">
-        <v>5822.3872</v>
+        <v>21505.0563</v>
       </c>
       <c r="G150" t="n">
-        <v>53.16666666666672</v>
+        <v>52.86333333333329</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5680,10 +5908,10 @@
         <v>53.2</v>
       </c>
       <c r="F151" t="n">
-        <v>1882.6854</v>
+        <v>5822.3872</v>
       </c>
       <c r="G151" t="n">
-        <v>53.20000000000005</v>
+        <v>52.86499999999996</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5715,10 +5943,10 @@
         <v>53.2</v>
       </c>
       <c r="F152" t="n">
-        <v>1243</v>
+        <v>1882.6854</v>
       </c>
       <c r="G152" t="n">
-        <v>53.20000000000007</v>
+        <v>52.86666666666662</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5741,19 +5969,19 @@
         <v>53.2</v>
       </c>
       <c r="C153" t="n">
-        <v>52.7</v>
+        <v>53.2</v>
       </c>
       <c r="D153" t="n">
         <v>53.2</v>
       </c>
       <c r="E153" t="n">
-        <v>52.7</v>
+        <v>53.2</v>
       </c>
       <c r="F153" t="n">
-        <v>38843.9661</v>
+        <v>1243</v>
       </c>
       <c r="G153" t="n">
-        <v>53.0333333333334</v>
+        <v>52.86999999999995</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5773,22 +6001,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="C154" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="D154" t="n">
-        <v>52.9</v>
+        <v>53.2</v>
       </c>
       <c r="E154" t="n">
-        <v>52.8</v>
+        <v>52.7</v>
       </c>
       <c r="F154" t="n">
-        <v>4337.1486</v>
+        <v>38843.9661</v>
       </c>
       <c r="G154" t="n">
-        <v>52.90000000000007</v>
+        <v>52.86499999999995</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5808,22 +6036,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="C155" t="n">
         <v>52.8</v>
       </c>
       <c r="D155" t="n">
-        <v>52.8</v>
+        <v>52.9</v>
       </c>
       <c r="E155" t="n">
         <v>52.8</v>
       </c>
       <c r="F155" t="n">
-        <v>1445.7163</v>
+        <v>4337.1486</v>
       </c>
       <c r="G155" t="n">
-        <v>52.76666666666674</v>
+        <v>52.86333333333328</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5843,22 +6071,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="C156" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="D156" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="E156" t="n">
-        <v>53.1</v>
+        <v>52.8</v>
       </c>
       <c r="F156" t="n">
-        <v>84.59510357000001</v>
+        <v>1445.7163</v>
       </c>
       <c r="G156" t="n">
-        <v>52.90000000000007</v>
+        <v>52.86499999999996</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5890,10 +6118,10 @@
         <v>53.1</v>
       </c>
       <c r="F157" t="n">
-        <v>1368.75709643</v>
+        <v>84.59510357000001</v>
       </c>
       <c r="G157" t="n">
-        <v>53.00000000000008</v>
+        <v>52.87166666666663</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5925,10 +6153,10 @@
         <v>53.1</v>
       </c>
       <c r="F158" t="n">
-        <v>356.3653</v>
+        <v>1368.75709643</v>
       </c>
       <c r="G158" t="n">
-        <v>53.10000000000008</v>
+        <v>52.87999999999996</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5948,22 +6176,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="C159" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="D159" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="E159" t="n">
-        <v>53.2</v>
+        <v>53.1</v>
       </c>
       <c r="F159" t="n">
-        <v>1879.8496</v>
+        <v>356.3653</v>
       </c>
       <c r="G159" t="n">
-        <v>53.13333333333341</v>
+        <v>52.89833333333329</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5986,19 +6214,19 @@
         <v>53.2</v>
       </c>
       <c r="C160" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="D160" t="n">
-        <v>53.3</v>
+        <v>53.2</v>
       </c>
       <c r="E160" t="n">
         <v>53.2</v>
       </c>
       <c r="F160" t="n">
-        <v>3975.9934</v>
+        <v>1879.8496</v>
       </c>
       <c r="G160" t="n">
-        <v>53.20000000000007</v>
+        <v>52.91499999999996</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6018,22 +6246,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="C161" t="n">
-        <v>53.6</v>
+        <v>53.3</v>
       </c>
       <c r="D161" t="n">
-        <v>53.6</v>
+        <v>53.3</v>
       </c>
       <c r="E161" t="n">
-        <v>53.4</v>
+        <v>53.2</v>
       </c>
       <c r="F161" t="n">
-        <v>18857.4694</v>
+        <v>3975.9934</v>
       </c>
       <c r="G161" t="n">
-        <v>53.36666666666674</v>
+        <v>52.92833333333329</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6053,7 +6281,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>53.6</v>
+        <v>53.4</v>
       </c>
       <c r="C162" t="n">
         <v>53.6</v>
@@ -6062,13 +6290,13 @@
         <v>53.6</v>
       </c>
       <c r="E162" t="n">
-        <v>53.6</v>
+        <v>53.4</v>
       </c>
       <c r="F162" t="n">
-        <v>2472.1662</v>
+        <v>18857.4694</v>
       </c>
       <c r="G162" t="n">
-        <v>53.50000000000008</v>
+        <v>52.93166666666662</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6088,22 +6316,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>53.7</v>
+        <v>53.6</v>
       </c>
       <c r="C163" t="n">
-        <v>54.3</v>
+        <v>53.6</v>
       </c>
       <c r="D163" t="n">
-        <v>54.3</v>
+        <v>53.6</v>
       </c>
       <c r="E163" t="n">
-        <v>53.7</v>
+        <v>53.6</v>
       </c>
       <c r="F163" t="n">
-        <v>42533.7728</v>
+        <v>2472.1662</v>
       </c>
       <c r="G163" t="n">
-        <v>53.83333333333341</v>
+        <v>52.93333333333329</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6123,22 +6351,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>54.1</v>
+        <v>53.7</v>
       </c>
       <c r="C164" t="n">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="D164" t="n">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="E164" t="n">
-        <v>54.1</v>
+        <v>53.7</v>
       </c>
       <c r="F164" t="n">
-        <v>3690.0369</v>
+        <v>42533.7728</v>
       </c>
       <c r="G164" t="n">
-        <v>54.00000000000008</v>
+        <v>52.94833333333329</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6158,22 +6386,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="C165" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="D165" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="E165" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="F165" t="n">
-        <v>54515.3699</v>
+        <v>3690.0369</v>
       </c>
       <c r="G165" t="n">
-        <v>54.13333333333341</v>
+        <v>52.96999999999995</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6205,10 +6433,10 @@
         <v>54</v>
       </c>
       <c r="F166" t="n">
-        <v>100</v>
+        <v>54515.3699</v>
       </c>
       <c r="G166" t="n">
-        <v>54.03333333333342</v>
+        <v>52.98166666666661</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6240,16 +6468,16 @@
         <v>54</v>
       </c>
       <c r="F167" t="n">
-        <v>54509.8529</v>
+        <v>100</v>
       </c>
       <c r="G167" t="n">
-        <v>54.00000000000009</v>
+        <v>52.99166666666661</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6263,28 +6491,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="C168" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="D168" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="E168" t="n">
-        <v>53.9</v>
+        <v>54</v>
       </c>
       <c r="F168" t="n">
-        <v>4310.4974</v>
+        <v>54509.8529</v>
       </c>
       <c r="G168" t="n">
-        <v>53.96666666666675</v>
+        <v>53.00166666666662</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -6310,16 +6538,16 @@
         <v>53.9</v>
       </c>
       <c r="F169" t="n">
-        <v>14498.6545</v>
+        <v>4310.4974</v>
       </c>
       <c r="G169" t="n">
-        <v>53.93333333333342</v>
+        <v>53.01999999999995</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -6333,28 +6561,28 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="C170" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="D170" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="E170" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="F170" t="n">
-        <v>1082</v>
+        <v>14498.6545</v>
       </c>
       <c r="G170" t="n">
-        <v>53.96666666666675</v>
+        <v>53.03833333333328</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
@@ -6380,16 +6608,16 @@
         <v>54.1</v>
       </c>
       <c r="F171" t="n">
-        <v>8692.4215</v>
+        <v>1082</v>
       </c>
       <c r="G171" t="n">
-        <v>54.03333333333342</v>
+        <v>53.06333333333328</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
@@ -6415,10 +6643,10 @@
         <v>54.1</v>
       </c>
       <c r="F172" t="n">
-        <v>8388.681699999999</v>
+        <v>8692.4215</v>
       </c>
       <c r="G172" t="n">
-        <v>54.10000000000008</v>
+        <v>53.08499999999994</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6450,16 +6678,16 @@
         <v>54.1</v>
       </c>
       <c r="F173" t="n">
-        <v>29251.6239</v>
+        <v>8388.681699999999</v>
       </c>
       <c r="G173" t="n">
-        <v>54.10000000000008</v>
+        <v>53.10833333333327</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
@@ -6485,10 +6713,10 @@
         <v>54.1</v>
       </c>
       <c r="F174" t="n">
-        <v>730.6206</v>
+        <v>29251.6239</v>
       </c>
       <c r="G174" t="n">
-        <v>54.10000000000008</v>
+        <v>53.13499999999994</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6508,22 +6736,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
       <c r="C175" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
       <c r="D175" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
       <c r="E175" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
       <c r="F175" t="n">
-        <v>56.4565</v>
+        <v>730.6206</v>
       </c>
       <c r="G175" t="n">
-        <v>53.96666666666675</v>
+        <v>53.16499999999994</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6543,22 +6771,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>54.1</v>
+        <v>53.7</v>
       </c>
       <c r="C176" t="n">
-        <v>54.1</v>
+        <v>53.7</v>
       </c>
       <c r="D176" t="n">
-        <v>54.1</v>
+        <v>53.7</v>
       </c>
       <c r="E176" t="n">
-        <v>54.1</v>
+        <v>53.7</v>
       </c>
       <c r="F176" t="n">
-        <v>7399.0055</v>
+        <v>56.4565</v>
       </c>
       <c r="G176" t="n">
-        <v>53.96666666666675</v>
+        <v>53.18833333333326</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6578,22 +6806,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
       <c r="C177" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="D177" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="E177" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
       <c r="F177" t="n">
-        <v>2236.701</v>
+        <v>7399.0055</v>
       </c>
       <c r="G177" t="n">
-        <v>53.93333333333342</v>
+        <v>53.21833333333326</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6613,7 +6841,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>54</v>
+        <v>53.7</v>
       </c>
       <c r="C178" t="n">
         <v>54</v>
@@ -6622,13 +6850,13 @@
         <v>54</v>
       </c>
       <c r="E178" t="n">
-        <v>54</v>
+        <v>53.7</v>
       </c>
       <c r="F178" t="n">
-        <v>136.1973</v>
+        <v>2236.701</v>
       </c>
       <c r="G178" t="n">
-        <v>54.03333333333342</v>
+        <v>53.24833333333326</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6648,22 +6876,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="C179" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="D179" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="E179" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="F179" t="n">
-        <v>1000</v>
+        <v>136.1973</v>
       </c>
       <c r="G179" t="n">
-        <v>54.03333333333342</v>
+        <v>53.27833333333326</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6692,13 +6920,13 @@
         <v>54.1</v>
       </c>
       <c r="E180" t="n">
-        <v>53.8</v>
+        <v>54.1</v>
       </c>
       <c r="F180" t="n">
-        <v>6060</v>
+        <v>1000</v>
       </c>
       <c r="G180" t="n">
-        <v>54.06666666666675</v>
+        <v>53.3016666666666</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6727,13 +6955,13 @@
         <v>54.1</v>
       </c>
       <c r="E181" t="n">
-        <v>54.1</v>
+        <v>53.8</v>
       </c>
       <c r="F181" t="n">
-        <v>768</v>
+        <v>6060</v>
       </c>
       <c r="G181" t="n">
-        <v>54.10000000000008</v>
+        <v>53.32333333333326</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6765,10 +6993,10 @@
         <v>54.1</v>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>768</v>
       </c>
       <c r="G182" t="n">
-        <v>54.10000000000008</v>
+        <v>53.34499999999992</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6800,10 +7028,10 @@
         <v>54.1</v>
       </c>
       <c r="F183" t="n">
-        <v>4917.9112</v>
+        <v>200</v>
       </c>
       <c r="G183" t="n">
-        <v>54.10000000000008</v>
+        <v>53.36333333333325</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6823,7 +7051,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
       <c r="C184" t="n">
         <v>54.1</v>
@@ -6832,13 +7060,13 @@
         <v>54.1</v>
       </c>
       <c r="E184" t="n">
-        <v>53.7</v>
+        <v>54.1</v>
       </c>
       <c r="F184" t="n">
-        <v>3698.4334</v>
+        <v>4917.9112</v>
       </c>
       <c r="G184" t="n">
-        <v>54.10000000000008</v>
+        <v>53.38166666666658</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6858,7 +7086,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>54.1</v>
+        <v>53.7</v>
       </c>
       <c r="C185" t="n">
         <v>54.1</v>
@@ -6867,13 +7095,13 @@
         <v>54.1</v>
       </c>
       <c r="E185" t="n">
-        <v>54.1</v>
+        <v>53.7</v>
       </c>
       <c r="F185" t="n">
-        <v>13716.032</v>
+        <v>3698.4334</v>
       </c>
       <c r="G185" t="n">
-        <v>54.10000000000008</v>
+        <v>53.39999999999991</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6905,10 +7133,10 @@
         <v>54.1</v>
       </c>
       <c r="F186" t="n">
-        <v>3409.9999</v>
+        <v>13716.032</v>
       </c>
       <c r="G186" t="n">
-        <v>54.10000000000008</v>
+        <v>53.42499999999992</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6940,10 +7168,10 @@
         <v>54.1</v>
       </c>
       <c r="F187" t="n">
-        <v>767</v>
+        <v>3409.9999</v>
       </c>
       <c r="G187" t="n">
-        <v>54.10000000000008</v>
+        <v>53.44833333333325</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6975,10 +7203,10 @@
         <v>54.1</v>
       </c>
       <c r="F188" t="n">
-        <v>26999.8024</v>
+        <v>767</v>
       </c>
       <c r="G188" t="n">
-        <v>54.10000000000008</v>
+        <v>53.47666666666658</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6998,22 +7226,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>54.3</v>
+        <v>54.1</v>
       </c>
       <c r="C189" t="n">
-        <v>54.3</v>
+        <v>54.1</v>
       </c>
       <c r="D189" t="n">
-        <v>54.3</v>
+        <v>54.1</v>
       </c>
       <c r="E189" t="n">
-        <v>54.3</v>
+        <v>54.1</v>
       </c>
       <c r="F189" t="n">
-        <v>823</v>
+        <v>26999.8024</v>
       </c>
       <c r="G189" t="n">
-        <v>54.16666666666675</v>
+        <v>53.50499999999991</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7045,10 +7273,10 @@
         <v>54.3</v>
       </c>
       <c r="F190" t="n">
-        <v>10556.6618</v>
+        <v>823</v>
       </c>
       <c r="G190" t="n">
-        <v>54.23333333333341</v>
+        <v>53.53666666666658</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7071,19 +7299,19 @@
         <v>54.3</v>
       </c>
       <c r="C191" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="D191" t="n">
         <v>54.3</v>
       </c>
       <c r="E191" t="n">
-        <v>54.2</v>
+        <v>54.3</v>
       </c>
       <c r="F191" t="n">
-        <v>3637.474</v>
+        <v>10556.6618</v>
       </c>
       <c r="G191" t="n">
-        <v>54.26666666666676</v>
+        <v>53.55666666666659</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7103,22 +7331,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>54.5</v>
+        <v>54.3</v>
       </c>
       <c r="C192" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="D192" t="n">
-        <v>54.5</v>
+        <v>54.3</v>
       </c>
       <c r="E192" t="n">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="F192" t="n">
-        <v>6024.8073</v>
+        <v>3637.474</v>
       </c>
       <c r="G192" t="n">
-        <v>54.20000000000008</v>
+        <v>53.57499999999992</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7141,19 +7369,19 @@
         <v>54.5</v>
       </c>
       <c r="C193" t="n">
-        <v>54.6</v>
+        <v>54.1</v>
       </c>
       <c r="D193" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="E193" t="n">
-        <v>54.5</v>
+        <v>54.1</v>
       </c>
       <c r="F193" t="n">
-        <v>998.17834945</v>
+        <v>6024.8073</v>
       </c>
       <c r="G193" t="n">
-        <v>54.30000000000009</v>
+        <v>53.59833333333325</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7173,10 +7401,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="C194" t="n">
         <v>54.6</v>
-      </c>
-      <c r="C194" t="n">
-        <v>54.5</v>
       </c>
       <c r="D194" t="n">
         <v>54.6</v>
@@ -7185,10 +7413,10 @@
         <v>54.5</v>
       </c>
       <c r="F194" t="n">
-        <v>5893.6146</v>
+        <v>998.17834945</v>
       </c>
       <c r="G194" t="n">
-        <v>54.40000000000009</v>
+        <v>53.62999999999992</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7208,22 +7436,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="C195" t="n">
         <v>54.5</v>
       </c>
       <c r="D195" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="E195" t="n">
         <v>54.5</v>
       </c>
       <c r="F195" t="n">
-        <v>555.8816</v>
+        <v>5893.6146</v>
       </c>
       <c r="G195" t="n">
-        <v>54.53333333333342</v>
+        <v>53.65833333333325</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7255,10 +7483,10 @@
         <v>54.5</v>
       </c>
       <c r="F196" t="n">
-        <v>24886.5799</v>
+        <v>555.8816</v>
       </c>
       <c r="G196" t="n">
-        <v>54.50000000000009</v>
+        <v>53.67499999999992</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7278,22 +7506,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="C197" t="n">
-        <v>54.7</v>
+        <v>54.5</v>
       </c>
       <c r="D197" t="n">
-        <v>54.7</v>
+        <v>54.5</v>
       </c>
       <c r="E197" t="n">
-        <v>54.6</v>
+        <v>54.5</v>
       </c>
       <c r="F197" t="n">
-        <v>24307.9585</v>
+        <v>24886.5799</v>
       </c>
       <c r="G197" t="n">
-        <v>54.56666666666676</v>
+        <v>53.69333333333325</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7316,19 +7544,19 @@
         <v>54.6</v>
       </c>
       <c r="C198" t="n">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="D198" t="n">
-        <v>54.6</v>
+        <v>54.7</v>
       </c>
       <c r="E198" t="n">
         <v>54.6</v>
       </c>
       <c r="F198" t="n">
-        <v>1635.5984</v>
+        <v>24307.9585</v>
       </c>
       <c r="G198" t="n">
-        <v>54.60000000000009</v>
+        <v>53.71499999999991</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7348,22 +7576,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="C199" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="D199" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="E199" t="n">
-        <v>54.8</v>
+        <v>54.6</v>
       </c>
       <c r="F199" t="n">
-        <v>4418.243</v>
+        <v>1635.5984</v>
       </c>
       <c r="G199" t="n">
-        <v>54.70000000000008</v>
+        <v>53.74166666666657</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7383,22 +7611,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="C200" t="n">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="D200" t="n">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="E200" t="n">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="F200" t="n">
-        <v>11860.182312</v>
+        <v>4418.243</v>
       </c>
       <c r="G200" t="n">
-        <v>54.80000000000009</v>
+        <v>53.77166666666658</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7430,10 +7658,10 @@
         <v>55</v>
       </c>
       <c r="F201" t="n">
-        <v>1998</v>
+        <v>11860.182312</v>
       </c>
       <c r="G201" t="n">
-        <v>54.93333333333342</v>
+        <v>53.80499999999991</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7453,22 +7681,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C202" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="D202" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="E202" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="F202" t="n">
-        <v>17850.6742</v>
+        <v>1998</v>
       </c>
       <c r="G202" t="n">
-        <v>55.03333333333342</v>
+        <v>53.83833333333325</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7500,10 +7728,10 @@
         <v>55.1</v>
       </c>
       <c r="F203" t="n">
-        <v>6000</v>
+        <v>17850.6742</v>
       </c>
       <c r="G203" t="n">
-        <v>55.06666666666675</v>
+        <v>53.87333333333324</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7523,22 +7751,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="C204" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="D204" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="E204" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="F204" t="n">
-        <v>13566.1413</v>
+        <v>6000</v>
       </c>
       <c r="G204" t="n">
-        <v>55.13333333333342</v>
+        <v>53.90666666666657</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7558,22 +7786,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="C205" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="D205" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="E205" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="F205" t="n">
-        <v>865</v>
+        <v>13566.1413</v>
       </c>
       <c r="G205" t="n">
-        <v>55.10000000000009</v>
+        <v>53.94166666666658</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7593,28 +7821,28 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="C206" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="D206" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="E206" t="n">
-        <v>55.3</v>
+        <v>55</v>
       </c>
       <c r="F206" t="n">
-        <v>10</v>
+        <v>865</v>
       </c>
       <c r="G206" t="n">
-        <v>55.16666666666675</v>
+        <v>53.97333333333324</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
@@ -7631,19 +7859,19 @@
         <v>55.3</v>
       </c>
       <c r="C207" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="D207" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="E207" t="n">
         <v>55.3</v>
       </c>
       <c r="F207" t="n">
-        <v>37451.6667</v>
+        <v>10</v>
       </c>
       <c r="G207" t="n">
-        <v>55.23333333333343</v>
+        <v>54.01166666666658</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7663,28 +7891,28 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="C208" t="n">
-        <v>55.2</v>
+        <v>55.4</v>
       </c>
       <c r="D208" t="n">
-        <v>55.2</v>
+        <v>55.4</v>
       </c>
       <c r="E208" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="F208" t="n">
-        <v>789.9999</v>
+        <v>37451.6667</v>
       </c>
       <c r="G208" t="n">
-        <v>55.30000000000009</v>
+        <v>54.04833333333325</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -7701,25 +7929,25 @@
         <v>55.2</v>
       </c>
       <c r="C209" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="D209" t="n">
         <v>55.2</v>
       </c>
       <c r="E209" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="F209" t="n">
-        <v>18772</v>
+        <v>789.9999</v>
       </c>
       <c r="G209" t="n">
-        <v>55.20000000000008</v>
+        <v>54.08333333333325</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
@@ -7736,25 +7964,25 @@
         <v>55.2</v>
       </c>
       <c r="C210" t="n">
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="D210" t="n">
         <v>55.2</v>
       </c>
       <c r="E210" t="n">
-        <v>55.2</v>
+        <v>55</v>
       </c>
       <c r="F210" t="n">
-        <v>1237</v>
+        <v>18772</v>
       </c>
       <c r="G210" t="n">
-        <v>55.13333333333341</v>
+        <v>54.11333333333325</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
@@ -7768,22 +7996,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>54.6</v>
+        <v>55.2</v>
       </c>
       <c r="C211" t="n">
-        <v>54.5</v>
+        <v>55.2</v>
       </c>
       <c r="D211" t="n">
-        <v>54.6</v>
+        <v>55.2</v>
       </c>
       <c r="E211" t="n">
-        <v>54.5</v>
+        <v>55.2</v>
       </c>
       <c r="F211" t="n">
-        <v>14200</v>
+        <v>1237</v>
       </c>
       <c r="G211" t="n">
-        <v>54.90000000000007</v>
+        <v>54.14666666666658</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7803,28 +8031,28 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>54.1</v>
+        <v>54.6</v>
       </c>
       <c r="C212" t="n">
-        <v>54.1</v>
+        <v>54.5</v>
       </c>
       <c r="D212" t="n">
-        <v>54.1</v>
+        <v>54.6</v>
       </c>
       <c r="E212" t="n">
-        <v>54.1</v>
+        <v>54.5</v>
       </c>
       <c r="F212" t="n">
-        <v>1400</v>
+        <v>14200</v>
       </c>
       <c r="G212" t="n">
-        <v>54.60000000000007</v>
+        <v>54.16833333333326</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
@@ -7850,10 +8078,10 @@
         <v>54.1</v>
       </c>
       <c r="F213" t="n">
-        <v>2738.8739</v>
+        <v>1400</v>
       </c>
       <c r="G213" t="n">
-        <v>54.23333333333341</v>
+        <v>54.18333333333326</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7885,10 +8113,10 @@
         <v>54.1</v>
       </c>
       <c r="F214" t="n">
-        <v>18712.4198</v>
+        <v>2738.8739</v>
       </c>
       <c r="G214" t="n">
-        <v>54.10000000000007</v>
+        <v>54.20666666666659</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7908,22 +8136,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>54.9</v>
+        <v>54.1</v>
       </c>
       <c r="C215" t="n">
-        <v>54.9</v>
+        <v>54.1</v>
       </c>
       <c r="D215" t="n">
-        <v>54.9</v>
+        <v>54.1</v>
       </c>
       <c r="E215" t="n">
-        <v>54.9</v>
+        <v>54.1</v>
       </c>
       <c r="F215" t="n">
-        <v>1576</v>
+        <v>18712.4198</v>
       </c>
       <c r="G215" t="n">
-        <v>54.36666666666674</v>
+        <v>54.22833333333325</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7943,22 +8171,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="C216" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="D216" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="E216" t="n">
-        <v>55</v>
+        <v>54.9</v>
       </c>
       <c r="F216" t="n">
-        <v>3346.3326</v>
+        <v>1576</v>
       </c>
       <c r="G216" t="n">
-        <v>54.66666666666674</v>
+        <v>54.26333333333325</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7978,22 +8206,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>55.1</v>
+        <v>55</v>
       </c>
       <c r="C217" t="n">
-        <v>55.5</v>
+        <v>55</v>
       </c>
       <c r="D217" t="n">
-        <v>55.5</v>
+        <v>55</v>
       </c>
       <c r="E217" t="n">
-        <v>54.5</v>
+        <v>55</v>
       </c>
       <c r="F217" t="n">
-        <v>29137.2987</v>
+        <v>3346.3326</v>
       </c>
       <c r="G217" t="n">
-        <v>55.13333333333341</v>
+        <v>54.29499999999992</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8013,22 +8241,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C218" t="n">
         <v>55.5</v>
       </c>
-      <c r="C218" t="n">
-        <v>55.7</v>
-      </c>
       <c r="D218" t="n">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="E218" t="n">
-        <v>55.5</v>
+        <v>54.5</v>
       </c>
       <c r="F218" t="n">
-        <v>2716.9649</v>
+        <v>29137.2987</v>
       </c>
       <c r="G218" t="n">
-        <v>55.40000000000008</v>
+        <v>54.33499999999992</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8048,22 +8276,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="C219" t="n">
         <v>55.7</v>
       </c>
-      <c r="C219" t="n">
-        <v>56</v>
-      </c>
       <c r="D219" t="n">
-        <v>56</v>
+        <v>55.7</v>
       </c>
       <c r="E219" t="n">
-        <v>55.7</v>
+        <v>55.5</v>
       </c>
       <c r="F219" t="n">
-        <v>71478.95849999999</v>
+        <v>2716.9649</v>
       </c>
       <c r="G219" t="n">
-        <v>55.73333333333341</v>
+        <v>54.37833333333325</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8083,22 +8311,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>56.2</v>
+        <v>55.7</v>
       </c>
       <c r="C220" t="n">
-        <v>56.1</v>
+        <v>56</v>
       </c>
       <c r="D220" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E220" t="n">
-        <v>56.1</v>
+        <v>55.7</v>
       </c>
       <c r="F220" t="n">
-        <v>102822.95417701</v>
+        <v>71478.95849999999</v>
       </c>
       <c r="G220" t="n">
-        <v>55.93333333333342</v>
+        <v>54.42499999999993</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8118,22 +8346,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>56.4</v>
+        <v>56.2</v>
       </c>
       <c r="C221" t="n">
         <v>56.1</v>
       </c>
       <c r="D221" t="n">
-        <v>56.4</v>
+        <v>57</v>
       </c>
       <c r="E221" t="n">
         <v>56.1</v>
       </c>
       <c r="F221" t="n">
-        <v>2280.9137</v>
+        <v>102822.95417701</v>
       </c>
       <c r="G221" t="n">
-        <v>56.06666666666674</v>
+        <v>54.47166666666659</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8153,28 +8381,28 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>56.2</v>
+        <v>56.4</v>
       </c>
       <c r="C222" t="n">
-        <v>56.2</v>
+        <v>56.1</v>
       </c>
       <c r="D222" t="n">
-        <v>56.2</v>
+        <v>56.4</v>
       </c>
       <c r="E222" t="n">
-        <v>56.2</v>
+        <v>56.1</v>
       </c>
       <c r="F222" t="n">
-        <v>560.1253</v>
+        <v>2280.9137</v>
       </c>
       <c r="G222" t="n">
-        <v>56.1333333333334</v>
+        <v>54.51333333333325</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
@@ -8188,28 +8416,28 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="C223" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="D223" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="E223" t="n">
-        <v>55.3</v>
+        <v>56.2</v>
       </c>
       <c r="F223" t="n">
-        <v>13532.226</v>
+        <v>560.1253</v>
       </c>
       <c r="G223" t="n">
-        <v>55.86666666666674</v>
+        <v>54.55666666666659</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
@@ -8223,22 +8451,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="C224" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="D224" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="E224" t="n">
-        <v>55.5</v>
+        <v>55.3</v>
       </c>
       <c r="F224" t="n">
-        <v>1932.1351</v>
+        <v>13532.226</v>
       </c>
       <c r="G224" t="n">
-        <v>55.66666666666674</v>
+        <v>54.57333333333325</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8261,19 +8489,19 @@
         <v>55.5</v>
       </c>
       <c r="C225" t="n">
-        <v>55.3</v>
+        <v>55.5</v>
       </c>
       <c r="D225" t="n">
         <v>55.5</v>
       </c>
       <c r="E225" t="n">
-        <v>55.3</v>
+        <v>55.5</v>
       </c>
       <c r="F225" t="n">
-        <v>1810</v>
+        <v>1932.1351</v>
       </c>
       <c r="G225" t="n">
-        <v>55.36666666666675</v>
+        <v>54.59666666666659</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8293,22 +8521,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>55.3</v>
+        <v>55.5</v>
       </c>
       <c r="C226" t="n">
         <v>55.3</v>
       </c>
       <c r="D226" t="n">
-        <v>55.3</v>
+        <v>55.5</v>
       </c>
       <c r="E226" t="n">
         <v>55.3</v>
       </c>
       <c r="F226" t="n">
-        <v>1990</v>
+        <v>1810</v>
       </c>
       <c r="G226" t="n">
-        <v>55.36666666666675</v>
+        <v>54.61833333333325</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8328,22 +8556,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="C227" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="D227" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="E227" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="F227" t="n">
-        <v>593.3489</v>
+        <v>1990</v>
       </c>
       <c r="G227" t="n">
-        <v>55.33333333333342</v>
+        <v>54.63999999999992</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8363,22 +8591,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="C228" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="D228" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="E228" t="n">
         <v>55.4</v>
       </c>
       <c r="F228" t="n">
-        <v>11859.322</v>
+        <v>593.3489</v>
       </c>
       <c r="G228" t="n">
-        <v>55.43333333333342</v>
+        <v>54.66333333333326</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8398,22 +8626,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>55.4</v>
+        <v>55.5</v>
       </c>
       <c r="C229" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="D229" t="n">
-        <v>55.4</v>
+        <v>55.6</v>
       </c>
       <c r="E229" t="n">
         <v>55.4</v>
       </c>
       <c r="F229" t="n">
-        <v>1000</v>
+        <v>11859.322</v>
       </c>
       <c r="G229" t="n">
-        <v>55.46666666666675</v>
+        <v>54.69166666666659</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8433,22 +8661,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="C230" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="D230" t="n">
-        <v>55.6</v>
+        <v>55.4</v>
       </c>
       <c r="E230" t="n">
-        <v>55.1</v>
+        <v>55.4</v>
       </c>
       <c r="F230" t="n">
-        <v>71143.2083</v>
+        <v>1000</v>
       </c>
       <c r="G230" t="n">
-        <v>55.53333333333342</v>
+        <v>54.71666666666659</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8468,22 +8696,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="C231" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="D231" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="E231" t="n">
-        <v>55.8</v>
+        <v>55.1</v>
       </c>
       <c r="F231" t="n">
-        <v>7998.0788</v>
+        <v>71143.2083</v>
       </c>
       <c r="G231" t="n">
-        <v>55.60000000000009</v>
+        <v>54.74166666666659</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8515,10 +8743,10 @@
         <v>55.8</v>
       </c>
       <c r="F232" t="n">
-        <v>1.9212</v>
+        <v>7998.0788</v>
       </c>
       <c r="G232" t="n">
-        <v>55.73333333333341</v>
+        <v>54.76999999999993</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8538,22 +8766,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="C233" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="D233" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="E233" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="F233" t="n">
-        <v>571.5181</v>
+        <v>1.9212</v>
       </c>
       <c r="G233" t="n">
-        <v>55.56666666666675</v>
+        <v>54.79833333333327</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8585,10 +8813,10 @@
         <v>55.1</v>
       </c>
       <c r="F234" t="n">
-        <v>998.1783</v>
+        <v>571.5181</v>
       </c>
       <c r="G234" t="n">
-        <v>55.33333333333341</v>
+        <v>54.81499999999993</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8608,22 +8836,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>55.8</v>
+        <v>55.1</v>
       </c>
       <c r="C235" t="n">
-        <v>55.8</v>
+        <v>55.1</v>
       </c>
       <c r="D235" t="n">
-        <v>55.8</v>
+        <v>55.1</v>
       </c>
       <c r="E235" t="n">
-        <v>55.8</v>
+        <v>55.1</v>
       </c>
       <c r="F235" t="n">
-        <v>653.0698</v>
+        <v>998.1783</v>
       </c>
       <c r="G235" t="n">
-        <v>55.33333333333341</v>
+        <v>54.8316666666666</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8643,22 +8871,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="C236" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="D236" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="E236" t="n">
-        <v>55.1</v>
+        <v>55.8</v>
       </c>
       <c r="F236" t="n">
-        <v>10725.5015</v>
+        <v>653.0698</v>
       </c>
       <c r="G236" t="n">
-        <v>55.33333333333341</v>
+        <v>54.8666666666666</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8678,22 +8906,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="C237" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="D237" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="E237" t="n">
-        <v>55.2</v>
+        <v>55.1</v>
       </c>
       <c r="F237" t="n">
-        <v>665.9999</v>
+        <v>10725.5015</v>
       </c>
       <c r="G237" t="n">
-        <v>55.36666666666674</v>
+        <v>54.88333333333328</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8716,19 +8944,19 @@
         <v>55.2</v>
       </c>
       <c r="C238" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="D238" t="n">
         <v>55.2</v>
       </c>
       <c r="E238" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="F238" t="n">
-        <v>48951.6033</v>
+        <v>665.9999</v>
       </c>
       <c r="G238" t="n">
-        <v>55.10000000000008</v>
+        <v>54.90333333333327</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8748,22 +8976,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="C239" t="n">
         <v>55</v>
       </c>
       <c r="D239" t="n">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="E239" t="n">
         <v>55</v>
       </c>
       <c r="F239" t="n">
-        <v>12002.1235</v>
+        <v>48951.6033</v>
       </c>
       <c r="G239" t="n">
-        <v>55.06666666666675</v>
+        <v>54.91999999999994</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8783,22 +9011,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="C240" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="D240" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="E240" t="n">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="F240" t="n">
-        <v>16750.1639</v>
+        <v>12002.1235</v>
       </c>
       <c r="G240" t="n">
-        <v>54.96666666666675</v>
+        <v>54.93499999999994</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8830,10 +9058,10 @@
         <v>54.9</v>
       </c>
       <c r="F241" t="n">
-        <v>2973.5568</v>
+        <v>16750.1639</v>
       </c>
       <c r="G241" t="n">
-        <v>54.93333333333342</v>
+        <v>54.94833333333327</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8865,10 +9093,10 @@
         <v>54.9</v>
       </c>
       <c r="F242" t="n">
-        <v>73.6563</v>
+        <v>2973.5568</v>
       </c>
       <c r="G242" t="n">
-        <v>54.90000000000009</v>
+        <v>54.96166666666661</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8888,22 +9116,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="C243" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="D243" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="E243" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="F243" t="n">
-        <v>726.3437</v>
+        <v>73.6563</v>
       </c>
       <c r="G243" t="n">
-        <v>54.86666666666676</v>
+        <v>54.97499999999994</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8923,22 +9151,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="C244" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="D244" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="E244" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="F244" t="n">
-        <v>10956.946</v>
+        <v>726.3437</v>
       </c>
       <c r="G244" t="n">
-        <v>54.86666666666676</v>
+        <v>54.98666666666661</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8961,19 +9189,19 @@
         <v>54.9</v>
       </c>
       <c r="C245" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="D245" t="n">
         <v>54.9</v>
       </c>
       <c r="E245" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="F245" t="n">
-        <v>6669.0438</v>
+        <v>10956.946</v>
       </c>
       <c r="G245" t="n">
-        <v>54.83333333333342</v>
+        <v>54.99999999999996</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8993,22 +9221,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="C246" t="n">
         <v>54.8</v>
       </c>
       <c r="D246" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="E246" t="n">
         <v>54.8</v>
       </c>
       <c r="F246" t="n">
-        <v>13146.5638</v>
+        <v>6669.0438</v>
       </c>
       <c r="G246" t="n">
-        <v>54.83333333333341</v>
+        <v>55.01166666666663</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9028,22 +9256,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>55.2</v>
+        <v>54.8</v>
       </c>
       <c r="C247" t="n">
-        <v>55.2</v>
+        <v>54.8</v>
       </c>
       <c r="D247" t="n">
-        <v>55.2</v>
+        <v>54.8</v>
       </c>
       <c r="E247" t="n">
-        <v>55.2</v>
+        <v>54.8</v>
       </c>
       <c r="F247" t="n">
-        <v>13584.6151</v>
+        <v>13146.5638</v>
       </c>
       <c r="G247" t="n">
-        <v>54.9333333333334</v>
+        <v>55.0233333333333</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9063,22 +9291,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>54.9</v>
+        <v>55.2</v>
       </c>
       <c r="C248" t="n">
-        <v>54.9</v>
+        <v>55.2</v>
       </c>
       <c r="D248" t="n">
-        <v>54.9</v>
+        <v>55.2</v>
       </c>
       <c r="E248" t="n">
-        <v>54.9</v>
+        <v>55.2</v>
       </c>
       <c r="F248" t="n">
-        <v>2043.9999</v>
+        <v>13584.6151</v>
       </c>
       <c r="G248" t="n">
-        <v>54.96666666666673</v>
+        <v>55.04166666666663</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9098,22 +9326,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="C249" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="D249" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="E249" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="F249" t="n">
-        <v>5211.7848</v>
+        <v>2043.9999</v>
       </c>
       <c r="G249" t="n">
-        <v>54.96666666666673</v>
+        <v>55.05499999999996</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9145,10 +9373,10 @@
         <v>54.8</v>
       </c>
       <c r="F250" t="n">
-        <v>416.8302</v>
+        <v>5211.7848</v>
       </c>
       <c r="G250" t="n">
-        <v>54.83333333333341</v>
+        <v>55.0633333333333</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9168,22 +9396,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="C251" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="D251" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="E251" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="F251" t="n">
-        <v>2929.9999</v>
+        <v>416.8302</v>
       </c>
       <c r="G251" t="n">
-        <v>54.83333333333341</v>
+        <v>55.07166666666663</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9215,10 +9443,10 @@
         <v>54.9</v>
       </c>
       <c r="F252" t="n">
-        <v>6842.2413</v>
+        <v>2929.9999</v>
       </c>
       <c r="G252" t="n">
-        <v>54.86666666666675</v>
+        <v>55.0833333333333</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9238,22 +9466,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>55.5</v>
+        <v>54.9</v>
       </c>
       <c r="C253" t="n">
-        <v>55.5</v>
+        <v>54.9</v>
       </c>
       <c r="D253" t="n">
-        <v>55.5</v>
+        <v>54.9</v>
       </c>
       <c r="E253" t="n">
-        <v>55.5</v>
+        <v>54.9</v>
       </c>
       <c r="F253" t="n">
-        <v>90</v>
+        <v>6842.2413</v>
       </c>
       <c r="G253" t="n">
-        <v>55.10000000000008</v>
+        <v>55.09666666666664</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9276,19 +9504,19 @@
         <v>55.5</v>
       </c>
       <c r="C254" t="n">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="D254" t="n">
         <v>55.5</v>
       </c>
       <c r="E254" t="n">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="F254" t="n">
-        <v>3300</v>
+        <v>90</v>
       </c>
       <c r="G254" t="n">
-        <v>55.10000000000008</v>
+        <v>55.11166666666664</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9308,22 +9536,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="C255" t="n">
         <v>54.9</v>
       </c>
       <c r="D255" t="n">
-        <v>54.9</v>
+        <v>55.5</v>
       </c>
       <c r="E255" t="n">
         <v>54.9</v>
       </c>
       <c r="F255" t="n">
-        <v>12033.7879</v>
+        <v>3300</v>
       </c>
       <c r="G255" t="n">
-        <v>55.10000000000008</v>
+        <v>55.11833333333331</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9346,19 +9574,19 @@
         <v>54.9</v>
       </c>
       <c r="C256" t="n">
-        <v>54.6</v>
+        <v>54.9</v>
       </c>
       <c r="D256" t="n">
         <v>54.9</v>
       </c>
       <c r="E256" t="n">
-        <v>54.6</v>
+        <v>54.9</v>
       </c>
       <c r="F256" t="n">
-        <v>35136.9124</v>
+        <v>12033.7879</v>
       </c>
       <c r="G256" t="n">
-        <v>54.80000000000008</v>
+        <v>55.12499999999998</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9378,22 +9606,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>54.5</v>
+        <v>54.9</v>
       </c>
       <c r="C257" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="D257" t="n">
-        <v>54.5</v>
+        <v>54.9</v>
       </c>
       <c r="E257" t="n">
-        <v>54.5</v>
+        <v>54.6</v>
       </c>
       <c r="F257" t="n">
-        <v>601.3367</v>
+        <v>35136.9124</v>
       </c>
       <c r="G257" t="n">
-        <v>54.66666666666674</v>
+        <v>55.12666666666664</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9413,22 +9641,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>54.8</v>
+        <v>54.5</v>
       </c>
       <c r="C258" t="n">
-        <v>54.8</v>
+        <v>54.5</v>
       </c>
       <c r="D258" t="n">
-        <v>54.8</v>
+        <v>54.5</v>
       </c>
       <c r="E258" t="n">
-        <v>54.8</v>
+        <v>54.5</v>
       </c>
       <c r="F258" t="n">
-        <v>4002</v>
+        <v>601.3367</v>
       </c>
       <c r="G258" t="n">
-        <v>54.63333333333341</v>
+        <v>55.12333333333331</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9460,10 +9688,10 @@
         <v>54.8</v>
       </c>
       <c r="F259" t="n">
-        <v>100</v>
+        <v>4002</v>
       </c>
       <c r="G259" t="n">
-        <v>54.70000000000007</v>
+        <v>55.12666666666665</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9495,10 +9723,10 @@
         <v>54.8</v>
       </c>
       <c r="F260" t="n">
-        <v>18874.2983</v>
+        <v>100</v>
       </c>
       <c r="G260" t="n">
-        <v>54.80000000000007</v>
+        <v>55.12666666666665</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9530,10 +9758,10 @@
         <v>54.8</v>
       </c>
       <c r="F261" t="n">
-        <v>335.3405</v>
+        <v>18874.2983</v>
       </c>
       <c r="G261" t="n">
-        <v>54.80000000000007</v>
+        <v>55.12333333333332</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9553,22 +9781,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="C262" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="D262" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="E262" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="F262" t="n">
-        <v>400</v>
+        <v>335.3405</v>
       </c>
       <c r="G262" t="n">
-        <v>54.83333333333341</v>
+        <v>55.11999999999999</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9588,22 +9816,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="C263" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="D263" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="E263" t="n">
-        <v>54.8</v>
+        <v>54.9</v>
       </c>
       <c r="F263" t="n">
-        <v>707.2568</v>
+        <v>400</v>
       </c>
       <c r="G263" t="n">
-        <v>54.83333333333341</v>
+        <v>55.11666666666666</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9623,22 +9851,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="C264" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="D264" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="E264" t="n">
-        <v>54.9</v>
+        <v>54.8</v>
       </c>
       <c r="F264" t="n">
-        <v>1053.1421</v>
+        <v>707.2568</v>
       </c>
       <c r="G264" t="n">
-        <v>54.86666666666675</v>
+        <v>55.11166666666666</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9658,22 +9886,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="C265" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="D265" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="E265" t="n">
-        <v>55.3</v>
+        <v>54.9</v>
       </c>
       <c r="F265" t="n">
-        <v>671.9381</v>
+        <v>1053.1421</v>
       </c>
       <c r="G265" t="n">
-        <v>55.00000000000009</v>
+        <v>55.10666666666667</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9693,22 +9921,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>55.1</v>
+        <v>55.3</v>
       </c>
       <c r="C266" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="D266" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="E266" t="n">
-        <v>55.1</v>
+        <v>55.3</v>
       </c>
       <c r="F266" t="n">
-        <v>18087.2743</v>
+        <v>671.9381</v>
       </c>
       <c r="G266" t="n">
-        <v>55.20000000000008</v>
+        <v>55.11166666666667</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9728,22 +9956,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C267" t="n">
         <v>55.4</v>
       </c>
-      <c r="C267" t="n">
-        <v>55.5</v>
-      </c>
       <c r="D267" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="E267" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="F267" t="n">
-        <v>59499.4955</v>
+        <v>18087.2743</v>
       </c>
       <c r="G267" t="n">
-        <v>55.40000000000008</v>
+        <v>55.11333333333334</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9763,7 +9991,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="C268" t="n">
         <v>55.5</v>
@@ -9772,13 +10000,13 @@
         <v>55.5</v>
       </c>
       <c r="E268" t="n">
-        <v>55.5</v>
+        <v>55.4</v>
       </c>
       <c r="F268" t="n">
-        <v>135.3829</v>
+        <v>59499.4955</v>
       </c>
       <c r="G268" t="n">
-        <v>55.46666666666675</v>
+        <v>55.115</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9810,10 +10038,10 @@
         <v>55.5</v>
       </c>
       <c r="F269" t="n">
-        <v>1463.4047</v>
+        <v>135.3829</v>
       </c>
       <c r="G269" t="n">
-        <v>55.50000000000009</v>
+        <v>55.12</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9845,10 +10073,10 @@
         <v>55.5</v>
       </c>
       <c r="F270" t="n">
-        <v>1385.388</v>
+        <v>1463.4047</v>
       </c>
       <c r="G270" t="n">
-        <v>55.50000000000009</v>
+        <v>55.12833333333334</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9868,22 +10096,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="C271" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="D271" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="E271" t="n">
-        <v>55.2</v>
+        <v>55.5</v>
       </c>
       <c r="F271" t="n">
-        <v>4788.7145</v>
+        <v>1385.388</v>
       </c>
       <c r="G271" t="n">
-        <v>55.40000000000009</v>
+        <v>55.13333333333334</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9915,10 +10143,10 @@
         <v>55.2</v>
       </c>
       <c r="F272" t="n">
-        <v>2663.5713</v>
+        <v>4788.7145</v>
       </c>
       <c r="G272" t="n">
-        <v>55.30000000000009</v>
+        <v>55.145</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9933,6 +10161,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C273" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D273" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E273" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F273" t="n">
+        <v>2663.5713</v>
+      </c>
+      <c r="G273" t="n">
+        <v>55.16333333333333</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-28 BackTest POWR.xlsx
+++ b/BackTest/2019-10-28 BackTest POWR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M273"/>
+  <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>37050010</v>
       </c>
       <c r="G2" t="n">
+        <v>53.08000000000003</v>
+      </c>
+      <c r="H2" t="n">
         <v>52.46999999999996</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>10650000</v>
       </c>
       <c r="G3" t="n">
+        <v>53.1066666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>52.50999999999996</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>5550000</v>
       </c>
       <c r="G4" t="n">
+        <v>53.1266666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>52.54999999999995</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>26040000</v>
       </c>
       <c r="G5" t="n">
+        <v>53.14666666666671</v>
+      </c>
+      <c r="H5" t="n">
         <v>52.58666666666661</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>34300000</v>
       </c>
       <c r="G6" t="n">
+        <v>53.16000000000005</v>
+      </c>
+      <c r="H6" t="n">
         <v>52.59833333333327</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>34448130.334</v>
       </c>
       <c r="G7" t="n">
+        <v>53.16666666666671</v>
+      </c>
+      <c r="H7" t="n">
         <v>52.61333333333327</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>35420787.9999</v>
       </c>
       <c r="G8" t="n">
+        <v>53.17333333333338</v>
+      </c>
+      <c r="H8" t="n">
         <v>52.6416666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>33460000</v>
       </c>
       <c r="G9" t="n">
+        <v>53.18000000000005</v>
+      </c>
+      <c r="H9" t="n">
         <v>52.66833333333327</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>33591508.6341</v>
       </c>
       <c r="G10" t="n">
+        <v>53.18666666666672</v>
+      </c>
+      <c r="H10" t="n">
         <v>52.69499999999993</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>33600000</v>
       </c>
       <c r="G11" t="n">
+        <v>53.20000000000005</v>
+      </c>
+      <c r="H11" t="n">
         <v>52.71833333333326</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>34736441.971</v>
       </c>
       <c r="G12" t="n">
+        <v>53.20000000000005</v>
+      </c>
+      <c r="H12" t="n">
         <v>52.74499999999992</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>25480000</v>
       </c>
       <c r="G13" t="n">
+        <v>53.20000000000005</v>
+      </c>
+      <c r="H13" t="n">
         <v>52.76833333333325</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>28160.1566</v>
       </c>
       <c r="G14" t="n">
+        <v>53.20000000000005</v>
+      </c>
+      <c r="H14" t="n">
         <v>52.79166666666658</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1762.7386</v>
       </c>
       <c r="G15" t="n">
+        <v>53.20000000000005</v>
+      </c>
+      <c r="H15" t="n">
         <v>52.81333333333324</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>23800</v>
       </c>
       <c r="G16" t="n">
+        <v>53.20666666666671</v>
+      </c>
+      <c r="H16" t="n">
         <v>52.83666666666657</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>783</v>
       </c>
       <c r="G17" t="n">
+        <v>53.21333333333337</v>
+      </c>
+      <c r="H17" t="n">
         <v>52.85999999999991</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>3493.9998</v>
       </c>
       <c r="G18" t="n">
+        <v>53.22000000000003</v>
+      </c>
+      <c r="H18" t="n">
         <v>52.88166666666658</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>645.9637</v>
       </c>
       <c r="G19" t="n">
+        <v>53.20000000000003</v>
+      </c>
+      <c r="H19" t="n">
         <v>52.89666666666658</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>2862.0402</v>
       </c>
       <c r="G20" t="n">
+        <v>53.18000000000003</v>
+      </c>
+      <c r="H20" t="n">
         <v>52.91166666666658</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>23328.7729</v>
       </c>
       <c r="G21" t="n">
+        <v>53.11333333333336</v>
+      </c>
+      <c r="H21" t="n">
         <v>52.91166666666658</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>4335.907</v>
       </c>
       <c r="G22" t="n">
+        <v>53.04000000000003</v>
+      </c>
+      <c r="H22" t="n">
         <v>52.90833333333324</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>92242.791</v>
       </c>
       <c r="G23" t="n">
+        <v>52.96000000000002</v>
+      </c>
+      <c r="H23" t="n">
         <v>52.90166666666657</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>16487.9595</v>
       </c>
       <c r="G24" t="n">
+        <v>52.86666666666668</v>
+      </c>
+      <c r="H24" t="n">
         <v>52.89166666666657</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>824.4243</v>
       </c>
       <c r="G25" t="n">
+        <v>52.78000000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>52.88333333333324</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,27 @@
         <v>785.08880674</v>
       </c>
       <c r="G26" t="n">
+        <v>52.70000000000001</v>
+      </c>
+      <c r="H26" t="n">
         <v>52.87499999999991</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>51.9</v>
+      </c>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1409,25 @@
         <v>43470.5633</v>
       </c>
       <c r="G27" t="n">
+        <v>52.62</v>
+      </c>
+      <c r="H27" t="n">
         <v>52.86499999999991</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,24 +1451,25 @@
         <v>7767.9952</v>
       </c>
       <c r="G28" t="n">
+        <v>52.54666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>52.85166666666657</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1399,24 +1493,25 @@
         <v>1185.0863</v>
       </c>
       <c r="G29" t="n">
+        <v>52.47333333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>52.8399999999999</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>52.1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1440,22 +1535,25 @@
         <v>82774.7579</v>
       </c>
       <c r="G30" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="H30" t="n">
         <v>52.82666666666657</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,24 +1577,25 @@
         <v>80000</v>
       </c>
       <c r="G31" t="n">
+        <v>52.38666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>52.84666666666656</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>52.1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1520,22 +1619,25 @@
         <v>4000.5322</v>
       </c>
       <c r="G32" t="n">
+        <v>52.34000000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>52.84333333333323</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,22 +1661,25 @@
         <v>570.4942</v>
       </c>
       <c r="G33" t="n">
+        <v>52.29333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>52.84166666666656</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1598,22 +1703,25 @@
         <v>40000</v>
       </c>
       <c r="G34" t="n">
+        <v>52.27333333333335</v>
+      </c>
+      <c r="H34" t="n">
         <v>52.8399999999999</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1637,22 +1745,25 @@
         <v>11741.8162</v>
       </c>
       <c r="G35" t="n">
+        <v>52.24666666666668</v>
+      </c>
+      <c r="H35" t="n">
         <v>52.83666666666657</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1676,22 +1787,25 @@
         <v>997.5</v>
       </c>
       <c r="G36" t="n">
+        <v>52.24000000000002</v>
+      </c>
+      <c r="H36" t="n">
         <v>52.8249999999999</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1715,22 +1829,25 @@
         <v>12702.2432</v>
       </c>
       <c r="G37" t="n">
+        <v>52.24000000000002</v>
+      </c>
+      <c r="H37" t="n">
         <v>52.81333333333323</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1754,22 +1871,25 @@
         <v>6503.2779</v>
       </c>
       <c r="G38" t="n">
+        <v>52.24666666666668</v>
+      </c>
+      <c r="H38" t="n">
         <v>52.80166666666655</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1793,22 +1913,25 @@
         <v>15467.0246</v>
       </c>
       <c r="G39" t="n">
+        <v>52.26000000000002</v>
+      </c>
+      <c r="H39" t="n">
         <v>52.78666666666655</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1832,22 +1955,25 @@
         <v>3862.5544</v>
       </c>
       <c r="G40" t="n">
+        <v>52.27333333333335</v>
+      </c>
+      <c r="H40" t="n">
         <v>52.77666666666655</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1871,22 +1997,25 @@
         <v>17250.7662</v>
       </c>
       <c r="G41" t="n">
+        <v>52.2866666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>52.76833333333322</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1910,22 +2039,25 @@
         <v>11</v>
       </c>
       <c r="G42" t="n">
+        <v>52.29333333333336</v>
+      </c>
+      <c r="H42" t="n">
         <v>52.75833333333322</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1949,22 +2081,25 @@
         <v>6570000</v>
       </c>
       <c r="G43" t="n">
+        <v>52.29333333333336</v>
+      </c>
+      <c r="H43" t="n">
         <v>52.74833333333322</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,22 +2123,25 @@
         <v>16485531</v>
       </c>
       <c r="G44" t="n">
+        <v>52.29333333333336</v>
+      </c>
+      <c r="H44" t="n">
         <v>52.73833333333322</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2027,22 +2165,25 @@
         <v>18714469</v>
       </c>
       <c r="G45" t="n">
+        <v>52.29333333333336</v>
+      </c>
+      <c r="H45" t="n">
         <v>52.72833333333323</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2066,22 +2207,25 @@
         <v>7560000</v>
       </c>
       <c r="G46" t="n">
+        <v>52.22666666666669</v>
+      </c>
+      <c r="H46" t="n">
         <v>52.71833333333323</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2105,22 +2249,25 @@
         <v>6240000</v>
       </c>
       <c r="G47" t="n">
+        <v>52.19333333333336</v>
+      </c>
+      <c r="H47" t="n">
         <v>52.70666666666656</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,22 +2291,25 @@
         <v>15120000</v>
       </c>
       <c r="G48" t="n">
+        <v>52.16000000000003</v>
+      </c>
+      <c r="H48" t="n">
         <v>52.69499999999989</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,22 +2333,27 @@
         <v>15480000</v>
       </c>
       <c r="G49" t="n">
+        <v>52.12666666666669</v>
+      </c>
+      <c r="H49" t="n">
         <v>52.68166666666654</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2222,22 +2377,25 @@
         <v>15540000</v>
       </c>
       <c r="G50" t="n">
+        <v>52.10000000000003</v>
+      </c>
+      <c r="H50" t="n">
         <v>52.66833333333321</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2261,22 +2419,25 @@
         <v>15300000</v>
       </c>
       <c r="G51" t="n">
+        <v>52.10000000000003</v>
+      </c>
+      <c r="H51" t="n">
         <v>52.65333333333321</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,22 +2461,25 @@
         <v>9480000</v>
       </c>
       <c r="G52" t="n">
+        <v>52.10000000000003</v>
+      </c>
+      <c r="H52" t="n">
         <v>52.63666666666654</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2339,22 +2503,25 @@
         <v>12200000</v>
       </c>
       <c r="G53" t="n">
+        <v>52.1066666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>52.62166666666654</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2378,22 +2545,25 @@
         <v>3005288.3589</v>
       </c>
       <c r="G54" t="n">
+        <v>52.12666666666669</v>
+      </c>
+      <c r="H54" t="n">
         <v>52.60833333333321</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2417,22 +2587,27 @@
         <v>4400898</v>
       </c>
       <c r="G55" t="n">
+        <v>52.14000000000002</v>
+      </c>
+      <c r="H55" t="n">
         <v>52.59499999999989</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2456,22 +2631,27 @@
         <v>6117842.1689</v>
       </c>
       <c r="G56" t="n">
+        <v>52.14666666666668</v>
+      </c>
+      <c r="H56" t="n">
         <v>52.58333333333322</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2495,22 +2675,27 @@
         <v>5089246.94656488</v>
       </c>
       <c r="G57" t="n">
+        <v>52.16000000000001</v>
+      </c>
+      <c r="H57" t="n">
         <v>52.56833333333323</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2534,22 +2719,27 @@
         <v>5850000</v>
       </c>
       <c r="G58" t="n">
+        <v>52.17333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>52.55333333333324</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2573,22 +2763,27 @@
         <v>11475000</v>
       </c>
       <c r="G59" t="n">
+        <v>52.18666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>52.53833333333323</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2612,22 +2807,25 @@
         <v>11745000</v>
       </c>
       <c r="G60" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="H60" t="n">
         <v>52.52333333333324</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2651,22 +2849,25 @@
         <v>7245000</v>
       </c>
       <c r="G61" t="n">
+        <v>52.21333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>52.50833333333325</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2690,22 +2891,25 @@
         <v>3660.8651</v>
       </c>
       <c r="G62" t="n">
+        <v>52.22666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>52.49333333333325</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2729,22 +2933,25 @@
         <v>1202.8861</v>
       </c>
       <c r="G63" t="n">
+        <v>52.27333333333332</v>
+      </c>
+      <c r="H63" t="n">
         <v>52.48666666666659</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,22 +2975,25 @@
         <v>12141.1848</v>
       </c>
       <c r="G64" t="n">
+        <v>52.27999999999999</v>
+      </c>
+      <c r="H64" t="n">
         <v>52.46999999999993</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2807,22 +3017,25 @@
         <v>45523.2115</v>
       </c>
       <c r="G65" t="n">
+        <v>52.27333333333332</v>
+      </c>
+      <c r="H65" t="n">
         <v>52.44999999999993</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,22 +3059,27 @@
         <v>1548.5556</v>
       </c>
       <c r="G66" t="n">
+        <v>52.27333333333332</v>
+      </c>
+      <c r="H66" t="n">
         <v>52.4316666666666</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>52</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2885,22 +3103,27 @@
         <v>12500000</v>
       </c>
       <c r="G67" t="n">
+        <v>52.27333333333332</v>
+      </c>
+      <c r="H67" t="n">
         <v>52.41333333333327</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2924,22 +3147,27 @@
         <v>15100000</v>
       </c>
       <c r="G68" t="n">
+        <v>52.26666666666665</v>
+      </c>
+      <c r="H68" t="n">
         <v>52.39499999999994</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2963,22 +3191,25 @@
         <v>47984.6448</v>
       </c>
       <c r="G69" t="n">
+        <v>52.25333333333332</v>
+      </c>
+      <c r="H69" t="n">
         <v>52.3766666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,22 +3233,25 @@
         <v>1464017.6122</v>
       </c>
       <c r="G70" t="n">
+        <v>52.24666666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>52.35999999999994</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3041,22 +3275,25 @@
         <v>3457.14885496</v>
       </c>
       <c r="G71" t="n">
+        <v>52.26</v>
+      </c>
+      <c r="H71" t="n">
         <v>52.34833333333327</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3080,22 +3317,25 @@
         <v>1807.9096</v>
       </c>
       <c r="G72" t="n">
+        <v>52.24666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>52.32999999999994</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3119,22 +3359,25 @@
         <v>6209.5501</v>
       </c>
       <c r="G73" t="n">
+        <v>52.26000000000001</v>
+      </c>
+      <c r="H73" t="n">
         <v>52.31833333333328</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3158,22 +3401,25 @@
         <v>0.0001</v>
       </c>
       <c r="G74" t="n">
+        <v>52.27333333333334</v>
+      </c>
+      <c r="H74" t="n">
         <v>52.30666666666662</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3197,22 +3443,25 @@
         <v>2930.0887</v>
       </c>
       <c r="G75" t="n">
+        <v>52.33333333333335</v>
+      </c>
+      <c r="H75" t="n">
         <v>52.30666666666662</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3236,22 +3485,25 @@
         <v>2324.5255</v>
       </c>
       <c r="G76" t="n">
+        <v>52.38666666666668</v>
+      </c>
+      <c r="H76" t="n">
         <v>52.30333333333328</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3275,22 +3527,25 @@
         <v>15520.358</v>
       </c>
       <c r="G77" t="n">
+        <v>52.45333333333335</v>
+      </c>
+      <c r="H77" t="n">
         <v>52.30333333333328</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3314,22 +3569,25 @@
         <v>523710.6419</v>
       </c>
       <c r="G78" t="n">
+        <v>52.51333333333336</v>
+      </c>
+      <c r="H78" t="n">
         <v>52.30999999999994</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,22 +3611,25 @@
         <v>792000</v>
       </c>
       <c r="G79" t="n">
+        <v>52.58666666666669</v>
+      </c>
+      <c r="H79" t="n">
         <v>52.31666666666661</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3392,22 +3653,25 @@
         <v>1743000</v>
       </c>
       <c r="G80" t="n">
+        <v>52.67333333333335</v>
+      </c>
+      <c r="H80" t="n">
         <v>52.32333333333327</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3431,22 +3695,25 @@
         <v>1862000</v>
       </c>
       <c r="G81" t="n">
+        <v>52.75333333333334</v>
+      </c>
+      <c r="H81" t="n">
         <v>52.34166666666661</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,22 +3737,25 @@
         <v>1232000</v>
       </c>
       <c r="G82" t="n">
+        <v>52.83333333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>52.36166666666661</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,22 +3779,25 @@
         <v>1242.93</v>
       </c>
       <c r="G83" t="n">
+        <v>52.92</v>
+      </c>
+      <c r="H83" t="n">
         <v>52.38499999999996</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,22 +3821,25 @@
         <v>1255.3124</v>
       </c>
       <c r="G84" t="n">
+        <v>53.01333333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>52.41333333333328</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3587,22 +3863,25 @@
         <v>5985.3757</v>
       </c>
       <c r="G85" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="H85" t="n">
         <v>52.43999999999995</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3626,22 +3905,25 @@
         <v>800</v>
       </c>
       <c r="G86" t="n">
+        <v>53.16666666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>52.46499999999995</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3665,22 +3947,25 @@
         <v>15915.5313</v>
       </c>
       <c r="G87" t="n">
+        <v>53.26</v>
+      </c>
+      <c r="H87" t="n">
         <v>52.48999999999995</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3704,22 +3989,27 @@
         <v>25728.7004</v>
       </c>
       <c r="G88" t="n">
+        <v>53.32666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>52.51333333333329</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3741,18 +4031,25 @@
         <v>51864</v>
       </c>
       <c r="G89" t="n">
+        <v>53.40666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>52.53999999999995</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3776,18 +4073,25 @@
         <v>702.3488</v>
       </c>
       <c r="G90" t="n">
+        <v>53.42666666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>52.56333333333328</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,18 +4115,25 @@
         <v>199.5</v>
       </c>
       <c r="G91" t="n">
+        <v>53.42666666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>52.56333333333328</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,18 +4157,25 @@
         <v>720.5</v>
       </c>
       <c r="G92" t="n">
+        <v>53.41333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>52.57166666666662</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3881,18 +4199,25 @@
         <v>848.4673</v>
       </c>
       <c r="G93" t="n">
+        <v>53.36666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>52.57833333333328</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,18 +4241,27 @@
         <v>1793.4986</v>
       </c>
       <c r="G94" t="n">
+        <v>53.34666666666667</v>
+      </c>
+      <c r="H94" t="n">
         <v>52.58499999999995</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>53</v>
+      </c>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3951,18 +4285,27 @@
         <v>9736.0697</v>
       </c>
       <c r="G95" t="n">
+        <v>53.32000000000001</v>
+      </c>
+      <c r="H95" t="n">
         <v>52.59166666666662</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>53</v>
+      </c>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3986,18 +4329,27 @@
         <v>9416.825199999999</v>
       </c>
       <c r="G96" t="n">
+        <v>53.28000000000001</v>
+      </c>
+      <c r="H96" t="n">
         <v>52.60166666666662</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>52.9</v>
+      </c>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4021,18 +4373,27 @@
         <v>656</v>
       </c>
       <c r="G97" t="n">
+        <v>53.24000000000002</v>
+      </c>
+      <c r="H97" t="n">
         <v>52.61166666666661</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>52.7</v>
+      </c>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4056,18 +4417,27 @@
         <v>754.0625</v>
       </c>
       <c r="G98" t="n">
+        <v>53.18666666666669</v>
+      </c>
+      <c r="H98" t="n">
         <v>52.61999999999995</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>52.7</v>
+      </c>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4091,18 +4461,27 @@
         <v>66397.57889999999</v>
       </c>
       <c r="G99" t="n">
+        <v>53.08666666666669</v>
+      </c>
+      <c r="H99" t="n">
         <v>52.61999999999995</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>52.6</v>
+      </c>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4126,18 +4505,27 @@
         <v>7674.465</v>
       </c>
       <c r="G100" t="n">
+        <v>53.00000000000002</v>
+      </c>
+      <c r="H100" t="n">
         <v>52.62166666666662</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>52</v>
+      </c>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4161,18 +4549,27 @@
         <v>1000</v>
       </c>
       <c r="G101" t="n">
+        <v>52.93333333333336</v>
+      </c>
+      <c r="H101" t="n">
         <v>52.62666666666662</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>52.2</v>
+      </c>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4196,18 +4593,27 @@
         <v>25.3124</v>
       </c>
       <c r="G102" t="n">
+        <v>52.92666666666669</v>
+      </c>
+      <c r="H102" t="n">
         <v>52.64833333333329</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>52.5</v>
+      </c>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4231,18 +4637,25 @@
         <v>2104.2678</v>
       </c>
       <c r="G103" t="n">
+        <v>52.92666666666669</v>
+      </c>
+      <c r="H103" t="n">
         <v>52.67166666666662</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4266,18 +4679,25 @@
         <v>20632.1597</v>
       </c>
       <c r="G104" t="n">
+        <v>52.90666666666668</v>
+      </c>
+      <c r="H104" t="n">
         <v>52.69333333333329</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4301,18 +4721,25 @@
         <v>1000</v>
       </c>
       <c r="G105" t="n">
+        <v>52.86000000000001</v>
+      </c>
+      <c r="H105" t="n">
         <v>52.70499999999996</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4336,18 +4763,25 @@
         <v>1492.8542</v>
       </c>
       <c r="G106" t="n">
+        <v>52.87333333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>52.72499999999997</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4371,18 +4805,25 @@
         <v>2051.8928</v>
       </c>
       <c r="G107" t="n">
+        <v>52.89333333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>52.74666666666664</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,18 +4847,25 @@
         <v>12178.9887</v>
       </c>
       <c r="G108" t="n">
+        <v>52.92</v>
+      </c>
+      <c r="H108" t="n">
         <v>52.76833333333331</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4441,18 +4889,25 @@
         <v>20</v>
       </c>
       <c r="G109" t="n">
+        <v>52.90666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>52.77999999999998</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4476,18 +4931,25 @@
         <v>80</v>
       </c>
       <c r="G110" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="H110" t="n">
         <v>52.79166666666665</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4511,18 +4973,25 @@
         <v>2263.2501</v>
       </c>
       <c r="G111" t="n">
+        <v>52.89333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>52.79999999999998</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4546,18 +5015,27 @@
         <v>1445.0047</v>
       </c>
       <c r="G112" t="n">
+        <v>52.89999999999999</v>
+      </c>
+      <c r="H112" t="n">
         <v>52.81166666666665</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>52.6</v>
+      </c>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4581,18 +5059,27 @@
         <v>1170</v>
       </c>
       <c r="G113" t="n">
+        <v>52.90666666666666</v>
+      </c>
+      <c r="H113" t="n">
         <v>52.81999999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>52.8</v>
+      </c>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,18 +5103,27 @@
         <v>22300</v>
       </c>
       <c r="G114" t="n">
+        <v>52.93999999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>52.82333333333332</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>52.7</v>
+      </c>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4651,18 +5147,27 @@
         <v>1402</v>
       </c>
       <c r="G115" t="n">
+        <v>52.94666666666665</v>
+      </c>
+      <c r="H115" t="n">
         <v>52.82333333333332</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>52.5</v>
+      </c>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4686,18 +5191,27 @@
         <v>746.6461</v>
       </c>
       <c r="G116" t="n">
+        <v>52.93333333333332</v>
+      </c>
+      <c r="H116" t="n">
         <v>52.82333333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>52.3</v>
+      </c>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4721,18 +5235,27 @@
         <v>1385.8785</v>
       </c>
       <c r="G117" t="n">
+        <v>52.85999999999999</v>
+      </c>
+      <c r="H117" t="n">
         <v>52.82333333333332</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>52.3</v>
+      </c>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4756,18 +5279,27 @@
         <v>712</v>
       </c>
       <c r="G118" t="n">
+        <v>52.77333333333332</v>
+      </c>
+      <c r="H118" t="n">
         <v>52.82166666666664</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>52.3</v>
+      </c>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4791,18 +5323,27 @@
         <v>11669.8527</v>
       </c>
       <c r="G119" t="n">
+        <v>52.69333333333332</v>
+      </c>
+      <c r="H119" t="n">
         <v>52.81999999999997</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>52.2</v>
+      </c>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4826,18 +5367,27 @@
         <v>235</v>
       </c>
       <c r="G120" t="n">
+        <v>52.68666666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>52.82666666666663</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>52.2</v>
+      </c>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4861,18 +5411,27 @@
         <v>100</v>
       </c>
       <c r="G121" t="n">
+        <v>52.65333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>52.83499999999997</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>52.7</v>
+      </c>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4896,18 +5455,25 @@
         <v>3003.432</v>
       </c>
       <c r="G122" t="n">
+        <v>52.61333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>52.8433333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4931,18 +5497,25 @@
         <v>5191.2245</v>
       </c>
       <c r="G123" t="n">
+        <v>52.58666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>52.84666666666663</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,18 +5539,25 @@
         <v>2637.4384</v>
       </c>
       <c r="G124" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="H124" t="n">
         <v>52.85999999999997</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5001,18 +5581,25 @@
         <v>5720.1465</v>
       </c>
       <c r="G125" t="n">
+        <v>52.61333333333334</v>
+      </c>
+      <c r="H125" t="n">
         <v>52.87666666666664</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,18 +5623,25 @@
         <v>2251.8556</v>
       </c>
       <c r="G126" t="n">
+        <v>52.61333333333334</v>
+      </c>
+      <c r="H126" t="n">
         <v>52.88499999999997</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5071,18 +5665,25 @@
         <v>7367</v>
       </c>
       <c r="G127" t="n">
+        <v>52.60666666666668</v>
+      </c>
+      <c r="H127" t="n">
         <v>52.89499999999997</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5106,18 +5707,25 @@
         <v>2148</v>
       </c>
       <c r="G128" t="n">
+        <v>52.58666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>52.89999999999997</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5141,18 +5749,25 @@
         <v>2605</v>
       </c>
       <c r="G129" t="n">
+        <v>52.58000000000001</v>
+      </c>
+      <c r="H129" t="n">
         <v>52.90499999999997</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5176,18 +5791,27 @@
         <v>6231.7826</v>
       </c>
       <c r="G130" t="n">
+        <v>52.58666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>52.90833333333331</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>52.4</v>
+      </c>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5211,18 +5835,27 @@
         <v>100</v>
       </c>
       <c r="G131" t="n">
+        <v>52.64000000000001</v>
+      </c>
+      <c r="H131" t="n">
         <v>52.91833333333331</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>52.4</v>
+      </c>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5246,18 +5879,25 @@
         <v>100</v>
       </c>
       <c r="G132" t="n">
+        <v>52.69333333333335</v>
+      </c>
+      <c r="H132" t="n">
         <v>52.93499999999997</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5281,18 +5921,25 @@
         <v>916</v>
       </c>
       <c r="G133" t="n">
+        <v>52.72666666666668</v>
+      </c>
+      <c r="H133" t="n">
         <v>52.9383333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5316,18 +5963,25 @@
         <v>6035</v>
       </c>
       <c r="G134" t="n">
+        <v>52.76000000000001</v>
+      </c>
+      <c r="H134" t="n">
         <v>52.94166666666663</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5351,18 +6005,25 @@
         <v>176</v>
       </c>
       <c r="G135" t="n">
+        <v>52.76666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>52.93499999999997</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5386,18 +6047,25 @@
         <v>49710.5947</v>
       </c>
       <c r="G136" t="n">
+        <v>52.81333333333335</v>
+      </c>
+      <c r="H136" t="n">
         <v>52.94166666666664</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5421,18 +6089,25 @@
         <v>2606.3908</v>
       </c>
       <c r="G137" t="n">
+        <v>52.85333333333335</v>
+      </c>
+      <c r="H137" t="n">
         <v>52.94333333333331</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5456,18 +6131,25 @@
         <v>414</v>
       </c>
       <c r="G138" t="n">
+        <v>52.88000000000001</v>
+      </c>
+      <c r="H138" t="n">
         <v>52.93833333333331</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5491,18 +6173,25 @@
         <v>399.2836</v>
       </c>
       <c r="G139" t="n">
+        <v>52.88000000000001</v>
+      </c>
+      <c r="H139" t="n">
         <v>52.93333333333331</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5526,18 +6215,25 @@
         <v>379.3194</v>
       </c>
       <c r="G140" t="n">
+        <v>52.88000000000001</v>
+      </c>
+      <c r="H140" t="n">
         <v>52.92833333333331</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5561,18 +6257,25 @@
         <v>569.7062</v>
       </c>
       <c r="G141" t="n">
+        <v>52.90666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>52.9233333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5596,18 +6299,25 @@
         <v>8682.175800000001</v>
       </c>
       <c r="G142" t="n">
+        <v>52.92666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>52.9183333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5631,18 +6341,25 @@
         <v>611.704</v>
       </c>
       <c r="G143" t="n">
+        <v>52.96666666666668</v>
+      </c>
+      <c r="H143" t="n">
         <v>52.91166666666663</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5666,18 +6383,27 @@
         <v>2732.6646</v>
       </c>
       <c r="G144" t="n">
+        <v>53.01333333333334</v>
+      </c>
+      <c r="H144" t="n">
         <v>52.90499999999997</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>53</v>
+      </c>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,18 +6427,27 @@
         <v>571.6446</v>
       </c>
       <c r="G145" t="n">
+        <v>53.06000000000002</v>
+      </c>
+      <c r="H145" t="n">
         <v>52.8983333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5736,18 +6471,25 @@
         <v>5418</v>
       </c>
       <c r="G146" t="n">
+        <v>53.06000000000002</v>
+      </c>
+      <c r="H146" t="n">
         <v>52.89166666666663</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5771,18 +6513,25 @@
         <v>3740.0257</v>
       </c>
       <c r="G147" t="n">
+        <v>53.05333333333335</v>
+      </c>
+      <c r="H147" t="n">
         <v>52.8833333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5806,18 +6555,25 @@
         <v>187.6172</v>
       </c>
       <c r="G148" t="n">
+        <v>53.08666666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>52.87833333333329</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5841,18 +6597,25 @@
         <v>2451.1012</v>
       </c>
       <c r="G149" t="n">
+        <v>53.11333333333334</v>
+      </c>
+      <c r="H149" t="n">
         <v>52.8683333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5876,18 +6639,25 @@
         <v>21505.0563</v>
       </c>
       <c r="G150" t="n">
+        <v>53.14000000000001</v>
+      </c>
+      <c r="H150" t="n">
         <v>52.86333333333329</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5911,18 +6681,25 @@
         <v>5822.3872</v>
       </c>
       <c r="G151" t="n">
+        <v>53.12000000000002</v>
+      </c>
+      <c r="H151" t="n">
         <v>52.86499999999996</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5946,18 +6723,25 @@
         <v>1882.6854</v>
       </c>
       <c r="G152" t="n">
+        <v>53.10666666666669</v>
+      </c>
+      <c r="H152" t="n">
         <v>52.86666666666662</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5981,18 +6765,25 @@
         <v>1243</v>
       </c>
       <c r="G153" t="n">
+        <v>53.09333333333336</v>
+      </c>
+      <c r="H153" t="n">
         <v>52.86999999999995</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6016,18 +6807,25 @@
         <v>38843.9661</v>
       </c>
       <c r="G154" t="n">
+        <v>53.07333333333337</v>
+      </c>
+      <c r="H154" t="n">
         <v>52.86499999999995</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6051,18 +6849,25 @@
         <v>4337.1486</v>
       </c>
       <c r="G155" t="n">
+        <v>53.06000000000003</v>
+      </c>
+      <c r="H155" t="n">
         <v>52.86333333333328</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6086,18 +6891,25 @@
         <v>1445.7163</v>
       </c>
       <c r="G156" t="n">
+        <v>53.0466666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>52.86499999999996</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6121,18 +6933,25 @@
         <v>84.59510357000001</v>
       </c>
       <c r="G157" t="n">
+        <v>53.05333333333336</v>
+      </c>
+      <c r="H157" t="n">
         <v>52.87166666666663</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6156,18 +6975,25 @@
         <v>1368.75709643</v>
       </c>
       <c r="G158" t="n">
+        <v>53.06000000000003</v>
+      </c>
+      <c r="H158" t="n">
         <v>52.87999999999996</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6191,18 +7017,25 @@
         <v>356.3653</v>
       </c>
       <c r="G159" t="n">
+        <v>53.06000000000003</v>
+      </c>
+      <c r="H159" t="n">
         <v>52.89833333333329</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6226,18 +7059,27 @@
         <v>1879.8496</v>
       </c>
       <c r="G160" t="n">
+        <v>53.0666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>52.91499999999996</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>53.1</v>
+      </c>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6261,18 +7103,25 @@
         <v>3975.9934</v>
       </c>
       <c r="G161" t="n">
+        <v>53.08000000000003</v>
+      </c>
+      <c r="H161" t="n">
         <v>52.92833333333329</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6296,18 +7145,25 @@
         <v>18857.4694</v>
       </c>
       <c r="G162" t="n">
+        <v>53.12000000000003</v>
+      </c>
+      <c r="H162" t="n">
         <v>52.93166666666662</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6331,18 +7187,25 @@
         <v>2472.1662</v>
       </c>
       <c r="G163" t="n">
+        <v>53.14666666666669</v>
+      </c>
+      <c r="H163" t="n">
         <v>52.93333333333329</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6366,18 +7229,25 @@
         <v>42533.7728</v>
       </c>
       <c r="G164" t="n">
+        <v>53.22666666666669</v>
+      </c>
+      <c r="H164" t="n">
         <v>52.94833333333329</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6401,18 +7271,25 @@
         <v>3690.0369</v>
       </c>
       <c r="G165" t="n">
+        <v>53.28666666666668</v>
+      </c>
+      <c r="H165" t="n">
         <v>52.96999999999995</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6436,18 +7313,25 @@
         <v>54515.3699</v>
       </c>
       <c r="G166" t="n">
+        <v>53.34000000000002</v>
+      </c>
+      <c r="H166" t="n">
         <v>52.98166666666661</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6471,18 +7355,25 @@
         <v>100</v>
       </c>
       <c r="G167" t="n">
+        <v>53.39333333333335</v>
+      </c>
+      <c r="H167" t="n">
         <v>52.99166666666661</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6506,18 +7397,25 @@
         <v>54509.8529</v>
       </c>
       <c r="G168" t="n">
+        <v>53.44666666666668</v>
+      </c>
+      <c r="H168" t="n">
         <v>53.00166666666662</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6541,18 +7439,25 @@
         <v>4310.4974</v>
       </c>
       <c r="G169" t="n">
+        <v>53.52666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>53.01999999999995</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6576,18 +7481,25 @@
         <v>14498.6545</v>
       </c>
       <c r="G170" t="n">
+        <v>53.60000000000001</v>
+      </c>
+      <c r="H170" t="n">
         <v>53.03833333333328</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6611,18 +7523,25 @@
         <v>1082</v>
       </c>
       <c r="G171" t="n">
+        <v>53.68666666666668</v>
+      </c>
+      <c r="H171" t="n">
         <v>53.06333333333328</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6646,18 +7565,25 @@
         <v>8692.4215</v>
       </c>
       <c r="G172" t="n">
+        <v>53.75333333333334</v>
+      </c>
+      <c r="H172" t="n">
         <v>53.08499999999994</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6681,18 +7607,25 @@
         <v>8388.681699999999</v>
       </c>
       <c r="G173" t="n">
+        <v>53.82000000000001</v>
+      </c>
+      <c r="H173" t="n">
         <v>53.10833333333327</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6716,18 +7649,25 @@
         <v>29251.6239</v>
       </c>
       <c r="G174" t="n">
+        <v>53.88666666666668</v>
+      </c>
+      <c r="H174" t="n">
         <v>53.13499999999994</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6751,18 +7691,25 @@
         <v>730.6206</v>
       </c>
       <c r="G175" t="n">
+        <v>53.94666666666668</v>
+      </c>
+      <c r="H175" t="n">
         <v>53.16499999999994</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6786,18 +7733,25 @@
         <v>56.4565</v>
       </c>
       <c r="G176" t="n">
+        <v>53.97333333333335</v>
+      </c>
+      <c r="H176" t="n">
         <v>53.18833333333326</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6821,18 +7775,25 @@
         <v>7399.0055</v>
       </c>
       <c r="G177" t="n">
+        <v>54.00666666666668</v>
+      </c>
+      <c r="H177" t="n">
         <v>53.21833333333326</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6856,18 +7817,25 @@
         <v>2236.701</v>
       </c>
       <c r="G178" t="n">
+        <v>54.03333333333335</v>
+      </c>
+      <c r="H178" t="n">
         <v>53.24833333333326</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6891,18 +7859,25 @@
         <v>136.1973</v>
       </c>
       <c r="G179" t="n">
+        <v>54.01333333333335</v>
+      </c>
+      <c r="H179" t="n">
         <v>53.27833333333326</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6926,18 +7901,25 @@
         <v>1000</v>
       </c>
       <c r="G180" t="n">
+        <v>54.01333333333335</v>
+      </c>
+      <c r="H180" t="n">
         <v>53.3016666666666</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6961,18 +7943,25 @@
         <v>6060</v>
       </c>
       <c r="G181" t="n">
+        <v>54.02000000000002</v>
+      </c>
+      <c r="H181" t="n">
         <v>53.32333333333326</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6996,18 +7985,25 @@
         <v>768</v>
       </c>
       <c r="G182" t="n">
+        <v>54.02666666666669</v>
+      </c>
+      <c r="H182" t="n">
         <v>53.34499999999992</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7031,18 +8027,25 @@
         <v>200</v>
       </c>
       <c r="G183" t="n">
+        <v>54.03333333333335</v>
+      </c>
+      <c r="H183" t="n">
         <v>53.36333333333325</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7066,18 +8069,25 @@
         <v>4917.9112</v>
       </c>
       <c r="G184" t="n">
+        <v>54.0466666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>53.38166666666658</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7101,18 +8111,25 @@
         <v>3698.4334</v>
       </c>
       <c r="G185" t="n">
+        <v>54.06000000000003</v>
+      </c>
+      <c r="H185" t="n">
         <v>53.39999999999991</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7136,18 +8153,25 @@
         <v>13716.032</v>
       </c>
       <c r="G186" t="n">
+        <v>54.06000000000003</v>
+      </c>
+      <c r="H186" t="n">
         <v>53.42499999999992</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7171,18 +8195,25 @@
         <v>3409.9999</v>
       </c>
       <c r="G187" t="n">
+        <v>54.06000000000003</v>
+      </c>
+      <c r="H187" t="n">
         <v>53.44833333333325</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7206,18 +8237,25 @@
         <v>767</v>
       </c>
       <c r="G188" t="n">
+        <v>54.06000000000003</v>
+      </c>
+      <c r="H188" t="n">
         <v>53.47666666666658</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7241,18 +8279,25 @@
         <v>26999.8024</v>
       </c>
       <c r="G189" t="n">
+        <v>54.06000000000003</v>
+      </c>
+      <c r="H189" t="n">
         <v>53.50499999999991</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7276,18 +8321,25 @@
         <v>823</v>
       </c>
       <c r="G190" t="n">
+        <v>54.07333333333336</v>
+      </c>
+      <c r="H190" t="n">
         <v>53.53666666666658</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7311,18 +8363,25 @@
         <v>10556.6618</v>
       </c>
       <c r="G191" t="n">
+        <v>54.11333333333335</v>
+      </c>
+      <c r="H191" t="n">
         <v>53.55666666666659</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7346,18 +8405,25 @@
         <v>3637.474</v>
       </c>
       <c r="G192" t="n">
+        <v>54.12000000000002</v>
+      </c>
+      <c r="H192" t="n">
         <v>53.57499999999992</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7381,18 +8447,25 @@
         <v>6024.8073</v>
       </c>
       <c r="G193" t="n">
+        <v>54.12666666666669</v>
+      </c>
+      <c r="H193" t="n">
         <v>53.59833333333325</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7416,18 +8489,25 @@
         <v>998.17834945</v>
       </c>
       <c r="G194" t="n">
+        <v>54.16666666666669</v>
+      </c>
+      <c r="H194" t="n">
         <v>53.62999999999992</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7451,18 +8531,25 @@
         <v>5893.6146</v>
       </c>
       <c r="G195" t="n">
+        <v>54.19333333333336</v>
+      </c>
+      <c r="H195" t="n">
         <v>53.65833333333325</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7486,18 +8573,25 @@
         <v>555.8816</v>
       </c>
       <c r="G196" t="n">
+        <v>54.22000000000002</v>
+      </c>
+      <c r="H196" t="n">
         <v>53.67499999999992</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7521,18 +8615,25 @@
         <v>24886.5799</v>
       </c>
       <c r="G197" t="n">
+        <v>54.24666666666668</v>
+      </c>
+      <c r="H197" t="n">
         <v>53.69333333333325</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7556,18 +8657,25 @@
         <v>24307.9585</v>
       </c>
       <c r="G198" t="n">
+        <v>54.28666666666668</v>
+      </c>
+      <c r="H198" t="n">
         <v>53.71499999999991</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7591,18 +8699,25 @@
         <v>1635.5984</v>
       </c>
       <c r="G199" t="n">
+        <v>54.32000000000002</v>
+      </c>
+      <c r="H199" t="n">
         <v>53.74166666666657</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7626,18 +8741,25 @@
         <v>4418.243</v>
       </c>
       <c r="G200" t="n">
+        <v>54.36666666666668</v>
+      </c>
+      <c r="H200" t="n">
         <v>53.77166666666658</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7661,18 +8783,25 @@
         <v>11860.182312</v>
       </c>
       <c r="G201" t="n">
+        <v>54.42666666666668</v>
+      </c>
+      <c r="H201" t="n">
         <v>53.80499999999991</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7696,18 +8825,25 @@
         <v>1998</v>
       </c>
       <c r="G202" t="n">
+        <v>54.48666666666668</v>
+      </c>
+      <c r="H202" t="n">
         <v>53.83833333333325</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7731,18 +8867,25 @@
         <v>17850.6742</v>
       </c>
       <c r="G203" t="n">
+        <v>54.55333333333335</v>
+      </c>
+      <c r="H203" t="n">
         <v>53.87333333333324</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7766,18 +8909,25 @@
         <v>6000</v>
       </c>
       <c r="G204" t="n">
+        <v>54.62000000000001</v>
+      </c>
+      <c r="H204" t="n">
         <v>53.90666666666657</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7801,18 +8951,25 @@
         <v>13566.1413</v>
       </c>
       <c r="G205" t="n">
+        <v>54.68000000000002</v>
+      </c>
+      <c r="H205" t="n">
         <v>53.94166666666658</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7836,18 +8993,25 @@
         <v>865</v>
       </c>
       <c r="G206" t="n">
+        <v>54.72666666666669</v>
+      </c>
+      <c r="H206" t="n">
         <v>53.97333333333324</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7871,18 +9035,25 @@
         <v>10</v>
       </c>
       <c r="G207" t="n">
+        <v>54.80000000000002</v>
+      </c>
+      <c r="H207" t="n">
         <v>54.01166666666658</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7906,18 +9077,25 @@
         <v>37451.6667</v>
       </c>
       <c r="G208" t="n">
+        <v>54.88666666666668</v>
+      </c>
+      <c r="H208" t="n">
         <v>54.04833333333325</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7941,18 +9119,25 @@
         <v>789.9999</v>
       </c>
       <c r="G209" t="n">
+        <v>54.92666666666668</v>
+      </c>
+      <c r="H209" t="n">
         <v>54.08333333333325</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7976,18 +9161,25 @@
         <v>18772</v>
       </c>
       <c r="G210" t="n">
+        <v>54.96000000000002</v>
+      </c>
+      <c r="H210" t="n">
         <v>54.11333333333325</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8011,18 +9203,25 @@
         <v>1237</v>
       </c>
       <c r="G211" t="n">
+        <v>55.00666666666668</v>
+      </c>
+      <c r="H211" t="n">
         <v>54.14666666666658</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8046,18 +9245,25 @@
         <v>14200</v>
       </c>
       <c r="G212" t="n">
+        <v>55.00666666666668</v>
+      </c>
+      <c r="H212" t="n">
         <v>54.16833333333326</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8081,18 +9287,25 @@
         <v>1400</v>
       </c>
       <c r="G213" t="n">
+        <v>54.96666666666668</v>
+      </c>
+      <c r="H213" t="n">
         <v>54.18333333333326</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8116,18 +9329,25 @@
         <v>2738.8739</v>
       </c>
       <c r="G214" t="n">
+        <v>54.93333333333335</v>
+      </c>
+      <c r="H214" t="n">
         <v>54.20666666666659</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8151,18 +9371,25 @@
         <v>18712.4198</v>
       </c>
       <c r="G215" t="n">
+        <v>54.88666666666668</v>
+      </c>
+      <c r="H215" t="n">
         <v>54.22833333333325</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8186,18 +9413,25 @@
         <v>1576</v>
       </c>
       <c r="G216" t="n">
+        <v>54.88000000000002</v>
+      </c>
+      <c r="H216" t="n">
         <v>54.26333333333325</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8221,18 +9455,25 @@
         <v>3346.3326</v>
       </c>
       <c r="G217" t="n">
+        <v>54.88000000000002</v>
+      </c>
+      <c r="H217" t="n">
         <v>54.29499999999992</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8256,18 +9497,25 @@
         <v>29137.2987</v>
       </c>
       <c r="G218" t="n">
+        <v>54.90666666666668</v>
+      </c>
+      <c r="H218" t="n">
         <v>54.33499999999992</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8291,18 +9539,25 @@
         <v>2716.9649</v>
       </c>
       <c r="G219" t="n">
+        <v>54.94666666666669</v>
+      </c>
+      <c r="H219" t="n">
         <v>54.37833333333325</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8326,18 +9581,25 @@
         <v>71478.95849999999</v>
       </c>
       <c r="G220" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="H220" t="n">
         <v>54.42499999999993</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8361,18 +9623,25 @@
         <v>102822.95417701</v>
       </c>
       <c r="G221" t="n">
+        <v>55.07333333333335</v>
+      </c>
+      <c r="H221" t="n">
         <v>54.47166666666659</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8396,20 +9665,25 @@
         <v>2280.9137</v>
       </c>
       <c r="G222" t="n">
+        <v>55.12666666666669</v>
+      </c>
+      <c r="H222" t="n">
         <v>54.51333333333325</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8431,18 +9705,21 @@
         <v>560.1253</v>
       </c>
       <c r="G223" t="n">
+        <v>55.18000000000003</v>
+      </c>
+      <c r="H223" t="n">
         <v>54.55666666666659</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8466,18 +9743,21 @@
         <v>13532.226</v>
       </c>
       <c r="G224" t="n">
+        <v>55.18666666666669</v>
+      </c>
+      <c r="H224" t="n">
         <v>54.57333333333325</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8501,18 +9781,21 @@
         <v>1932.1351</v>
       </c>
       <c r="G225" t="n">
+        <v>55.22000000000002</v>
+      </c>
+      <c r="H225" t="n">
         <v>54.59666666666659</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8536,18 +9819,21 @@
         <v>1810</v>
       </c>
       <c r="G226" t="n">
+        <v>55.22666666666668</v>
+      </c>
+      <c r="H226" t="n">
         <v>54.61833333333325</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8571,18 +9857,21 @@
         <v>1990</v>
       </c>
       <c r="G227" t="n">
+        <v>55.28000000000001</v>
+      </c>
+      <c r="H227" t="n">
         <v>54.63999999999992</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8606,18 +9895,21 @@
         <v>593.3489</v>
       </c>
       <c r="G228" t="n">
+        <v>55.36666666666667</v>
+      </c>
+      <c r="H228" t="n">
         <v>54.66333333333326</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8641,18 +9933,21 @@
         <v>11859.322</v>
       </c>
       <c r="G229" t="n">
+        <v>55.46666666666668</v>
+      </c>
+      <c r="H229" t="n">
         <v>54.69166666666659</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8676,18 +9971,21 @@
         <v>1000</v>
       </c>
       <c r="G230" t="n">
+        <v>55.55333333333333</v>
+      </c>
+      <c r="H230" t="n">
         <v>54.71666666666659</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8711,18 +10009,21 @@
         <v>71143.2083</v>
       </c>
       <c r="G231" t="n">
+        <v>55.60000000000001</v>
+      </c>
+      <c r="H231" t="n">
         <v>54.74166666666659</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8746,18 +10047,21 @@
         <v>7998.0788</v>
       </c>
       <c r="G232" t="n">
+        <v>55.65333333333334</v>
+      </c>
+      <c r="H232" t="n">
         <v>54.76999999999993</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8781,18 +10085,21 @@
         <v>1.9212</v>
       </c>
       <c r="G233" t="n">
+        <v>55.67333333333333</v>
+      </c>
+      <c r="H233" t="n">
         <v>54.79833333333327</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8816,18 +10123,21 @@
         <v>571.5181</v>
       </c>
       <c r="G234" t="n">
+        <v>55.63333333333333</v>
+      </c>
+      <c r="H234" t="n">
         <v>54.81499999999993</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8851,18 +10161,21 @@
         <v>998.1783</v>
       </c>
       <c r="G235" t="n">
+        <v>55.57333333333334</v>
+      </c>
+      <c r="H235" t="n">
         <v>54.8316666666666</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8886,18 +10199,21 @@
         <v>653.0698</v>
       </c>
       <c r="G236" t="n">
+        <v>55.55333333333333</v>
+      </c>
+      <c r="H236" t="n">
         <v>54.8666666666666</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8921,18 +10237,21 @@
         <v>10725.5015</v>
       </c>
       <c r="G237" t="n">
+        <v>55.48666666666666</v>
+      </c>
+      <c r="H237" t="n">
         <v>54.88333333333328</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8956,18 +10275,21 @@
         <v>665.9999</v>
       </c>
       <c r="G238" t="n">
+        <v>55.41999999999999</v>
+      </c>
+      <c r="H238" t="n">
         <v>54.90333333333327</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8991,18 +10313,21 @@
         <v>48951.6033</v>
       </c>
       <c r="G239" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="H239" t="n">
         <v>54.91999999999994</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9026,18 +10351,21 @@
         <v>12002.1235</v>
       </c>
       <c r="G240" t="n">
+        <v>55.36666666666667</v>
+      </c>
+      <c r="H240" t="n">
         <v>54.93499999999994</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9061,18 +10389,21 @@
         <v>16750.1639</v>
       </c>
       <c r="G241" t="n">
+        <v>55.34</v>
+      </c>
+      <c r="H241" t="n">
         <v>54.94833333333327</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9096,18 +10427,21 @@
         <v>2973.5568</v>
       </c>
       <c r="G242" t="n">
+        <v>55.31333333333334</v>
+      </c>
+      <c r="H242" t="n">
         <v>54.96166666666661</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9131,18 +10465,21 @@
         <v>73.6563</v>
       </c>
       <c r="G243" t="n">
+        <v>55.28</v>
+      </c>
+      <c r="H243" t="n">
         <v>54.97499999999994</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9166,18 +10503,21 @@
         <v>726.3437</v>
       </c>
       <c r="G244" t="n">
+        <v>55.22666666666667</v>
+      </c>
+      <c r="H244" t="n">
         <v>54.98666666666661</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9201,18 +10541,21 @@
         <v>10956.946</v>
       </c>
       <c r="G245" t="n">
+        <v>55.19333333333334</v>
+      </c>
+      <c r="H245" t="n">
         <v>54.99999999999996</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9236,18 +10579,21 @@
         <v>6669.0438</v>
       </c>
       <c r="G246" t="n">
+        <v>55.13999999999999</v>
+      </c>
+      <c r="H246" t="n">
         <v>55.01166666666663</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9271,18 +10617,21 @@
         <v>13146.5638</v>
       </c>
       <c r="G247" t="n">
+        <v>55.07333333333333</v>
+      </c>
+      <c r="H247" t="n">
         <v>55.0233333333333</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9306,18 +10655,21 @@
         <v>13584.6151</v>
       </c>
       <c r="G248" t="n">
+        <v>55.03333333333333</v>
+      </c>
+      <c r="H248" t="n">
         <v>55.04166666666663</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9341,18 +10693,21 @@
         <v>2043.9999</v>
       </c>
       <c r="G249" t="n">
+        <v>55.02</v>
+      </c>
+      <c r="H249" t="n">
         <v>55.05499999999996</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9376,18 +10731,21 @@
         <v>5211.7848</v>
       </c>
       <c r="G250" t="n">
+        <v>54.99999999999999</v>
+      </c>
+      <c r="H250" t="n">
         <v>55.0633333333333</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9411,18 +10769,21 @@
         <v>416.8302</v>
       </c>
       <c r="G251" t="n">
+        <v>54.93333333333332</v>
+      </c>
+      <c r="H251" t="n">
         <v>55.07166666666663</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9446,18 +10807,21 @@
         <v>2929.9999</v>
       </c>
       <c r="G252" t="n">
+        <v>54.91999999999999</v>
+      </c>
+      <c r="H252" t="n">
         <v>55.0833333333333</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9481,18 +10845,21 @@
         <v>6842.2413</v>
       </c>
       <c r="G253" t="n">
+        <v>54.89999999999998</v>
+      </c>
+      <c r="H253" t="n">
         <v>55.09666666666664</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9516,18 +10883,21 @@
         <v>90</v>
       </c>
       <c r="G254" t="n">
+        <v>54.93333333333332</v>
+      </c>
+      <c r="H254" t="n">
         <v>55.11166666666664</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9551,18 +10921,21 @@
         <v>3300</v>
       </c>
       <c r="G255" t="n">
+        <v>54.92666666666665</v>
+      </c>
+      <c r="H255" t="n">
         <v>55.11833333333331</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9586,18 +10959,21 @@
         <v>12033.7879</v>
       </c>
       <c r="G256" t="n">
+        <v>54.92666666666665</v>
+      </c>
+      <c r="H256" t="n">
         <v>55.12499999999998</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9621,18 +10997,21 @@
         <v>35136.9124</v>
       </c>
       <c r="G257" t="n">
+        <v>54.90666666666665</v>
+      </c>
+      <c r="H257" t="n">
         <v>55.12666666666664</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9656,18 +11035,21 @@
         <v>601.3367</v>
       </c>
       <c r="G258" t="n">
+        <v>54.87999999999999</v>
+      </c>
+      <c r="H258" t="n">
         <v>55.12333333333331</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9691,18 +11073,21 @@
         <v>4002</v>
       </c>
       <c r="G259" t="n">
+        <v>54.87999999999999</v>
+      </c>
+      <c r="H259" t="n">
         <v>55.12666666666665</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9726,18 +11111,21 @@
         <v>100</v>
       </c>
       <c r="G260" t="n">
+        <v>54.87333333333332</v>
+      </c>
+      <c r="H260" t="n">
         <v>55.12666666666665</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9761,18 +11149,21 @@
         <v>18874.2983</v>
       </c>
       <c r="G261" t="n">
+        <v>54.87333333333332</v>
+      </c>
+      <c r="H261" t="n">
         <v>55.12333333333332</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9796,18 +11187,21 @@
         <v>335.3405</v>
       </c>
       <c r="G262" t="n">
+        <v>54.87333333333332</v>
+      </c>
+      <c r="H262" t="n">
         <v>55.11999999999999</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9831,18 +11225,21 @@
         <v>400</v>
       </c>
       <c r="G263" t="n">
+        <v>54.85333333333332</v>
+      </c>
+      <c r="H263" t="n">
         <v>55.11666666666666</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9866,18 +11263,21 @@
         <v>707.2568</v>
       </c>
       <c r="G264" t="n">
+        <v>54.84666666666665</v>
+      </c>
+      <c r="H264" t="n">
         <v>55.11166666666666</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9901,18 +11301,21 @@
         <v>1053.1421</v>
       </c>
       <c r="G265" t="n">
+        <v>54.85333333333332</v>
+      </c>
+      <c r="H265" t="n">
         <v>55.10666666666667</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9936,18 +11339,21 @@
         <v>671.9381</v>
       </c>
       <c r="G266" t="n">
+        <v>54.88666666666665</v>
+      </c>
+      <c r="H266" t="n">
         <v>55.11166666666667</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9971,18 +11377,21 @@
         <v>18087.2743</v>
       </c>
       <c r="G267" t="n">
+        <v>54.91999999999998</v>
+      </c>
+      <c r="H267" t="n">
         <v>55.11333333333334</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10006,18 +11415,21 @@
         <v>59499.4955</v>
       </c>
       <c r="G268" t="n">
+        <v>54.95999999999999</v>
+      </c>
+      <c r="H268" t="n">
         <v>55.115</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10041,18 +11453,21 @@
         <v>135.3829</v>
       </c>
       <c r="G269" t="n">
+        <v>54.95999999999999</v>
+      </c>
+      <c r="H269" t="n">
         <v>55.12</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10076,18 +11491,21 @@
         <v>1463.4047</v>
       </c>
       <c r="G270" t="n">
+        <v>54.99999999999999</v>
+      </c>
+      <c r="H270" t="n">
         <v>55.12833333333334</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10111,18 +11529,21 @@
         <v>1385.388</v>
       </c>
       <c r="G271" t="n">
+        <v>55.03999999999998</v>
+      </c>
+      <c r="H271" t="n">
         <v>55.13333333333334</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10146,18 +11567,21 @@
         <v>4788.7145</v>
       </c>
       <c r="G272" t="n">
+        <v>55.07999999999999</v>
+      </c>
+      <c r="H272" t="n">
         <v>55.145</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10181,18 +11605,401 @@
         <v>2663.5713</v>
       </c>
       <c r="G273" t="n">
+        <v>55.12666666666666</v>
+      </c>
+      <c r="H273" t="n">
         <v>55.16333333333333</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C274" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D274" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E274" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F274" t="n">
+        <v>4811.7178</v>
+      </c>
+      <c r="G274" t="n">
+        <v>55.15333333333333</v>
+      </c>
+      <c r="H274" t="n">
+        <v>55.18166666666666</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>55</v>
+      </c>
+      <c r="D275" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E275" t="n">
+        <v>55</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G275" t="n">
+        <v>55.16666666666666</v>
+      </c>
+      <c r="H275" t="n">
+        <v>55.19666666666667</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>55</v>
+      </c>
+      <c r="C276" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D276" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E276" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="F276" t="n">
+        <v>27001.2821</v>
+      </c>
+      <c r="G276" t="n">
+        <v>55.21333333333334</v>
+      </c>
+      <c r="H276" t="n">
+        <v>55.20666666666667</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="C277" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="D277" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="E277" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="F277" t="n">
+        <v>34007.5191</v>
+      </c>
+      <c r="G277" t="n">
+        <v>55.19333333333334</v>
+      </c>
+      <c r="H277" t="n">
+        <v>55.19833333333334</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="C278" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="D278" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="E278" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="F278" t="n">
+        <v>2637.18411552</v>
+      </c>
+      <c r="G278" t="n">
+        <v>55.22666666666667</v>
+      </c>
+      <c r="H278" t="n">
+        <v>55.19666666666667</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="C279" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D279" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="E279" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="F279" t="n">
+        <v>10</v>
+      </c>
+      <c r="G279" t="n">
+        <v>55.25333333333334</v>
+      </c>
+      <c r="H279" t="n">
+        <v>55.18833333333334</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="C280" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="D280" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="E280" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="F280" t="n">
+        <v>834</v>
+      </c>
+      <c r="G280" t="n">
+        <v>55.22666666666668</v>
+      </c>
+      <c r="H280" t="n">
+        <v>55.16333333333333</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="C281" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D281" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="E281" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F281" t="n">
+        <v>9727.554</v>
+      </c>
+      <c r="G281" t="n">
+        <v>55.18000000000002</v>
+      </c>
+      <c r="H281" t="n">
+        <v>55.13833333333334</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C282" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D282" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E282" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F282" t="n">
+        <v>6001.9999</v>
+      </c>
+      <c r="G282" t="n">
+        <v>55.12666666666669</v>
+      </c>
+      <c r="H282" t="n">
+        <v>55.11333333333334</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C283" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="D283" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="E283" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="F283" t="n">
+        <v>5027.275</v>
+      </c>
+      <c r="G283" t="n">
+        <v>55.06666666666669</v>
+      </c>
+      <c r="H283" t="n">
+        <v>55.08666666666667</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-28 BackTest POWR.xlsx
+++ b/BackTest/2019-10-28 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N341"/>
+  <dimension ref="A1:M341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>191092.08482113</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>192566.08482113</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>50.8</v>
       </c>
       <c r="J3" t="n">
         <v>50.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>193566.08482113</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J4" t="n">
-        <v>51</v>
-      </c>
-      <c r="K4" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>50.8</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>190704.47682113</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="J5" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>50.8</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,18 +603,23 @@
         <v>178504.35332113</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>52.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -656,18 +644,23 @@
         <v>178517.35332113</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>51.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,18 +685,23 @@
         <v>178517.35332113</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>51.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -728,18 +726,23 @@
         <v>2490473.35332113</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>51.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,18 +767,23 @@
         <v>147789.3132211301</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>51.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -800,18 +808,23 @@
         <v>1108329.85812113</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>51.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,18 +849,23 @@
         <v>1108329.85812113</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>51.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -872,18 +890,23 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>51.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -908,18 +931,23 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>51.9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -944,18 +972,23 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>51.9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -980,18 +1013,23 @@
         <v>5641037.72662113</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>51.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1018,16 +1056,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1054,16 +1095,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1090,16 +1134,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1126,16 +1173,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1162,16 +1212,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1198,16 +1251,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1234,16 +1290,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1270,16 +1329,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1306,16 +1368,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1342,16 +1407,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1376,18 +1444,23 @@
         <v>18752595.60772113</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,18 +1485,23 @@
         <v>26424312.39672113</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>52.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1448,18 +1526,23 @@
         <v>9903812.396721132</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>52.9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1486,16 +1569,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1522,16 +1608,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1558,16 +1647,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1594,16 +1686,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1630,16 +1725,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1666,16 +1764,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1702,16 +1803,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1738,16 +1842,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1774,16 +1881,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1810,16 +1920,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1846,16 +1959,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1882,16 +1998,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1918,16 +2037,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1954,16 +2076,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1990,16 +2115,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2026,16 +2154,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2062,16 +2193,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2098,16 +2232,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2134,16 +2271,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2170,16 +2310,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2206,16 +2349,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2242,16 +2388,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2278,16 +2427,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2314,16 +2466,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2350,16 +2505,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2386,16 +2544,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2422,16 +2583,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2458,16 +2622,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2494,16 +2661,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2530,16 +2700,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2566,16 +2739,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2602,16 +2778,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2638,16 +2817,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2674,16 +2856,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2710,16 +2895,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2746,16 +2934,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2782,16 +2973,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2818,16 +3012,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2854,16 +3051,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2890,16 +3090,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2926,16 +3129,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2962,16 +3168,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2998,16 +3207,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3034,16 +3246,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3070,16 +3285,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3106,16 +3324,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3142,16 +3363,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3178,16 +3402,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3214,16 +3441,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3250,16 +3480,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3286,16 +3519,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3322,16 +3558,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3358,16 +3597,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3394,16 +3636,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3430,16 +3675,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3466,16 +3714,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3502,16 +3753,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3538,16 +3792,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3574,16 +3831,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3610,16 +3870,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3646,16 +3909,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3682,16 +3948,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3718,16 +3987,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3754,16 +4026,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3790,16 +4065,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3826,16 +4104,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3862,16 +4143,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3898,16 +4182,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3934,16 +4221,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3970,16 +4260,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4006,16 +4299,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4042,16 +4338,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4078,16 +4377,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4114,16 +4416,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4150,16 +4455,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4186,16 +4494,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4222,16 +4533,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4258,16 +4572,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4294,16 +4611,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4330,16 +4650,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4366,16 +4689,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4402,16 +4728,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4438,16 +4767,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4474,16 +4806,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4510,16 +4845,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4546,16 +4884,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4582,16 +4923,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4618,16 +4962,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4654,16 +5001,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4690,16 +5040,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4726,16 +5079,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4762,16 +5118,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4798,16 +5157,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4834,16 +5196,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4870,16 +5235,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4906,16 +5274,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4942,16 +5313,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4978,16 +5352,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5014,16 +5391,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5050,16 +5430,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5086,16 +5469,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5122,16 +5508,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5158,16 +5547,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5194,16 +5586,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5230,16 +5625,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5266,16 +5664,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5302,16 +5703,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5338,16 +5742,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5374,16 +5781,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5410,16 +5820,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5446,16 +5859,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5482,16 +5898,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5518,16 +5937,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5554,16 +5976,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5590,16 +6015,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5626,16 +6054,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5662,16 +6093,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5698,16 +6132,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5734,16 +6171,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5770,16 +6210,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5806,16 +6249,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5842,16 +6288,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5878,16 +6327,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5914,16 +6366,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5950,16 +6405,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5986,16 +6444,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6022,16 +6483,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6058,16 +6522,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6094,16 +6561,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6130,16 +6600,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6166,16 +6639,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6202,16 +6678,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6238,16 +6717,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6274,16 +6756,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6310,16 +6795,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6346,16 +6834,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6382,16 +6873,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6418,16 +6912,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6454,16 +6951,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6490,16 +6990,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6526,16 +7029,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6562,16 +7068,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6598,16 +7107,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6634,16 +7146,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6670,16 +7185,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6706,16 +7224,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6742,16 +7263,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6778,16 +7302,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6814,16 +7341,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6850,16 +7380,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6886,16 +7419,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6922,16 +7458,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6958,16 +7497,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6994,16 +7536,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7030,16 +7575,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7066,16 +7614,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7102,16 +7653,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7138,16 +7692,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7174,16 +7731,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7210,16 +7770,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7246,16 +7809,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7282,16 +7848,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7318,16 +7887,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7354,16 +7926,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7390,16 +7965,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7426,16 +8004,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7462,16 +8043,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7498,16 +8082,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7534,16 +8121,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7570,16 +8160,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7606,16 +8199,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7642,16 +8238,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7678,16 +8277,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7714,16 +8316,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7750,16 +8355,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7786,16 +8394,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7822,16 +8433,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7858,16 +8472,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7894,16 +8511,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7930,16 +8550,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7966,16 +8589,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8002,16 +8628,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8038,16 +8667,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8074,16 +8706,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8110,16 +8745,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8146,16 +8784,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8182,16 +8823,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8218,16 +8862,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8254,16 +8901,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8290,16 +8940,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8326,16 +8979,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8362,16 +9018,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8398,16 +9057,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8434,16 +9096,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8470,16 +9135,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8506,16 +9174,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8542,16 +9213,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8578,16 +9252,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8614,16 +9291,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8650,16 +9330,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8686,16 +9369,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8722,16 +9408,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8758,16 +9447,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8794,16 +9486,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8830,16 +9525,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8866,16 +9564,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8902,16 +9603,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8938,16 +9642,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8974,16 +9681,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9010,16 +9720,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9046,16 +9759,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9082,16 +9798,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9116,18 +9835,23 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1.05996062992126</v>
+      </c>
       <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+        <v>1.033464566929134</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9154,16 +9878,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9190,16 +9911,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9226,16 +9944,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9262,16 +9977,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9298,16 +10010,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9334,16 +10043,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9370,16 +10076,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9406,16 +10109,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9442,16 +10142,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9478,16 +10175,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9514,16 +10208,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9550,16 +10241,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>1</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9586,16 +10274,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>1</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9620,18 +10305,15 @@
         <v>65112319.17281473</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9656,18 +10338,15 @@
         <v>65110683.57441473</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9694,16 +10373,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>1</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9730,16 +10406,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>1</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9766,16 +10439,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>1</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9802,16 +10472,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>1</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9838,16 +10505,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9874,16 +10538,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>1</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9908,18 +10569,15 @@
         <v>65157513.81522673</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9944,18 +10602,15 @@
         <v>65157523.81522673</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9980,18 +10635,15 @@
         <v>65194975.48192672</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10016,18 +10668,15 @@
         <v>65194185.48202673</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10052,18 +10701,15 @@
         <v>65175413.48202673</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10088,18 +10734,15 @@
         <v>65176650.48202673</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10124,18 +10767,15 @@
         <v>65162450.48202673</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10160,18 +10800,15 @@
         <v>65161050.48202673</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10198,16 +10835,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10234,16 +10868,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10270,16 +10901,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10306,16 +10934,13 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10342,16 +10967,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>1</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10378,16 +11000,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10412,18 +11031,15 @@
         <v>65269306.03672672</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10448,18 +11064,15 @@
         <v>65372128.99090373</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10484,18 +11097,15 @@
         <v>65372128.99090373</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10520,18 +11130,15 @@
         <v>65372689.11620373</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10556,18 +11163,15 @@
         <v>65359156.89020372</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10592,18 +11196,15 @@
         <v>65361089.02530372</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10630,16 +11231,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>1</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10666,16 +11264,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>1</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10702,16 +11297,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>1</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10738,16 +11330,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>1</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10774,16 +11363,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>1</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10810,16 +11396,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>1</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10846,16 +11429,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>1</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10882,16 +11462,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>1</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10918,16 +11495,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>1</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10954,16 +11528,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>1</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10990,16 +11561,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>1</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11026,16 +11594,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>1</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11062,16 +11627,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>1</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11098,16 +11660,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>1</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11134,16 +11693,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>1</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11170,16 +11726,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>1</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11206,16 +11759,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>1</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11242,16 +11792,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11278,16 +11825,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11312,18 +11856,15 @@
         <v>65384423.86850371</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11350,16 +11891,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11386,16 +11924,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11422,16 +11957,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11456,18 +11988,15 @@
         <v>65389295.43990371</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11492,18 +12021,15 @@
         <v>65384083.65510371</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11528,18 +12054,15 @@
         <v>65384083.65510371</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11566,16 +12089,13 @@
       <c r="H310" t="n">
         <v>0</v>
       </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11600,18 +12120,15 @@
         <v>65387013.65500371</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11636,18 +12153,15 @@
         <v>65387103.65500371</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11672,18 +12186,15 @@
         <v>65383803.65500371</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11710,16 +12221,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11744,18 +12252,15 @@
         <v>65348666.74260371</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11780,18 +12285,15 @@
         <v>65348065.40590371</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11816,18 +12318,15 @@
         <v>65352067.40590371</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11852,18 +12351,15 @@
         <v>65352067.40590371</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11888,18 +12384,15 @@
         <v>65352067.40590371</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11924,18 +12417,15 @@
         <v>65352067.40590371</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11960,18 +12450,15 @@
         <v>65352467.40590371</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11998,16 +12485,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12034,16 +12518,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12070,16 +12551,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12106,16 +12584,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12142,16 +12617,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12178,16 +12650,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12214,16 +12683,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12250,16 +12716,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12286,16 +12749,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12322,16 +12782,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12358,16 +12815,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12394,16 +12848,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12430,16 +12881,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12466,16 +12914,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12502,16 +12947,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12538,16 +12980,13 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12574,16 +13013,13 @@
       <c r="H338" t="n">
         <v>0</v>
       </c>
-      <c r="I338" t="n">
-        <v>0</v>
-      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
-      <c r="M338" t="n">
-        <v>1</v>
-      </c>
-      <c r="N338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12610,16 +13046,13 @@
       <c r="H339" t="n">
         <v>0</v>
       </c>
-      <c r="I339" t="n">
-        <v>0</v>
-      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
-      <c r="M339" t="n">
-        <v>1</v>
-      </c>
-      <c r="N339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -12646,16 +13079,13 @@
       <c r="H340" t="n">
         <v>0</v>
       </c>
-      <c r="I340" t="n">
-        <v>0</v>
-      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
-      <c r="M340" t="n">
-        <v>1</v>
-      </c>
-      <c r="N340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -12682,18 +13112,15 @@
       <c r="H341" t="n">
         <v>0</v>
       </c>
-      <c r="I341" t="n">
-        <v>0</v>
-      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
-      <c r="M341" t="n">
-        <v>1</v>
-      </c>
-      <c r="N341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest POWR.xlsx
+++ b/BackTest/2019-10-28 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>191092.08482113</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>192566.08482113</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>50.8</v>
@@ -521,7 +521,7 @@
         <v>193566.08482113</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>51</v>
@@ -562,7 +562,7 @@
         <v>190704.47682113</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>52.5</v>
@@ -603,7 +603,7 @@
         <v>178504.35332113</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>52.3</v>
@@ -644,7 +644,7 @@
         <v>178517.35332113</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>51.5</v>
@@ -685,7 +685,7 @@
         <v>178517.35332113</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>51.6</v>
@@ -726,7 +726,7 @@
         <v>2490473.35332113</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>51.6</v>
@@ -767,7 +767,7 @@
         <v>147789.3132211301</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>51.8</v>
@@ -808,7 +808,7 @@
         <v>1108329.85812113</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>51.6</v>
@@ -849,7 +849,7 @@
         <v>1108329.85812113</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>51.8</v>
@@ -890,7 +890,7 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>51.8</v>
@@ -931,7 +931,7 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>51.9</v>
@@ -972,7 +972,7 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>51.9</v>
@@ -1013,7 +1013,7 @@
         <v>5641037.72662113</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>51.9</v>
@@ -1054,9 +1054,11 @@
         <v>5641037.72662113</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>52</v>
+      </c>
       <c r="J17" t="n">
         <v>50.8</v>
       </c>
@@ -1093,9 +1095,11 @@
         <v>5641037.72662113</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>52</v>
+      </c>
       <c r="J18" t="n">
         <v>50.8</v>
       </c>
@@ -1132,9 +1136,11 @@
         <v>5949173.72662113</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>52</v>
+      </c>
       <c r="J19" t="n">
         <v>50.8</v>
       </c>
@@ -1171,9 +1177,11 @@
         <v>6947798.68402113</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>52.2</v>
+      </c>
       <c r="J20" t="n">
         <v>50.8</v>
       </c>
@@ -1210,9 +1218,11 @@
         <v>15015632.58482113</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>52.3</v>
+      </c>
       <c r="J21" t="n">
         <v>50.8</v>
       </c>
@@ -1366,9 +1376,11 @@
         <v>24975653.58482113</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>52.5</v>
+      </c>
       <c r="J25" t="n">
         <v>50.8</v>
       </c>
@@ -1405,9 +1417,11 @@
         <v>25016296.79932113</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>52.6</v>
+      </c>
       <c r="J26" t="n">
         <v>50.8</v>
       </c>
@@ -1444,7 +1458,7 @@
         <v>18752595.60772113</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>52.9</v>
@@ -1485,7 +1499,7 @@
         <v>26424312.39672113</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>52.8</v>
@@ -1526,7 +1540,7 @@
         <v>9903812.396721132</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>52.9</v>
@@ -9835,7 +9849,7 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
@@ -9843,15 +9857,13 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L242" t="n">
-        <v>1.05996062992126</v>
-      </c>
-      <c r="M242" t="n">
-        <v>1.033464566929134</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9879,8 +9891,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9912,8 +9930,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9945,8 +9969,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9978,8 +10008,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10011,8 +10047,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10044,8 +10086,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10077,8 +10125,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10110,8 +10164,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10143,8 +10203,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10176,8 +10242,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10209,8 +10281,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10242,8 +10320,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10275,8 +10359,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10305,11 +10395,17 @@
         <v>65112319.17281473</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10338,11 +10434,17 @@
         <v>65110683.57441473</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10374,8 +10476,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10407,8 +10515,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10440,8 +10554,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10473,8 +10593,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10506,8 +10632,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10539,8 +10671,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10569,11 +10707,17 @@
         <v>65157513.81522673</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10602,11 +10746,17 @@
         <v>65157523.81522673</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10635,11 +10785,17 @@
         <v>65194975.48192672</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10668,11 +10824,17 @@
         <v>65194185.48202673</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10701,11 +10863,17 @@
         <v>65175413.48202673</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10734,11 +10902,17 @@
         <v>65176650.48202673</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10767,11 +10941,17 @@
         <v>65162450.48202673</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10800,11 +10980,17 @@
         <v>65161050.48202673</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10836,8 +11022,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10866,15 +11058,23 @@
         <v>65161050.48202673</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+        <v>1.05996062992126</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1.033464566929134</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10899,7 +11099,7 @@
         <v>65162626.48202673</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10932,7 +11132,7 @@
         <v>65165972.81462672</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10965,7 +11165,7 @@
         <v>65195110.11332672</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10998,7 +11198,7 @@
         <v>65197827.07822672</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11031,7 +11231,7 @@
         <v>65269306.03672672</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11064,7 +11264,7 @@
         <v>65372128.99090373</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11097,7 +11297,7 @@
         <v>65372128.99090373</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11130,7 +11330,7 @@
         <v>65372689.11620373</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11163,7 +11363,7 @@
         <v>65359156.89020372</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11196,7 +11396,7 @@
         <v>65361089.02530372</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11427,7 +11627,7 @@
         <v>65449872.98330372</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11493,7 +11693,7 @@
         <v>65449301.46520372</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11526,7 +11726,7 @@
         <v>65449301.46520372</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11559,7 +11759,7 @@
         <v>65449954.53500371</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11658,7 +11858,7 @@
         <v>65390943.43010371</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11691,7 +11891,7 @@
         <v>65390943.43010371</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11724,7 +11924,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11757,7 +11957,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11790,7 +11990,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11823,7 +12023,7 @@
         <v>65373466.92250371</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11856,7 +12056,7 @@
         <v>65384423.86850371</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11889,7 +12089,7 @@
         <v>65377754.82470372</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11922,7 +12122,7 @@
         <v>65377754.82470372</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11955,7 +12155,7 @@
         <v>65391339.43980371</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11988,7 +12188,7 @@
         <v>65389295.43990371</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12021,7 +12221,7 @@
         <v>65384083.65510371</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12054,7 +12254,7 @@
         <v>65384083.65510371</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12120,7 +12320,7 @@
         <v>65387013.65500371</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12153,7 +12353,7 @@
         <v>65387103.65500371</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12186,7 +12386,7 @@
         <v>65383803.65500371</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12252,7 +12452,7 @@
         <v>65348666.74260371</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12285,7 +12485,7 @@
         <v>65348065.40590371</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12318,7 +12518,7 @@
         <v>65352067.40590371</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12351,7 +12551,7 @@
         <v>65352067.40590371</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12384,7 +12584,7 @@
         <v>65352067.40590371</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12417,7 +12617,7 @@
         <v>65352067.40590371</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12450,7 +12650,7 @@
         <v>65352467.40590371</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12747,7 +12947,7 @@
         <v>65426283.28460371</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12780,7 +12980,7 @@
         <v>65426283.28460371</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12813,7 +13013,7 @@
         <v>65426283.28460371</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12846,7 +13046,7 @@
         <v>65424083.28460371</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12879,7 +13079,7 @@
         <v>65451084.56670371</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12912,7 +13112,7 @@
         <v>65417077.0476037</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12945,7 +13145,7 @@
         <v>65419714.23171923</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12978,7 +13178,7 @@
         <v>65419704.23171923</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13011,7 +13211,7 @@
         <v>65418870.23171923</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13044,7 +13244,7 @@
         <v>65428597.78571922</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13077,7 +13277,7 @@
         <v>65428597.78571922</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13121,6 +13321,6 @@
       <c r="M341" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest POWR.xlsx
+++ b/BackTest/2019-10-28 BackTest POWR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -562,11 +562,9 @@
         <v>190704.47682113</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>50.8</v>
       </c>
@@ -603,19 +601,11 @@
         <v>178504.35332113</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +634,11 @@
         <v>178517.35332113</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>51.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +667,11 @@
         <v>178517.35332113</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +700,11 @@
         <v>2490473.35332113</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +733,11 @@
         <v>147789.3132211301</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +766,11 @@
         <v>1108329.85812113</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +799,11 @@
         <v>1108329.85812113</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +832,11 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +865,11 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -972,19 +898,11 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1013,19 +931,11 @@
         <v>5641037.72662113</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1054,19 +964,11 @@
         <v>5641037.72662113</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>52</v>
-      </c>
-      <c r="J17" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1095,19 +997,11 @@
         <v>5641037.72662113</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>52</v>
-      </c>
-      <c r="J18" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1136,19 +1030,11 @@
         <v>5949173.72662113</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>52</v>
-      </c>
-      <c r="J19" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1177,19 +1063,11 @@
         <v>6947798.68402113</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1218,19 +1096,11 @@
         <v>15015632.58482113</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>52.3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1262,14 +1132,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1301,14 +1165,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1340,14 +1198,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1376,19 +1228,11 @@
         <v>24975653.58482113</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1417,19 +1261,11 @@
         <v>25016296.79932113</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>52.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1458,19 +1294,11 @@
         <v>18752595.60772113</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1499,19 +1327,11 @@
         <v>26424312.39672113</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>52.8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1540,19 +1360,11 @@
         <v>9903812.396721132</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="J29" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1581,17 +1393,11 @@
         <v>20140684.31612113</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1623,14 +1429,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1662,14 +1462,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1698,17 +1492,11 @@
         <v>14276756.23552113</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1737,17 +1525,11 @@
         <v>17968472.54792113</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1779,14 +1561,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1815,17 +1591,11 @@
         <v>17968472.54792113</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1854,17 +1624,11 @@
         <v>18102809.14652113</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1893,17 +1657,11 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1932,17 +1690,11 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1971,17 +1723,11 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2010,17 +1756,11 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2049,17 +1789,11 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2088,17 +1822,11 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2127,17 +1855,11 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2166,17 +1888,11 @@
         <v>2102809.146521129</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2208,14 +1924,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2247,14 +1957,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2286,14 +1990,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2325,14 +2023,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2364,14 +2056,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2403,14 +2089,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2442,14 +2122,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2481,14 +2155,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2520,14 +2188,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2559,14 +2221,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2598,14 +2254,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2634,17 +2284,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2673,17 +2317,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2712,17 +2350,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2751,17 +2383,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2790,17 +2416,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2829,17 +2449,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2868,17 +2482,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2907,17 +2515,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2946,17 +2548,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2985,17 +2581,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3024,17 +2614,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3063,17 +2647,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3102,17 +2680,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3141,17 +2713,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3180,17 +2746,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3219,17 +2779,11 @@
         <v>48783734.917</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3261,14 +2815,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3300,14 +2848,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3339,14 +2881,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3378,14 +2914,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3417,14 +2947,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3456,14 +2980,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3495,14 +3013,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3534,14 +3046,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3573,14 +3079,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3612,14 +3112,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3651,14 +3145,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3690,14 +3178,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3729,14 +3211,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3768,14 +3244,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3807,14 +3277,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3846,14 +3310,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3885,14 +3343,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3924,14 +3376,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3963,14 +3409,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4002,14 +3442,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4041,14 +3475,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4080,14 +3508,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4119,14 +3541,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4158,14 +3574,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4197,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4236,14 +3640,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4275,14 +3673,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4314,14 +3706,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4353,14 +3739,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4392,14 +3772,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4431,14 +3805,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4470,14 +3838,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4509,14 +3871,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4548,14 +3904,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4587,14 +3937,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4626,14 +3970,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4665,14 +4003,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4704,14 +4036,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4743,14 +4069,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4782,14 +4102,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4821,14 +4135,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4860,14 +4168,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4899,14 +4201,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4938,14 +4234,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4977,14 +4267,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5016,14 +4300,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5055,14 +4333,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5094,14 +4366,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5133,14 +4399,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5172,14 +4432,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5211,14 +4465,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5250,14 +4498,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5289,14 +4531,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5328,14 +4564,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5367,14 +4597,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5406,14 +4630,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5445,14 +4663,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5484,14 +4696,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5523,14 +4729,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5562,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5601,14 +4795,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5640,14 +4828,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5679,14 +4861,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5718,14 +4894,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5757,14 +4927,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5796,14 +4960,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5835,14 +4993,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5874,14 +5026,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5913,14 +5059,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5952,14 +5092,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5991,14 +5125,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6030,14 +5158,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6069,14 +5191,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6108,14 +5224,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6147,14 +5257,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6186,14 +5290,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6225,14 +5323,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6264,14 +5356,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6303,14 +5389,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6342,14 +5422,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6381,14 +5455,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6420,14 +5488,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6459,14 +5521,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6498,14 +5554,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6537,14 +5587,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6576,14 +5620,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6615,14 +5653,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6654,14 +5686,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6693,14 +5719,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6729,17 +5749,11 @@
         <v>65075334.12326171</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6768,17 +5782,11 @@
         <v>65074334.12326171</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6807,17 +5815,11 @@
         <v>65075826.97746171</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6846,17 +5848,11 @@
         <v>65077878.87026171</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6885,17 +5881,11 @@
         <v>65077878.87026171</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6924,17 +5914,11 @@
         <v>65077858.87026171</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6966,14 +5950,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7005,14 +5983,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7041,17 +6013,11 @@
         <v>65077040.62486171</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7083,14 +6049,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7122,14 +6082,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7161,14 +6115,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7200,14 +6148,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7239,14 +6181,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7278,14 +6214,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7317,14 +6247,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7356,14 +6280,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7395,14 +6313,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7434,14 +6346,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7473,14 +6379,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7512,14 +6412,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7551,14 +6445,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7590,14 +6478,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7629,14 +6511,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7668,14 +6544,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7707,14 +6577,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7746,14 +6610,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7785,14 +6643,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7824,14 +6676,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7863,14 +6709,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7902,14 +6742,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7941,14 +6775,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7980,14 +6808,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8019,14 +6841,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8058,14 +6874,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8097,14 +6907,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8136,14 +6940,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8175,14 +6973,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8214,14 +7006,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8253,14 +7039,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8292,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8331,14 +7105,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8370,14 +7138,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8409,14 +7171,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8448,14 +7204,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8487,14 +7237,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8526,14 +7270,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8565,14 +7303,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8604,14 +7336,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8643,14 +7369,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8682,14 +7402,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8721,14 +7435,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8760,14 +7468,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8799,14 +7501,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8838,14 +7534,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8877,14 +7567,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8916,14 +7600,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8955,14 +7633,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8991,17 +7663,11 @@
         <v>65114540.21526528</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9030,17 +7696,11 @@
         <v>65114540.21526528</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9069,17 +7729,11 @@
         <v>65157073.98806528</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9108,17 +7762,11 @@
         <v>65153383.95116528</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9147,17 +7795,11 @@
         <v>65098868.58126528</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9186,17 +7828,11 @@
         <v>65098868.58126528</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9225,17 +7861,11 @@
         <v>65098868.58126528</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9264,17 +7894,11 @@
         <v>65094558.08386528</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9303,17 +7927,11 @@
         <v>65094558.08386528</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9342,17 +7960,11 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9381,17 +7993,11 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9420,17 +8026,11 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9459,17 +8059,11 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9498,17 +8092,11 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9537,17 +8125,11 @@
         <v>65095583.62736528</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9576,17 +8158,11 @@
         <v>65102982.63286528</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9615,17 +8191,11 @@
         <v>65100745.93186528</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9654,17 +8224,11 @@
         <v>65100745.93186528</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9696,14 +8260,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9735,14 +8293,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9771,17 +8323,11 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9813,14 +8359,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9852,14 +8392,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9891,14 +8425,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9927,17 +8455,11 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9966,17 +8488,11 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10005,17 +8521,11 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10044,17 +8554,11 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10083,17 +8587,11 @@
         <v>65102568.93186528</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10125,14 +8623,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10161,17 +8653,11 @@
         <v>65098931.45786528</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10200,17 +8686,11 @@
         <v>65092906.65056528</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10239,17 +8719,11 @@
         <v>65093904.82891473</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10278,17 +8752,11 @@
         <v>65088011.21431473</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10320,14 +8788,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10359,14 +8821,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10398,14 +8854,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10437,14 +8887,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10476,14 +8920,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10515,14 +8953,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10554,14 +8986,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10593,14 +9019,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10632,14 +9052,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10671,14 +9085,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10710,14 +9118,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10749,14 +9151,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10788,14 +9184,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10827,14 +9217,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10866,14 +9250,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10905,14 +9283,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10944,14 +9316,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10983,14 +9349,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11022,14 +9382,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11058,23 +9412,15 @@
         <v>65161050.48202673</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
-        <v>1.05996062992126</v>
-      </c>
-      <c r="M273" t="n">
-        <v>1.033464566929134</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11099,7 +9445,7 @@
         <v>65162626.48202673</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -11132,7 +9478,7 @@
         <v>65165972.81462672</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11165,7 +9511,7 @@
         <v>65195110.11332672</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11198,7 +9544,7 @@
         <v>65197827.07822672</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11231,7 +9577,7 @@
         <v>65269306.03672672</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11297,7 +9643,7 @@
         <v>65372128.99090373</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11330,7 +9676,7 @@
         <v>65372689.11620373</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11627,7 +9973,7 @@
         <v>65449872.98330372</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11693,7 +10039,7 @@
         <v>65449301.46520372</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11726,7 +10072,7 @@
         <v>65449301.46520372</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11759,7 +10105,7 @@
         <v>65449954.53500371</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11858,7 +10204,7 @@
         <v>65390943.43010371</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11891,7 +10237,7 @@
         <v>65390943.43010371</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11924,7 +10270,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11957,7 +10303,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11990,7 +10336,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12023,7 +10369,7 @@
         <v>65373466.92250371</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12056,7 +10402,7 @@
         <v>65384423.86850371</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12089,7 +10435,7 @@
         <v>65377754.82470372</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12122,7 +10468,7 @@
         <v>65377754.82470372</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12155,7 +10501,7 @@
         <v>65391339.43980371</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12188,7 +10534,7 @@
         <v>65389295.43990371</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12947,7 +11293,7 @@
         <v>65426283.28460371</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12980,7 +11326,7 @@
         <v>65426283.28460371</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13013,7 +11359,7 @@
         <v>65426283.28460371</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13046,7 +11392,7 @@
         <v>65424083.28460371</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13079,7 +11425,7 @@
         <v>65451084.56670371</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13112,7 +11458,7 @@
         <v>65417077.0476037</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13145,7 +11491,7 @@
         <v>65419714.23171923</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13178,7 +11524,7 @@
         <v>65419704.23171923</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13211,7 +11557,7 @@
         <v>65418870.23171923</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13244,7 +11590,7 @@
         <v>65428597.78571922</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13277,7 +11623,7 @@
         <v>65428597.78571922</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13321,6 +11667,6 @@
       <c r="M341" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-28 BackTest POWR.xlsx
+++ b/BackTest/2019-10-28 BackTest POWR.xlsx
@@ -562,9 +562,11 @@
         <v>190704.47682113</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>52.5</v>
+      </c>
       <c r="J5" t="n">
         <v>50.8</v>
       </c>
@@ -601,11 +603,19 @@
         <v>178504.35332113</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -634,11 +644,19 @@
         <v>178517.35332113</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -667,11 +685,19 @@
         <v>178517.35332113</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -700,11 +726,19 @@
         <v>2490473.35332113</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -733,11 +767,19 @@
         <v>147789.3132211301</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -766,11 +808,19 @@
         <v>1108329.85812113</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -799,11 +849,19 @@
         <v>1108329.85812113</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -832,11 +890,19 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="J13" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -865,11 +931,19 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -898,11 +972,19 @@
         <v>5549037.72662113</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -931,11 +1013,19 @@
         <v>5641037.72662113</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -964,11 +1054,19 @@
         <v>5641037.72662113</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>52</v>
+      </c>
+      <c r="J17" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -997,11 +1095,19 @@
         <v>5641037.72662113</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>52</v>
+      </c>
+      <c r="J18" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1030,11 +1136,19 @@
         <v>5949173.72662113</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>52</v>
+      </c>
+      <c r="J19" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1066,8 +1180,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1099,8 +1219,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1132,8 +1258,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1165,8 +1297,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1198,8 +1336,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1231,8 +1375,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1264,8 +1414,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1297,8 +1453,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1327,11 +1489,17 @@
         <v>26424312.39672113</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1360,11 +1528,17 @@
         <v>9903812.396721132</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1393,11 +1567,17 @@
         <v>20140684.31612113</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1429,8 +1609,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1462,8 +1648,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1492,11 +1684,17 @@
         <v>14276756.23552113</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1525,11 +1723,17 @@
         <v>17968472.54792113</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1561,8 +1765,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1591,11 +1801,17 @@
         <v>17968472.54792113</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1624,11 +1840,17 @@
         <v>18102809.14652113</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1657,11 +1879,17 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1690,11 +1918,17 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1723,11 +1957,17 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1756,11 +1996,17 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1789,11 +2035,17 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1822,11 +2074,17 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1855,11 +2113,17 @@
         <v>-897190.8534788713</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1888,11 +2152,17 @@
         <v>2102809.146521129</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1924,8 +2194,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1957,8 +2233,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1990,8 +2272,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2023,8 +2311,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2056,8 +2350,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2089,8 +2389,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2122,8 +2428,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2155,8 +2467,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2188,8 +2506,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2221,8 +2545,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2254,8 +2584,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2284,11 +2620,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2317,11 +2659,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2350,11 +2698,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2383,11 +2737,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2416,11 +2776,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2449,11 +2815,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2482,11 +2854,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2515,11 +2893,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2548,11 +2932,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2581,11 +2971,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2614,11 +3010,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2647,11 +3049,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2680,11 +3088,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2713,11 +3127,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2746,11 +3166,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2779,11 +3205,17 @@
         <v>48783734.917</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2815,8 +3247,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2848,8 +3286,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2881,8 +3325,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2914,8 +3364,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2947,8 +3403,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2980,8 +3442,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3013,8 +3481,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3046,8 +3520,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3079,8 +3559,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3112,8 +3598,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3145,8 +3637,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3178,8 +3676,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3211,8 +3715,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3244,8 +3754,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3277,8 +3793,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3310,8 +3832,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3343,8 +3871,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3376,8 +3910,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3409,8 +3949,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3442,8 +3988,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3475,8 +4027,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3508,8 +4066,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3541,8 +4105,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3574,8 +4144,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3607,8 +4183,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3640,8 +4222,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3673,8 +4261,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3706,8 +4300,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3739,8 +4339,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3772,8 +4378,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3805,8 +4417,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3838,8 +4456,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3871,8 +4495,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3904,8 +4534,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3937,8 +4573,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3970,8 +4612,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4003,8 +4651,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4036,8 +4690,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4069,8 +4729,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4102,8 +4768,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4135,8 +4807,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4168,8 +4846,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4201,8 +4885,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4234,8 +4924,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4267,8 +4963,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4300,8 +5002,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4333,8 +5041,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4366,8 +5080,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4399,8 +5119,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4432,8 +5158,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4465,8 +5197,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4498,8 +5236,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4531,8 +5275,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4564,8 +5314,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4597,8 +5353,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4630,8 +5392,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4663,8 +5431,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4696,8 +5470,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4729,8 +5509,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4762,8 +5548,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4795,8 +5587,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4828,8 +5626,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4861,8 +5665,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4894,8 +5704,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4927,8 +5743,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4960,8 +5782,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4993,8 +5821,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5026,8 +5860,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5059,8 +5899,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5092,8 +5938,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5125,8 +5977,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5158,8 +6016,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5191,8 +6055,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5224,8 +6094,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5257,8 +6133,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5290,8 +6172,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5323,8 +6211,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5356,8 +6250,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5389,8 +6289,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5422,8 +6328,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5455,8 +6367,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5488,8 +6406,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5521,8 +6445,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5554,8 +6484,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5587,8 +6523,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5620,8 +6562,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5653,8 +6601,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5686,8 +6640,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5719,8 +6679,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5749,11 +6715,17 @@
         <v>65075334.12326171</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5782,11 +6754,17 @@
         <v>65074334.12326171</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5815,11 +6793,17 @@
         <v>65075826.97746171</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5848,11 +6832,17 @@
         <v>65077878.87026171</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5881,11 +6871,17 @@
         <v>65077878.87026171</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5914,11 +6910,17 @@
         <v>65077858.87026171</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5950,8 +6952,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5983,8 +6991,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6013,11 +7027,17 @@
         <v>65077040.62486171</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6049,8 +7069,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6082,8 +7108,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6115,8 +7147,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6148,8 +7186,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6181,8 +7225,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6214,8 +7264,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6247,8 +7303,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6280,8 +7342,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6313,8 +7381,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6346,8 +7420,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6379,8 +7459,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6412,8 +7498,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6445,8 +7537,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6478,8 +7576,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6511,8 +7615,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6544,8 +7654,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6577,8 +7693,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6610,8 +7732,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6643,8 +7771,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6676,8 +7810,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6709,8 +7849,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6742,8 +7888,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6775,8 +7927,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6808,8 +7966,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6841,8 +8005,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6874,8 +8044,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6907,8 +8083,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6940,8 +8122,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6973,8 +8161,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7006,8 +8200,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7039,8 +8239,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7072,8 +8278,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7105,8 +8317,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7138,8 +8356,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7171,8 +8395,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7204,8 +8434,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7237,8 +8473,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7270,8 +8512,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7303,8 +8551,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7336,8 +8590,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7369,8 +8629,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7402,8 +8668,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7435,8 +8707,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7468,8 +8746,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7501,8 +8785,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7534,8 +8824,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7567,8 +8863,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7600,8 +8902,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7633,8 +8941,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7663,11 +8977,17 @@
         <v>65114540.21526528</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7696,11 +9016,17 @@
         <v>65114540.21526528</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7729,11 +9055,17 @@
         <v>65157073.98806528</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7762,11 +9094,17 @@
         <v>65153383.95116528</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7795,11 +9133,17 @@
         <v>65098868.58126528</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7828,11 +9172,17 @@
         <v>65098868.58126528</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7861,11 +9211,17 @@
         <v>65098868.58126528</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7894,11 +9250,17 @@
         <v>65094558.08386528</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7927,11 +9289,17 @@
         <v>65094558.08386528</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7960,11 +9328,17 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7993,11 +9367,17 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8026,11 +9406,17 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8059,11 +9445,17 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8092,11 +9484,17 @@
         <v>65095640.08386528</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8125,11 +9523,17 @@
         <v>65095583.62736528</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8158,11 +9562,17 @@
         <v>65102982.63286528</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8191,11 +9601,17 @@
         <v>65100745.93186528</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8224,11 +9640,17 @@
         <v>65100745.93186528</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8260,8 +9682,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8293,8 +9721,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8323,11 +9757,17 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8359,8 +9799,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8392,8 +9838,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8425,8 +9877,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8455,11 +9913,17 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8488,11 +9952,17 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8521,11 +9991,17 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8554,11 +10030,17 @@
         <v>65101745.93186528</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8587,11 +10069,17 @@
         <v>65102568.93186528</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8623,8 +10111,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8653,11 +10147,17 @@
         <v>65098931.45786528</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8686,11 +10186,17 @@
         <v>65092906.65056528</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8719,11 +10225,17 @@
         <v>65093904.82891473</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8752,11 +10264,17 @@
         <v>65088011.21431473</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8788,8 +10306,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8821,8 +10345,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8854,8 +10384,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8887,8 +10423,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8920,8 +10462,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8953,8 +10501,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8986,8 +10540,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9019,8 +10579,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9052,8 +10618,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9085,8 +10657,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9118,8 +10696,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9151,8 +10735,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9184,8 +10774,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9214,15 +10810,23 @@
         <v>65194185.48202673</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+        <v>1.081614173228347</v>
+      </c>
+      <c r="M267" t="n">
+        <v>1.033464566929134</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9544,7 +11148,7 @@
         <v>65197827.07822672</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9577,7 +11181,7 @@
         <v>65269306.03672672</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9610,7 +11214,7 @@
         <v>65372128.99090373</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9643,7 +11247,7 @@
         <v>65372128.99090373</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9676,7 +11280,7 @@
         <v>65372689.11620373</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9709,7 +11313,7 @@
         <v>65359156.89020372</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9742,7 +11346,7 @@
         <v>65361089.02530372</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9775,7 +11379,7 @@
         <v>65359279.02530372</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9808,7 +11412,7 @@
         <v>65359279.02530372</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9841,7 +11445,7 @@
         <v>65359872.37420372</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9874,7 +11478,7 @@
         <v>65371731.69620372</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9907,7 +11511,7 @@
         <v>65370731.69620372</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9940,7 +11544,7 @@
         <v>65441874.90450372</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9973,7 +11577,7 @@
         <v>65449872.98330372</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10006,7 +11610,7 @@
         <v>65449872.98330372</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10039,7 +11643,7 @@
         <v>65449301.46520372</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10072,7 +11676,7 @@
         <v>65449301.46520372</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10105,7 +11709,7 @@
         <v>65449954.53500371</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10138,7 +11742,7 @@
         <v>65439229.03350371</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10171,7 +11775,7 @@
         <v>65439895.03340371</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10204,7 +11808,7 @@
         <v>65390943.43010371</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10237,7 +11841,7 @@
         <v>65390943.43010371</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10270,7 +11874,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10303,7 +11907,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10336,7 +11940,7 @@
         <v>65374193.26620371</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10369,7 +11973,7 @@
         <v>65373466.92250371</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10402,7 +12006,7 @@
         <v>65384423.86850371</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10435,7 +12039,7 @@
         <v>65377754.82470372</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10468,7 +12072,7 @@
         <v>65377754.82470372</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10534,7 +12138,7 @@
         <v>65389295.43990371</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10567,7 +12171,7 @@
         <v>65384083.65510371</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10600,7 +12204,7 @@
         <v>65384083.65510371</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10633,7 +12237,7 @@
         <v>65387013.65500371</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10666,7 +12270,7 @@
         <v>65387013.65500371</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10699,7 +12303,7 @@
         <v>65387103.65500371</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10732,7 +12336,7 @@
         <v>65383803.65500371</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10765,7 +12369,7 @@
         <v>65383803.65500371</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10798,7 +12402,7 @@
         <v>65348666.74260371</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10831,7 +12435,7 @@
         <v>65348065.40590371</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10897,7 +12501,7 @@
         <v>65352067.40590371</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11161,7 +12765,7 @@
         <v>65431071.99910371</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11194,7 +12798,7 @@
         <v>65431071.99910371</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11227,7 +12831,7 @@
         <v>65431071.99910371</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11260,7 +12864,7 @@
         <v>65431071.99910371</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11293,7 +12897,7 @@
         <v>65426283.28460371</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11458,7 +13062,7 @@
         <v>65417077.0476037</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11557,7 +13161,7 @@
         <v>65418870.23171923</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
